--- a/source/databricks/calculation_engine/tests/features/Oracle - tariffs.xlsx
+++ b/source/databricks/calculation_engine/tests/features/Oracle - tariffs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\opengeh-wholesale\source\databricks\calculation_engine\tests\features\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7B7708-C31B-4459-89D8-BC50BB58A619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8700E64-05CA-4FCB-B34A-B12E16F24B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="21100" activeTab="3" xr2:uid="{029705A5-E2D6-4928-9AB0-F32087606243}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="21100" activeTab="6" xr2:uid="{029705A5-E2D6-4928-9AB0-F32087606243}"/>
   </bookViews>
   <sheets>
     <sheet name="Tariffs - daily" sheetId="8" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="TimeSeriesPoints" sheetId="5" r:id="rId4"/>
     <sheet name="MeteringPointPeriods" sheetId="4" r:id="rId5"/>
     <sheet name="ChargePriceInformationPeriods" sheetId="3" r:id="rId6"/>
-    <sheet name="ChargeLinks" sheetId="2" r:id="rId7"/>
-    <sheet name="ChargePricePoints" sheetId="6" r:id="rId8"/>
+    <sheet name="fee_per_co_es.csv" sheetId="9" r:id="rId7"/>
+    <sheet name="ChargeLinks" sheetId="2" r:id="rId8"/>
+    <sheet name="ChargePricePoints" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="gridLoss1H_quarter1" localSheetId="3">TimeSeriesPoints!$L$66</definedName>
@@ -50,9 +51,8 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
+  <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -63,30 +63,16 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="178">
   <si>
     <t>charge_price</t>
   </si>
@@ -448,12 +434,6 @@
     <t>grid_areas:</t>
   </si>
   <si>
-    <t>2023-02-01 23:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-02 23:00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">  calculation_type:</t>
   </si>
   <si>
@@ -482,18 +462,6 @@
   </si>
   <si>
     <t>Mapped</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2023-02-04 23:00:00</t>
-  </si>
-  <si>
-    <t>2019-06-06 23:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-20 23:00:00</t>
   </si>
   <si>
     <t>0.908602</t>
@@ -598,21 +566,6 @@
     <t>Does not properly assess quantity_qualities (can only distinguish between 'missing' and 'measured')</t>
   </si>
   <si>
-    <t>Hvilkemålepunkter har den har charge element?</t>
-  </si>
-  <si>
-    <t>2023-02-02 02:00:00</t>
-  </si>
-  <si>
-    <t>2023-01-31</t>
-  </si>
-  <si>
-    <t>2023-02-01</t>
-  </si>
-  <si>
-    <t>2023-02-02</t>
-  </si>
-  <si>
     <t>Day1</t>
   </si>
   <si>
@@ -626,6 +579,33 @@
   </si>
   <si>
     <t>whichday</t>
+  </si>
+  <si>
+    <t>fee-1--0000000000800--1000000000000--consumption--800--flex</t>
+  </si>
+  <si>
+    <t>whichdayFromDay</t>
+  </si>
+  <si>
+    <t>whichToDay</t>
+  </si>
+  <si>
+    <t>2023-02-01 23:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-02 23:00:00</t>
+  </si>
+  <si>
+    <t>2019-06-06 23:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-20 23:00:00</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2023-02-04 23:00:00</t>
   </si>
 </sst>
 </file>
@@ -828,9 +808,540 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="100">
+  <dxfs count="124">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1016,36 +1527,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -1113,6 +1594,15 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1959,126 +2449,68 @@
 </styleSheet>
 </file>
 
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>13</v>
-    <v>3</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8C1F9529-110B-40F9-8C26-ABDA713BFD15}" name="OutPut10" displayName="OutPut10" ref="B4:U8" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8C1F9529-110B-40F9-8C26-ABDA713BFD15}" name="OutPut10" displayName="OutPut10" ref="B4:U8" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122">
   <autoFilter ref="B4:U8" xr:uid="{D2FF87A6-8F25-416A-AF7A-DA3500DDFC40}"/>
   <tableColumns count="20">
-    <tableColumn id="17" xr3:uid="{940A16E7-F84C-4270-B1A9-57FBF6F2994B}" name="calculation_id" dataDxfId="97">
+    <tableColumn id="17" xr3:uid="{940A16E7-F84C-4270-B1A9-57FBF6F2994B}" name="calculation_id" dataDxfId="121">
       <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",'Config and arguments'!C$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{6EE4D5AC-3136-4CFB-96B5-508251133DF0}" name="calculation_type" dataDxfId="96">
+    <tableColumn id="18" xr3:uid="{6EE4D5AC-3136-4CFB-96B5-508251133DF0}" name="calculation_type" dataDxfId="120">
       <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",'Config and arguments'!C$5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{C21B7ED5-A5B4-4A4B-83CF-13E86DA51D9B}" name="calculation_execution_time_start" dataDxfId="95">
+    <tableColumn id="19" xr3:uid="{C21B7ED5-A5B4-4A4B-83CF-13E86DA51D9B}" name="calculation_execution_time_start" dataDxfId="119">
       <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",'Config and arguments'!C$6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{726B2AD0-3C52-4881-9A1E-39F084A8516A}" name="calculation_result_id" dataDxfId="94">
+    <tableColumn id="20" xr3:uid="{726B2AD0-3C52-4881-9A1E-39F084A8516A}" name="calculation_result_id" dataDxfId="118">
       <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","","IGNORED")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BC71DDD9-BD82-458C-8818-3422A0CA67E1}" name="grid_area_code" dataDxfId="93">
+    <tableColumn id="2" xr3:uid="{BC71DDD9-BD82-458C-8818-3422A0CA67E1}" name="grid_area_code" dataDxfId="117">
       <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",G$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C7B284DD-6E01-4FF2-98DD-0C68007ED9C4}" name="energy_supplier_id" dataDxfId="92">
+    <tableColumn id="3" xr3:uid="{C7B284DD-6E01-4FF2-98DD-0C68007ED9C4}" name="energy_supplier_id" dataDxfId="116">
       <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",$E$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BB70289C-E05D-4CBF-8163-BCB1670CB7B4}" name="quantity" dataDxfId="91">
-      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity_quantified],TimeSeriesPoints[metering_point_type],OutPut10[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut10[[#This Row],[settlement_method]],TimeSeriesPoints[day],K6,TimeSeriesPoints[grid_area],OutPut10[[#This Row],[grid_area_code]],TimeSeriesPoints[es],E$3),",","."))</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{BB70289C-E05D-4CBF-8163-BCB1670CB7B4}" name="quantity" dataDxfId="115">
+      <calculatedColumnFormula array="1">IF(OutPut10[[#This Row],[time]]="","",IFERROR(SUBSTITUTE(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X5))),",","."),0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9BC4E831-16AB-4A9C-A05C-41C9B8BCA61B}" name="quantity_unit" dataDxfId="90">
+    <tableColumn id="5" xr3:uid="{9BC4E831-16AB-4A9C-A05C-41C9B8BCA61B}" name="quantity_unit" dataDxfId="114">
       <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","","kWh")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5E508F52-F245-4252-A053-3A4CF96A1E64}" name="quantity_qualities" dataDxfId="89">
-      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",IF(SUMIFS(TimeSeriesPoints[quantity_quantified],TimeSeriesPoints[metering_point_type],OutPut10[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut10[[#This Row],[settlement_method]],TimeSeriesPoints[es],OutPut10[[#This Row],[energy_supplier_id]],TimeSeriesPoints[hour],OutPut10[[#This Row],[time]])&gt;0,"['measured']","['missing']"))</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{5E508F52-F245-4252-A053-3A4CF96A1E64}" name="quantity_qualities" dataDxfId="113">
+      <calculatedColumnFormula array="1">IF(OutPut10[[#This Row],[time]]="","",IFERROR(IF(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X5)))&gt;0,"['missing', 'measured']","'missing'"),"['missing]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{09DDC3DF-BD86-4667-82E3-A93BC5449F84}" name="time" dataDxfId="88">
-      <calculatedColumnFormula>'Config and arguments'!AC3</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{09DDC3DF-BD86-4667-82E3-A93BC5449F84}" name="time" dataDxfId="112">
+      <calculatedColumnFormula>IF('Config and arguments'!AC3="","",_xlfn.CONCAT('Config and arguments'!AC3," 23:00:00"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A90DE32A-2A31-4C61-9DBB-EF94C4547149}" name="resolution" dataDxfId="87">
-      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","","PT1H")</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{A90DE32A-2A31-4C61-9DBB-EF94C4547149}" name="resolution" dataDxfId="111">
+      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","","P1D")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9004D9C9-21EC-45BA-9606-EB0F82E2D0B0}" name="metering_point_type" dataDxfId="86">
+    <tableColumn id="9" xr3:uid="{9004D9C9-21EC-45BA-9606-EB0F82E2D0B0}" name="metering_point_type" dataDxfId="110">
       <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",$F$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9687C2B3-5DA9-4486-9B8D-0594A95BB9D3}" name="settlement_method" dataDxfId="85">
+    <tableColumn id="10" xr3:uid="{9687C2B3-5DA9-4486-9B8D-0594A95BB9D3}" name="settlement_method" dataDxfId="109">
       <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",IF($H$3="","",$H$3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{32A90718-8212-4196-9024-26AA9AD07D21}" name="price" dataDxfId="84">
-      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_day],OutPut10[[#This Row],[time]],ChargePricePoints[charge_code],OutPut10[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_day],OutPut10[[#This Row],[time]],ChargePricePoints[charge_code],OutPut10[[#This Row],[charge_code]]),",",".")))</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{32A90718-8212-4196-9024-26AA9AD07D21}" name="price" dataDxfId="108">
+      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut10[[#This Row],[time]],ChargePricePoints[charge_code],OutPut10[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut10[[#This Row],[time]],ChargePricePoints[charge_code],OutPut10[[#This Row],[charge_code]]),",",".")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{BD375783-A03A-49F3-877C-6BBFC098DC79}" name="amount" dataDxfId="83">
+    <tableColumn id="12" xr3:uid="{BD375783-A03A-49F3-877C-6BBFC098DC79}" name="amount" dataDxfId="107">
       <calculatedColumnFormula>IFERROR(SUBSTITUTE(SUBSTITUTE(OutPut10[[#This Row],[price]],".",",")*SUBSTITUTE(OutPut10[[#This Row],[quantity]],".",","),",","."),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{89F57AB7-40BD-42BE-89B4-ECEB2C36D1FF}" name="is_tax" dataDxfId="82">
+    <tableColumn id="13" xr3:uid="{89F57AB7-40BD-42BE-89B4-ECEB2C36D1FF}" name="is_tax" dataDxfId="106">
       <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{646C9EED-02AB-4F33-B2CA-7ED3272E9FD1}" name="charge_code" dataDxfId="81">
+    <tableColumn id="14" xr3:uid="{646C9EED-02AB-4F33-B2CA-7ED3272E9FD1}" name="charge_code" dataDxfId="105">
       <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",$C$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{2124DB4B-D05E-4FF3-B11A-3C2CD2DB489F}" name="charge_type" dataDxfId="80">
+    <tableColumn id="15" xr3:uid="{2124DB4B-D05E-4FF3-B11A-3C2CD2DB489F}" name="charge_type" dataDxfId="104">
       <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","","tariff")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{E3ACC620-F20E-489D-83FF-8FAB25088A35}" name="charge_owner_id" dataDxfId="79">
+    <tableColumn id="16" xr3:uid="{E3ACC620-F20E-489D-83FF-8FAB25088A35}" name="charge_owner_id" dataDxfId="103">
       <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",$D$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{4E6498E7-69CC-46BD-AAC2-4F8C3C54B573}" name="amount_type" dataDxfId="78">
+    <tableColumn id="1" xr3:uid="{4E6498E7-69CC-46BD-AAC2-4F8C3C54B573}" name="amount_type" dataDxfId="102">
       <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","","amount_per_charge")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2086,68 +2518,91 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CC8E1B98-9587-45C5-95FD-F3B94687A50B}" name="ChargePricePoints" displayName="ChargePricePoints" ref="A1:H25" totalsRowShown="0">
+  <autoFilter ref="A1:H25" xr:uid="{CC8E1B98-9587-45C5-95FD-F3B94687A50B}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{69DFFE3D-C209-469C-93C2-67D70897CECD}" name="charge_code"/>
+    <tableColumn id="2" xr3:uid="{C2BA6440-DC16-4F9B-96BE-A9A0F237B7ED}" name="charge_type"/>
+    <tableColumn id="3" xr3:uid="{DE42A2CB-11DB-40C9-972F-4996A60A2655}" name="charge_owner_id" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{C462E5E9-79F8-4B90-AE92-B40FC6B4334A}" name="charge_price" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{C24479F8-FACC-4841-9EBA-38DC21F5176A}" name="charge_time" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{A8F6CD35-AC38-4473-9AC2-FFF55080D37D}" name="charge_price_quantified" dataDxfId="30">
+      <calculatedColumnFormula>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{95636D1A-8B9F-4BA2-BBFA-C07691BB959D}" name="charge_time_shortened" dataDxfId="29">
+      <calculatedColumnFormula>LEFT(E2,19)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{47A0FE82-5DE4-4CCB-9012-C7369049E3C7}" name="charge_time_day" dataDxfId="28">
+      <calculatedColumnFormula>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2FF87A6-8F25-416A-AF7A-DA3500DDFC40}" name="OutPut" displayName="OutPut" ref="B4:U100" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2FF87A6-8F25-416A-AF7A-DA3500DDFC40}" name="OutPut" displayName="OutPut" ref="B4:U100" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
   <autoFilter ref="B4:U100" xr:uid="{D2FF87A6-8F25-416A-AF7A-DA3500DDFC40}"/>
   <tableColumns count="20">
-    <tableColumn id="17" xr3:uid="{F4A59025-41CA-47AD-952B-2428959E8A50}" name="calculation_id" dataDxfId="75">
+    <tableColumn id="17" xr3:uid="{F4A59025-41CA-47AD-952B-2428959E8A50}" name="calculation_id" dataDxfId="99">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","",'Config and arguments'!C$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{F095173D-E1DC-4697-B288-D95D5945D253}" name="calculation_type" dataDxfId="74">
+    <tableColumn id="18" xr3:uid="{F095173D-E1DC-4697-B288-D95D5945D253}" name="calculation_type" dataDxfId="98">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","",'Config and arguments'!C$5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{2C01FBCF-AEED-47E5-874A-D9CB2BD9D409}" name="calculation_execution_time_start" dataDxfId="73">
+    <tableColumn id="19" xr3:uid="{2C01FBCF-AEED-47E5-874A-D9CB2BD9D409}" name="calculation_execution_time_start" dataDxfId="97">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","",'Config and arguments'!C$6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{37341BB6-4D32-46E1-825A-6DF5D1A0D770}" name="calculation_result_id" dataDxfId="72">
+    <tableColumn id="20" xr3:uid="{37341BB6-4D32-46E1-825A-6DF5D1A0D770}" name="calculation_result_id" dataDxfId="96">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","","IGNORED")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{0DDB3581-9EFD-4CD5-A5E4-AA25CC64A8EA}" name="grid_area_code" dataDxfId="71">
+    <tableColumn id="2" xr3:uid="{0DDB3581-9EFD-4CD5-A5E4-AA25CC64A8EA}" name="grid_area_code" dataDxfId="95">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","",G$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9ECD4A31-B204-4AAA-BCE0-A55479D4D6F9}" name="energy_supplier_id" dataDxfId="70">
+    <tableColumn id="3" xr3:uid="{9ECD4A31-B204-4AAA-BCE0-A55479D4D6F9}" name="energy_supplier_id" dataDxfId="94">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","",$E$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{08094514-49A8-4D25-A69E-A75EB3232592}" name="quantity" dataDxfId="69">
+    <tableColumn id="4" xr3:uid="{08094514-49A8-4D25-A69E-A75EB3232592}" name="quantity" dataDxfId="93">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity_quantified],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]],TimeSeriesPoints[grid_area],OutPut[[#This Row],[grid_area_code]],TimeSeriesPoints[es],E$3),",","."))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{88D10A42-9475-42BD-ADCA-A3FFA72BC973}" name="quantity_unit" dataDxfId="68">
+    <tableColumn id="5" xr3:uid="{88D10A42-9475-42BD-ADCA-A3FFA72BC973}" name="quantity_unit" dataDxfId="92">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","","kWh")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A3DD608C-4E56-40B0-B1F7-95AC815014A7}" name="quantity_qualities" dataDxfId="67">
+    <tableColumn id="6" xr3:uid="{A3DD608C-4E56-40B0-B1F7-95AC815014A7}" name="quantity_qualities" dataDxfId="91">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","",IF(SUMIFS(TimeSeriesPoints[quantity_quantified],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[es],OutPut[[#This Row],[energy_supplier_id]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FBD9FA55-93F5-4E1A-96F5-ED949010179F}" name="time" dataDxfId="66">
+    <tableColumn id="7" xr3:uid="{FBD9FA55-93F5-4E1A-96F5-ED949010179F}" name="time" dataDxfId="90">
       <calculatedColumnFormula>'Config and arguments'!AB3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9932B718-7F22-4D96-BEE4-F0152DC66C3C}" name="resolution" dataDxfId="65">
+    <tableColumn id="8" xr3:uid="{9932B718-7F22-4D96-BEE4-F0152DC66C3C}" name="resolution" dataDxfId="89">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","","PT1H")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E64C45EC-3ECC-46FF-85E7-A6E4C66A6B05}" name="metering_point_type" dataDxfId="64">
+    <tableColumn id="9" xr3:uid="{E64C45EC-3ECC-46FF-85E7-A6E4C66A6B05}" name="metering_point_type" dataDxfId="88">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","",$F$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0EF4D2F5-DCAF-46F8-9394-603FD6C1F55C}" name="settlement_method" dataDxfId="63">
+    <tableColumn id="10" xr3:uid="{0EF4D2F5-DCAF-46F8-9394-603FD6C1F55C}" name="settlement_method" dataDxfId="87">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","",IF($H$3="","",$H$3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{DBC31B41-AB04-4AC3-9F13-BFC4F3EEAA92}" name="price" dataDxfId="62">
+    <tableColumn id="11" xr3:uid="{DBC31B41-AB04-4AC3-9F13-BFC4F3EEAA92}" name="price" dataDxfId="86">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",",".")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{D1E8A453-6F3B-41B3-A143-A8DCE8CA5BCA}" name="amount" dataDxfId="61">
+    <tableColumn id="12" xr3:uid="{D1E8A453-6F3B-41B3-A143-A8DCE8CA5BCA}" name="amount" dataDxfId="85">
       <calculatedColumnFormula>IFERROR(SUBSTITUTE(SUBSTITUTE(OutPut[[#This Row],[price]],".",",")*SUBSTITUTE(OutPut[[#This Row],[quantity]],".",","),",","."),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{1EB903FD-EE7B-4893-8B3E-F5CD1AE80C04}" name="is_tax" dataDxfId="60">
+    <tableColumn id="13" xr3:uid="{1EB903FD-EE7B-4893-8B3E-F5CD1AE80C04}" name="is_tax" dataDxfId="84">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","",VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{6EA78CDA-CA22-44EA-8F2B-84698D2E2563}" name="charge_code" dataDxfId="59">
+    <tableColumn id="14" xr3:uid="{6EA78CDA-CA22-44EA-8F2B-84698D2E2563}" name="charge_code" dataDxfId="83">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","",$C$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{736A1B4A-102F-483A-AA11-B763F06372FC}" name="charge_type" dataDxfId="58">
+    <tableColumn id="15" xr3:uid="{736A1B4A-102F-483A-AA11-B763F06372FC}" name="charge_type" dataDxfId="82">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","","tariff")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{64C92314-FA8E-4583-B04E-521FB24FEAD6}" name="charge_owner_id" dataDxfId="57">
+    <tableColumn id="16" xr3:uid="{64C92314-FA8E-4583-B04E-521FB24FEAD6}" name="charge_owner_id" dataDxfId="81">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","",$D$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{F22DD871-796B-4BA4-81DC-7842494D2C98}" name="amount_type" dataDxfId="56">
+    <tableColumn id="1" xr3:uid="{F22DD871-796B-4BA4-81DC-7842494D2C98}" name="amount_type" dataDxfId="80">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","","amount_per_charge")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2156,22 +2611,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4D9288B3-D090-4897-AD89-5C04D501F267}" name="MPTypeMapping" displayName="MPTypeMapping" ref="A13:B25" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4D9288B3-D090-4897-AD89-5C04D501F267}" name="MPTypeMapping" displayName="MPTypeMapping" ref="A13:B25" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="A13:B25" xr:uid="{4D9288B3-D090-4897-AD89-5C04D501F267}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7A432737-3E15-4ECB-BE3F-D5902A6BDC2B}" name="MP type mapping" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{FDB8F8B6-CF45-4A18-8759-8120EBE28034}" name="Mapped" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{7A432737-3E15-4ECB-BE3F-D5902A6BDC2B}" name="MP type mapping" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{FDB8F8B6-CF45-4A18-8759-8120EBE28034}" name="Mapped" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{78218855-94F9-4AAF-B51E-818503732FDE}" name="SettlementMapping" displayName="SettlementMapping" ref="A9:B11" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{78218855-94F9-4AAF-B51E-818503732FDE}" name="SettlementMapping" displayName="SettlementMapping" ref="A9:B11" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
   <autoFilter ref="A9:B11" xr:uid="{78218855-94F9-4AAF-B51E-818503732FDE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{09776318-E643-49BC-83B0-C37A38FFE072}" name="Settlement method mapping" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{D6412985-2D80-4076-945F-216E94C8E760}" name="mapped" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{09776318-E643-49BC-83B0-C37A38FFE072}" name="Settlement method mapping" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{D6412985-2D80-4076-945F-216E94C8E760}" name="mapped" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2182,25 +2637,25 @@
   <autoFilter ref="A1:L26" xr:uid="{3C8F0617-F039-41D8-8DF9-B9925F5FD292}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{ED5AEA4E-C692-4374-B1CE-C8D8084741D8}" name="metering_point_id"/>
-    <tableColumn id="2" xr3:uid="{DBE4F15E-E8C9-4215-9F8E-1B98001B79C1}" name="quantity" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{DBE4F15E-E8C9-4215-9F8E-1B98001B79C1}" name="quantity" dataDxfId="71"/>
     <tableColumn id="3" xr3:uid="{D9F5ACD6-F0C4-4862-A8B2-60E7B62AC08B}" name="quality"/>
-    <tableColumn id="4" xr3:uid="{920B490A-353A-458C-88EB-A4C7A92A30BF}" name="observation_time" dataDxfId="46"/>
-    <tableColumn id="9" xr3:uid="{97767956-0C76-4A35-860F-18BF3F7A3AB2}" name="quantity_quantified" dataDxfId="45">
+    <tableColumn id="4" xr3:uid="{920B490A-353A-458C-88EB-A4C7A92A30BF}" name="observation_time" dataDxfId="70"/>
+    <tableColumn id="9" xr3:uid="{97767956-0C76-4A35-860F-18BF3F7A3AB2}" name="quantity_quantified" dataDxfId="69">
       <calculatedColumnFormula>IFERROR(VALUE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[quantity]],".",",")),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{95F37151-1BE1-4674-A3E2-CA6607A85058}" name="grid_area" dataDxfId="44">
+    <tableColumn id="8" xr3:uid="{95F37151-1BE1-4674-A3E2-CA6607A85058}" name="grid_area" dataDxfId="68">
       <calculatedColumnFormula>_xlfn.IFNA(INDEX(MeteringPointPeriods[],MATCH(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2111F635-3CBD-450C-8956-C061F4C2F263}" name="metering_point_type" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{111D7211-7EE4-420E-A428-72724271B430}" name="settlement_method" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{E3FD1FFD-3A22-44CC-B91A-56AD78045817}" name="hour" dataDxfId="41"/>
-    <tableColumn id="11" xr3:uid="{D09BFE2D-78E0-4D13-A4AC-2879BE34BEB2}" name="day" dataDxfId="40">
+    <tableColumn id="5" xr3:uid="{2111F635-3CBD-450C-8956-C061F4C2F263}" name="metering_point_type" dataDxfId="67"/>
+    <tableColumn id="6" xr3:uid="{111D7211-7EE4-420E-A428-72724271B430}" name="settlement_method" dataDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{E3FD1FFD-3A22-44CC-B91A-56AD78045817}" name="hour" dataDxfId="65"/>
+    <tableColumn id="11" xr3:uid="{D09BFE2D-78E0-4D13-A4AC-2879BE34BEB2}" name="day" dataDxfId="64">
       <calculatedColumnFormula>LEFT(TimeSeriesPoints[[#This Row],[observation_time]],10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{58CC0E1D-F2F8-45BB-BE68-8AEE47403DD0}" name="whichday" dataDxfId="0">
-      <calculatedColumnFormula>INDEX('Config and arguments'!AA3:AB98,MATCH(TimeSeriesPoints[[#This Row],[observation_time]],'Config and arguments'!AB3:AB98,0),1)</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{58CC0E1D-F2F8-45BB-BE68-8AEE47403DD0}" name="whichday" dataDxfId="63">
+      <calculatedColumnFormula>IF(TimeSeriesPoints[[#This Row],[metering_point_id]]&lt;&gt;"",INDEX('Config and arguments'!Z3:AB98,MATCH(LEFT(TimeSeriesPoints[[#This Row],[day]],10),'Config and arguments'!AA3:AA98,0),1),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D0F2E272-8CBF-4B28-9B88-2B8309280988}" name="es" dataDxfId="39">
+    <tableColumn id="10" xr3:uid="{D0F2E272-8CBF-4B28-9B88-2B8309280988}" name="es" dataDxfId="62">
       <calculatedColumnFormula>_xlfn.IFNA(INDEX(MeteringPointPeriods[],MATCH(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),10),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2209,22 +2664,22 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C23C94B-085F-44ED-9C29-B56B92F1B82F}" name="MeteringPointPeriods" displayName="MeteringPointPeriods" ref="A1:M26" totalsRowShown="0" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C23C94B-085F-44ED-9C29-B56B92F1B82F}" name="MeteringPointPeriods" displayName="MeteringPointPeriods" ref="A1:M26" totalsRowShown="0" dataDxfId="61">
   <autoFilter ref="A1:M26" xr:uid="{9C23C94B-085F-44ED-9C29-B56B92F1B82F}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{BDDD221E-D8D0-4820-9E79-C550EEFB1552}" name="metering_point_id" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{3264101E-B7CE-433E-95D3-ECAF67C4B197}" name="type" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{7C0D9AD3-5F1E-4528-9C99-D7C9C0B81870}" name="calculation_type" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{A7E122D3-3055-4D9F-A63D-DBCBA9074AEF}" name="settlement_method" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{BDA72DCA-8178-4B49-AC99-64FE311CA920}" name="grid_area_code" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{7C4FD7ED-486D-43F5-8209-FB7F4E50B817}" name="resolution" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{EA876C75-481F-4F0C-BFAD-2B6485E386C9}" name="from_grid_area_code" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{DDADF541-4D21-429F-AD29-34F72E0F5DB0}" name="to_grid_area_code" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{6873E7DA-25ED-4F63-9CC3-142EBFD5C96C}" name="parent_metering_point_id" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{5E7B70BE-3917-4AE6-83EA-8A871F97FB99}" name="energy_supplier_id" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{BE1BF5F2-4168-4BEC-B68C-E044D0519557}" name="balance_responsible_party_id" dataDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{9E73F0DE-D460-465D-A80A-57B4C4CD3239}" name="from_date" dataDxfId="26"/>
-    <tableColumn id="13" xr3:uid="{AC523A53-B312-436C-B015-81473D31863F}" name="to_date" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{BDDD221E-D8D0-4820-9E79-C550EEFB1552}" name="metering_point_id" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{3264101E-B7CE-433E-95D3-ECAF67C4B197}" name="type" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{7C0D9AD3-5F1E-4528-9C99-D7C9C0B81870}" name="calculation_type" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{A7E122D3-3055-4D9F-A63D-DBCBA9074AEF}" name="settlement_method" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{BDA72DCA-8178-4B49-AC99-64FE311CA920}" name="grid_area_code" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{7C4FD7ED-486D-43F5-8209-FB7F4E50B817}" name="resolution" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{EA876C75-481F-4F0C-BFAD-2B6485E386C9}" name="from_grid_area_code" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{DDADF541-4D21-429F-AD29-34F72E0F5DB0}" name="to_grid_area_code" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{6873E7DA-25ED-4F63-9CC3-142EBFD5C96C}" name="parent_metering_point_id" dataDxfId="52"/>
+    <tableColumn id="10" xr3:uid="{5E7B70BE-3917-4AE6-83EA-8A871F97FB99}" name="energy_supplier_id" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{BE1BF5F2-4168-4BEC-B68C-E044D0519557}" name="balance_responsible_party_id" dataDxfId="50"/>
+    <tableColumn id="12" xr3:uid="{9E73F0DE-D460-465D-A80A-57B4C4CD3239}" name="from_date" dataDxfId="49"/>
+    <tableColumn id="13" xr3:uid="{AC523A53-B312-436C-B015-81473D31863F}" name="to_date" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2236,44 +2691,79 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{CF0BFE7C-60FC-42F9-9181-73CE1D7E20B7}" name="charge_code"/>
     <tableColumn id="2" xr3:uid="{673AD76B-379D-462E-928F-C6D0BFD5A10C}" name="charge_type"/>
-    <tableColumn id="3" xr3:uid="{243A323C-AF81-41DC-852D-4848600A710B}" name="charge_owner_id" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{243A323C-AF81-41DC-852D-4848600A710B}" name="charge_owner_id" dataDxfId="47"/>
     <tableColumn id="4" xr3:uid="{AD6E792C-2C46-4350-8BAD-EFB6FA436C58}" name="resolution"/>
-    <tableColumn id="5" xr3:uid="{30067025-C046-41BD-B06F-E0FF1088CE27}" name="is_tax" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{0AB395C0-A6FB-4B10-918C-5C09E228F063}" name="from_date" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{62861BBF-4C0E-43ED-8B6A-11C6ED2A05A8}" name="to_date" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{30067025-C046-41BD-B06F-E0FF1088CE27}" name="is_tax" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{0AB395C0-A6FB-4B10-918C-5C09E228F063}" name="from_date" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{62861BBF-4C0E-43ED-8B6A-11C6ED2A05A8}" name="to_date" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C016282-02DA-45DD-8144-000BF0AE3C4B}" name="ChargeLinks" displayName="ChargeLinks" ref="A1:M35" totalsRowShown="0" headerRowDxfId="20">
-  <autoFilter ref="A1:M35" xr:uid="{4C016282-02DA-45DD-8144-000BF0AE3C4B}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{5D866E37-33E8-4772-8058-91EEF8C237C2}" name="charge_code" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{490CB0A2-0EF8-4653-8A5E-9B8094165BDC}" name="charge_type" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{7135A3A1-5051-429E-8261-8AB31A739FB5}" name="charge_owner_id" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{5C6B43BE-2B8F-4A1F-BF82-B40970FE2DC5}" name="metering_point_id" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{59F6ECAA-71F3-40FF-846D-92E4C6D2132D}" name="quantity" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{39BCCFB9-F921-409E-84A0-7A6857B7750E}" name="from_date" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{7264F479-E0E3-49AD-90F9-D674864C31B9}" name="to_date" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{D4F9E4BF-038C-44B8-84BD-68CDB130F334}" name="Charge_resolution" dataDxfId="12">
-      <calculatedColumnFormula>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4AADA5DB-0BFB-429D-972F-F9681FB8402D}" name="OutPut1011" displayName="OutPut1011" ref="B4:U8" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="B4:U8" xr:uid="{D2FF87A6-8F25-416A-AF7A-DA3500DDFC40}"/>
+  <tableColumns count="20">
+    <tableColumn id="17" xr3:uid="{6C4FF581-7A09-4E03-A877-4D6DE30695C1}" name="calculation_id" dataDxfId="25">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3847870A-615B-48A2-A325-CD1C7BAED26A}" name="energy_supplier_id" dataDxfId="11">
-      <calculatedColumnFormula>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</calculatedColumnFormula>
+    <tableColumn id="18" xr3:uid="{9FC972C6-093D-4EEB-A2BC-4C5568B583DC}" name="calculation_type" dataDxfId="24">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{58B714A4-DCC0-4728-99C2-D5D8472B5530}" name="metering_point_type" dataDxfId="10">
-      <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</calculatedColumnFormula>
+    <tableColumn id="19" xr3:uid="{28EF63D3-20C6-47B9-B732-D9DBCE627E44}" name="calculation_execution_time_start" dataDxfId="23">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{76EB7E81-9D94-4902-9DF2-1A4EF371DAF0}" name="settlement_method" dataDxfId="9">
-      <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</calculatedColumnFormula>
+    <tableColumn id="20" xr3:uid="{B542ECDE-75E5-46BE-BA7F-BF0AE34B7430}" name="calculation_result_id" dataDxfId="22">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","","IGNORED")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{9B7776FE-6F51-4A0B-A78D-D4AAF0A7F158}" name="ga" dataDxfId="8">
-      <calculatedColumnFormula>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{A55242AB-2425-4412-9647-30D9C10BB124}" name="grid_area_code" dataDxfId="21">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",G$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A2CD103B-C1B7-45F8-A620-EBFFDBF64097}" name="OutputCombination" dataDxfId="7">
-      <calculatedColumnFormula>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{30B16759-23FA-47E3-9652-58F49E19581C}" name="energy_supplier_id" dataDxfId="20">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",$E$3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{257418CC-C4DA-433E-9656-71A609B017D1}" name="quantity" dataDxfId="19">
+      <calculatedColumnFormula array="1">IF(OutPut1011[[#This Row],[time]]="","",IFERROR(SUBSTITUTE(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X5))),",","."),0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{7A0A3EE7-8623-4064-B5FB-B201DD517F49}" name="quantity_unit" dataDxfId="18">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","","kWh")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{6BB672EB-598A-4007-A2F8-99E3651F2EEA}" name="quantity_qualities" dataDxfId="17">
+      <calculatedColumnFormula array="1">IF(OutPut1011[[#This Row],[time]]="","",IFERROR(IF(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X5)))&gt;0,"['missing', 'measured']","'missing'"),"['missing]"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{BD29D916-4FAA-4BD8-ABF3-2BADA65D3AD2}" name="time" dataDxfId="16">
+      <calculatedColumnFormula>IF('Config and arguments'!AC3="","",_xlfn.CONCAT('Config and arguments'!AC3," 23:00:00"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{35574B58-0F97-474C-B3D1-2AF6E9BEBC36}" name="resolution" dataDxfId="15">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","","P1D")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{848A124C-B8AD-4613-A315-5DC0A487C6AD}" name="metering_point_type" dataDxfId="14">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",$F$3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{F2B6D6BB-6B09-4FD9-8060-469C2836998D}" name="settlement_method" dataDxfId="13">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",IF($H$3="","",$H$3))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{CBA1B0CA-6822-4844-8F48-97E1A46D661A}" name="price" dataDxfId="12">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]]),",",".")))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{E81279EE-62EA-4B15-BEBC-10AD734B9CF7}" name="amount" dataDxfId="11">
+      <calculatedColumnFormula>IFERROR(SUBSTITUTE(SUBSTITUTE(OutPut1011[[#This Row],[price]],".",",")*SUBSTITUTE(OutPut1011[[#This Row],[quantity]],".",","),",","."),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{12F2C78F-1A47-4355-8665-B23F65E21FD3}" name="is_tax" dataDxfId="10">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{49179731-BB1F-4F6B-9415-9540A3A8A74E}" name="charge_code" dataDxfId="9">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",$C$3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{55B814FF-5E3E-4095-90AC-0E2CBE99DEAA}" name="charge_type" dataDxfId="6">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","","fee")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{D074830B-6D39-46E5-93EB-0EAEE96C54A1}" name="charge_owner_id" dataDxfId="8">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",$D$3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" xr3:uid="{22C171CE-7BFD-4CBA-AF95-D75D809F7C62}" name="amount_type" dataDxfId="7">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","","amount_per_charge")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2281,22 +2771,39 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CC8E1B98-9587-45C5-95FD-F3B94687A50B}" name="ChargePricePoints" displayName="ChargePricePoints" ref="A1:H25" totalsRowShown="0">
-  <autoFilter ref="A1:H25" xr:uid="{CC8E1B98-9587-45C5-95FD-F3B94687A50B}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{69DFFE3D-C209-469C-93C2-67D70897CECD}" name="charge_code"/>
-    <tableColumn id="2" xr3:uid="{C2BA6440-DC16-4F9B-96BE-A9A0F237B7ED}" name="charge_type"/>
-    <tableColumn id="3" xr3:uid="{DE42A2CB-11DB-40C9-972F-4996A60A2655}" name="charge_owner_id" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{C462E5E9-79F8-4B90-AE92-B40FC6B4334A}" name="charge_price" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{C24479F8-FACC-4841-9EBA-38DC21F5176A}" name="charge_time" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{A8F6CD35-AC38-4473-9AC2-FFF55080D37D}" name="charge_price_quantified" dataDxfId="3">
-      <calculatedColumnFormula>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C016282-02DA-45DD-8144-000BF0AE3C4B}" name="ChargeLinks" displayName="ChargeLinks" ref="A1:O35" totalsRowShown="0" headerRowDxfId="43">
+  <autoFilter ref="A1:O35" xr:uid="{4C016282-02DA-45DD-8144-000BF0AE3C4B}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{5D866E37-33E8-4772-8058-91EEF8C237C2}" name="charge_code" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{490CB0A2-0EF8-4653-8A5E-9B8094165BDC}" name="charge_type" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{7135A3A1-5051-429E-8261-8AB31A739FB5}" name="charge_owner_id" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{5C6B43BE-2B8F-4A1F-BF82-B40970FE2DC5}" name="metering_point_id" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{59F6ECAA-71F3-40FF-846D-92E4C6D2132D}" name="quantity" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{39BCCFB9-F921-409E-84A0-7A6857B7750E}" name="from_date" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{7264F479-E0E3-49AD-90F9-D674864C31B9}" name="to_date" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{D4F9E4BF-038C-44B8-84BD-68CDB130F334}" name="Charge_resolution" dataDxfId="3">
+      <calculatedColumnFormula>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{95636D1A-8B9F-4BA2-BBFA-C07691BB959D}" name="charge_time_shortened" dataDxfId="2">
-      <calculatedColumnFormula>LEFT(E2,19)</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{3847870A-615B-48A2-A325-CD1C7BAED26A}" name="energy_supplier_id" dataDxfId="38">
+      <calculatedColumnFormula>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{47A0FE82-5DE4-4CCB-9012-C7369049E3C7}" name="charge_time_day" dataDxfId="1">
-      <calculatedColumnFormula>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{58B714A4-DCC0-4728-99C2-D5D8472B5530}" name="metering_point_type" dataDxfId="37">
+      <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{76EB7E81-9D94-4902-9DF2-1A4EF371DAF0}" name="settlement_method" dataDxfId="36">
+      <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{B31AFEA3-7FB4-4030-B29A-473E94B7464D}" name="whichdayFromDay" dataDxfId="1">
+      <calculatedColumnFormula>IFERROR(INDEX('Config and arguments'!Z3:AB98,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB3:AB98,0),1),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{27B6CBA5-D5A2-4C63-B037-451D5B9422CB}" name="whichToDay" dataDxfId="0">
+      <calculatedColumnFormula>IFERROR(INDEX('Config and arguments'!Z3:AB98,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB3:AB98,0),1),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{9B7776FE-6F51-4A0B-A78D-D4AAF0A7F158}" name="ga" dataDxfId="35">
+      <calculatedColumnFormula>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{A2CD103B-C1B7-45F8-A620-EBFFDBF64097}" name="OutputCombination" dataDxfId="34">
+      <calculatedColumnFormula>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2623,7 +3130,7 @@
   <dimension ref="B1:AD100"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2668,10 +3175,10 @@
   <sheetData>
     <row r="1" spans="2:30" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B1" s="13" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -2761,8 +3268,8 @@
         <v>87</v>
       </c>
       <c r="AD4" s="6" t="str" cm="1">
-        <f t="array" ref="AD4:AD11">_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(ChargeLinks[],(ChargeLinks[charge_type]="Tariff")*(ChargeLinks[Charge_resolution]="P1D")),,13))</f>
-        <v>tariff-daily-1--0000000000800--3000000000000--consumption--800--non_profiled</v>
+        <f t="array" ref="AD4">_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(ChargeLinks[],(ChargeLinks[charge_type]="Tariff")*(ChargeLinks[Charge_resolution]="P1D")),,13))</f>
+        <v/>
       </c>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.35">
@@ -2790,25 +3297,25 @@
         <f>IF(OutPut10[[#This Row],[time]]="","",$E$3)</f>
         <v>2000000000000</v>
       </c>
-      <c r="H5" s="11" t="str">
-        <f>IF(OutPut10[[#This Row],[time]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity_quantified],TimeSeriesPoints[metering_point_type],OutPut10[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut10[[#This Row],[settlement_method]],TimeSeriesPoints[day],K6,TimeSeriesPoints[grid_area],OutPut10[[#This Row],[grid_area_code]],TimeSeriesPoints[es],E$3),",","."))</f>
-        <v>200000</v>
+      <c r="H5" s="11" t="str" cm="1">
+        <f t="array" ref="H5">IF(OutPut10[[#This Row],[time]]="","",IFERROR(SUBSTITUTE(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X5))),",","."),0))</f>
+        <v>100000</v>
       </c>
       <c r="I5" s="11" t="str">
         <f>IF(OutPut10[[#This Row],[time]]="","","kWh")</f>
         <v>kWh</v>
       </c>
-      <c r="J5" s="11" t="str">
-        <f>IF(OutPut10[[#This Row],[time]]="","",IF(SUMIFS(TimeSeriesPoints[quantity_quantified],TimeSeriesPoints[metering_point_type],OutPut10[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut10[[#This Row],[settlement_method]],TimeSeriesPoints[es],OutPut10[[#This Row],[energy_supplier_id]],TimeSeriesPoints[hour],OutPut10[[#This Row],[time]])&gt;0,"['measured']","['missing']"))</f>
-        <v>['missing']</v>
+      <c r="J5" s="11" t="str" cm="1">
+        <f t="array" ref="J5">IF(OutPut10[[#This Row],[time]]="","",IFERROR(IF(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X5)))&gt;0,"['missing', 'measured']","'missing'"),"['missing]"))</f>
+        <v>['missing', 'measured']</v>
       </c>
       <c r="K5" s="11" t="str">
-        <f>'Config and arguments'!AC3</f>
-        <v>2023-01-31</v>
+        <f>IF('Config and arguments'!AC3="","",_xlfn.CONCAT('Config and arguments'!AC3," 23:00:00"))</f>
+        <v>2023-01-31 23:00:00</v>
       </c>
       <c r="L5" s="11" t="str">
-        <f>IF(OutPut10[[#This Row],[time]]="","","PT1H")</f>
-        <v>PT1H</v>
+        <f>IF(OutPut10[[#This Row],[time]]="","","P1D")</f>
+        <v>P1D</v>
       </c>
       <c r="M5" s="11" t="str">
         <f>IF(OutPut10[[#This Row],[time]]="","",$F$3)</f>
@@ -2819,12 +3326,12 @@
         <v/>
       </c>
       <c r="O5" s="12" t="str">
-        <f>IF(OutPut10[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_day],OutPut10[[#This Row],[time]],ChargePricePoints[charge_code],OutPut10[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_day],OutPut10[[#This Row],[time]],ChargePricePoints[charge_code],OutPut10[[#This Row],[charge_code]]),",",".")))</f>
+        <f>IF(OutPut10[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut10[[#This Row],[time]],ChargePricePoints[charge_code],OutPut10[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut10[[#This Row],[time]],ChargePricePoints[charge_code],OutPut10[[#This Row],[charge_code]]),",",".")))</f>
         <v>0.001</v>
       </c>
       <c r="P5" s="12" t="str">
         <f>IFERROR(SUBSTITUTE(SUBSTITUTE(OutPut10[[#This Row],[price]],".",",")*SUBSTITUTE(OutPut10[[#This Row],[quantity]],".",","),",","."),"")</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="11" t="str">
         <f>IF(OutPut10[[#This Row],[time]]="","",VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE))</f>
@@ -2846,8 +3353,8 @@
         <f>IF(OutPut10[[#This Row],[time]]="","","amount_per_charge")</f>
         <v>amount_per_charge</v>
       </c>
-      <c r="AD5" s="6" t="str">
-        <v>tariff-daily-1--0000000000800--1000000000000--consumption--800--flex</v>
+      <c r="X5" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.35">
@@ -2875,25 +3382,25 @@
         <f>IF(OutPut10[[#This Row],[time]]="","",$E$3)</f>
         <v>2000000000000</v>
       </c>
-      <c r="H6" s="11" t="str">
-        <f>IF(OutPut10[[#This Row],[time]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity_quantified],TimeSeriesPoints[metering_point_type],OutPut10[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut10[[#This Row],[settlement_method]],TimeSeriesPoints[day],K7,TimeSeriesPoints[grid_area],OutPut10[[#This Row],[grid_area_code]],TimeSeriesPoints[es],E$3),",","."))</f>
-        <v>100000</v>
+      <c r="H6" s="11" cm="1">
+        <f t="array" ref="H6">IF(OutPut10[[#This Row],[time]]="","",IFERROR(SUBSTITUTE(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X6))),",","."),0))</f>
+        <v>0</v>
       </c>
       <c r="I6" s="11" t="str">
         <f>IF(OutPut10[[#This Row],[time]]="","","kWh")</f>
         <v>kWh</v>
       </c>
-      <c r="J6" s="11" t="str">
-        <f>IF(OutPut10[[#This Row],[time]]="","",IF(SUMIFS(TimeSeriesPoints[quantity_quantified],TimeSeriesPoints[metering_point_type],OutPut10[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut10[[#This Row],[settlement_method]],TimeSeriesPoints[es],OutPut10[[#This Row],[energy_supplier_id]],TimeSeriesPoints[hour],OutPut10[[#This Row],[time]])&gt;0,"['measured']","['missing']"))</f>
-        <v>['missing']</v>
+      <c r="J6" s="11" t="str" cm="1">
+        <f t="array" ref="J6">IF(OutPut10[[#This Row],[time]]="","",IFERROR(IF(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X6)))&gt;0,"['missing', 'measured']","'missing'"),"['missing]"))</f>
+        <v>['missing]</v>
       </c>
       <c r="K6" s="11" t="str">
-        <f>'Config and arguments'!AC4</f>
-        <v>2023-02-01</v>
+        <f>IF('Config and arguments'!AC4="","",_xlfn.CONCAT('Config and arguments'!AC4," 23:00:00"))</f>
+        <v>2023-02-01 23:00:00</v>
       </c>
       <c r="L6" s="11" t="str">
-        <f>IF(OutPut10[[#This Row],[time]]="","","PT1H")</f>
-        <v>PT1H</v>
+        <f>IF(OutPut10[[#This Row],[time]]="","","P1D")</f>
+        <v>P1D</v>
       </c>
       <c r="M6" s="11" t="str">
         <f>IF(OutPut10[[#This Row],[time]]="","",$F$3)</f>
@@ -2904,7 +3411,7 @@
         <v/>
       </c>
       <c r="O6" s="12" t="str">
-        <f>IF(OutPut10[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_day],OutPut10[[#This Row],[time]],ChargePricePoints[charge_code],OutPut10[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_day],OutPut10[[#This Row],[time]],ChargePricePoints[charge_code],OutPut10[[#This Row],[charge_code]]),",",".")))</f>
+        <f>IF(OutPut10[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut10[[#This Row],[time]],ChargePricePoints[charge_code],OutPut10[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut10[[#This Row],[time]],ChargePricePoints[charge_code],OutPut10[[#This Row],[charge_code]]),",",".")))</f>
         <v/>
       </c>
       <c r="P6" s="12" t="str">
@@ -2931,8 +3438,8 @@
         <f>IF(OutPut10[[#This Row],[time]]="","","amount_per_charge")</f>
         <v>amount_per_charge</v>
       </c>
-      <c r="AD6" s="6" t="str">
-        <v>tariff-daily-2--0000000000800--2000000000000--production--800</v>
+      <c r="X6" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.35">
@@ -2960,25 +3467,25 @@
         <f>IF(OutPut10[[#This Row],[time]]="","",$E$3)</f>
         <v>2000000000000</v>
       </c>
-      <c r="H7" s="11" t="str">
-        <f>IF(OutPut10[[#This Row],[time]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity_quantified],TimeSeriesPoints[metering_point_type],OutPut10[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut10[[#This Row],[settlement_method]],TimeSeriesPoints[day],K8,TimeSeriesPoints[grid_area],OutPut10[[#This Row],[grid_area_code]],TimeSeriesPoints[es],E$3),",","."))</f>
+      <c r="H7" s="11" cm="1">
+        <f t="array" ref="H7">IF(OutPut10[[#This Row],[time]]="","",IFERROR(SUBSTITUTE(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X7))),",","."),0))</f>
         <v>0</v>
       </c>
       <c r="I7" s="11" t="str">
         <f>IF(OutPut10[[#This Row],[time]]="","","kWh")</f>
         <v>kWh</v>
       </c>
-      <c r="J7" s="11" t="str">
-        <f>IF(OutPut10[[#This Row],[time]]="","",IF(SUMIFS(TimeSeriesPoints[quantity_quantified],TimeSeriesPoints[metering_point_type],OutPut10[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut10[[#This Row],[settlement_method]],TimeSeriesPoints[es],OutPut10[[#This Row],[energy_supplier_id]],TimeSeriesPoints[hour],OutPut10[[#This Row],[time]])&gt;0,"['measured']","['missing']"))</f>
-        <v>['missing']</v>
+      <c r="J7" s="11" t="str" cm="1">
+        <f t="array" ref="J7">IF(OutPut10[[#This Row],[time]]="","",IFERROR(IF(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X7)))&gt;0,"['missing', 'measured']","'missing'"),"['missing]"))</f>
+        <v>['missing]</v>
       </c>
       <c r="K7" s="11" t="str">
-        <f>'Config and arguments'!AC5</f>
-        <v>2023-02-02</v>
+        <f>IF('Config and arguments'!AC5="","",_xlfn.CONCAT('Config and arguments'!AC5," 23:00:00"))</f>
+        <v>2023-02-02 23:00:00</v>
       </c>
       <c r="L7" s="11" t="str">
-        <f>IF(OutPut10[[#This Row],[time]]="","","PT1H")</f>
-        <v>PT1H</v>
+        <f>IF(OutPut10[[#This Row],[time]]="","","P1D")</f>
+        <v>P1D</v>
       </c>
       <c r="M7" s="11" t="str">
         <f>IF(OutPut10[[#This Row],[time]]="","",$F$3)</f>
@@ -2989,7 +3496,7 @@
         <v/>
       </c>
       <c r="O7" s="12" t="str">
-        <f>IF(OutPut10[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_day],OutPut10[[#This Row],[time]],ChargePricePoints[charge_code],OutPut10[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_day],OutPut10[[#This Row],[time]],ChargePricePoints[charge_code],OutPut10[[#This Row],[charge_code]]),",",".")))</f>
+        <f>IF(OutPut10[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut10[[#This Row],[time]],ChargePricePoints[charge_code],OutPut10[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut10[[#This Row],[time]],ChargePricePoints[charge_code],OutPut10[[#This Row],[charge_code]]),",",".")))</f>
         <v/>
       </c>
       <c r="P7" s="12" t="str">
@@ -3016,8 +3523,8 @@
         <f>IF(OutPut10[[#This Row],[time]]="","","amount_per_charge")</f>
         <v>amount_per_charge</v>
       </c>
-      <c r="AD7" s="6" t="str">
-        <v>tariff-daily-3-co_is_tax--6660000000666--1000000000000--consumption_from_grid--800</v>
+      <c r="X7" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.35">
@@ -3045,24 +3552,24 @@
         <f>IF(OutPut10[[#This Row],[time]]="","",$E$3)</f>
         <v/>
       </c>
-      <c r="H8" s="11" t="str">
-        <f>IF(OutPut10[[#This Row],[time]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity_quantified],TimeSeriesPoints[metering_point_type],OutPut10[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut10[[#This Row],[settlement_method]],TimeSeriesPoints[day],K9,TimeSeriesPoints[grid_area],OutPut10[[#This Row],[grid_area_code]],TimeSeriesPoints[es],E$3),",","."))</f>
+      <c r="H8" s="11" t="str" cm="1">
+        <f t="array" ref="H8">IF(OutPut10[[#This Row],[time]]="","",IFERROR(SUBSTITUTE(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X8))),",","."),0))</f>
         <v/>
       </c>
       <c r="I8" s="11" t="str">
         <f>IF(OutPut10[[#This Row],[time]]="","","kWh")</f>
         <v/>
       </c>
-      <c r="J8" s="11" t="str">
-        <f>IF(OutPut10[[#This Row],[time]]="","",IF(SUMIFS(TimeSeriesPoints[quantity_quantified],TimeSeriesPoints[metering_point_type],OutPut10[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut10[[#This Row],[settlement_method]],TimeSeriesPoints[es],OutPut10[[#This Row],[energy_supplier_id]],TimeSeriesPoints[hour],OutPut10[[#This Row],[time]])&gt;0,"['measured']","['missing']"))</f>
+      <c r="J8" s="11" t="str" cm="1">
+        <f t="array" ref="J8">IF(OutPut10[[#This Row],[time]]="","",IFERROR(IF(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X8)))&gt;0,"['missing', 'measured']","'missing'"),"['missing]"))</f>
         <v/>
       </c>
       <c r="K8" s="11" t="str">
-        <f>'Config and arguments'!AC6</f>
+        <f>IF('Config and arguments'!AC6="","",_xlfn.CONCAT('Config and arguments'!AC6," 23:00:00"))</f>
         <v/>
       </c>
       <c r="L8" s="11" t="str">
-        <f>IF(OutPut10[[#This Row],[time]]="","","PT1H")</f>
+        <f>IF(OutPut10[[#This Row],[time]]="","","P1D")</f>
         <v/>
       </c>
       <c r="M8" s="11" t="str">
@@ -3074,7 +3581,7 @@
         <v/>
       </c>
       <c r="O8" s="12" t="str">
-        <f>IF(OutPut10[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_day],OutPut10[[#This Row],[time]],ChargePricePoints[charge_code],OutPut10[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_day],OutPut10[[#This Row],[time]],ChargePricePoints[charge_code],OutPut10[[#This Row],[charge_code]]),",",".")))</f>
+        <f>IF(OutPut10[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut10[[#This Row],[time]],ChargePricePoints[charge_code],OutPut10[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut10[[#This Row],[time]],ChargePricePoints[charge_code],OutPut10[[#This Row],[charge_code]]),",",".")))</f>
         <v/>
       </c>
       <c r="P8" s="12" t="str">
@@ -3101,33 +3608,24 @@
         <f>IF(OutPut10[[#This Row],[time]]="","","amount_per_charge")</f>
         <v/>
       </c>
-      <c r="AD8" s="6" t="str">
-        <v>tariff-daily-4-co_is_not_tax--6660000000666--2000000000000--production--800</v>
+      <c r="X8" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.35">
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="AD9" s="6" t="str">
-        <v>tariff-daily-2--0000000000800--4000000000000--production--800</v>
-      </c>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.35">
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="AD10" s="6" t="str">
-        <v>tariff-daily-2--0000000000800--2000000000000--own_production--800</v>
-      </c>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.35">
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-      <c r="AD11" s="6" t="str">
-        <v>tariff-daily-1--0000000000800--2000000000000--production--111</v>
-      </c>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.35">
       <c r="N12" s="5"/>
@@ -3145,125 +3643,95 @@
       <c r="P14" s="5"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="G15" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="G16" s="3" t="str" cm="1">
-        <f t="array" ref="G16:G17">INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C1),,4)</f>
-        <v>180000000000000111</v>
-      </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="G17" s="3" t="str">
-        <v>170000000000000111</v>
-      </c>
+    <row r="17" spans="14:25" x14ac:dyDescent="0.35">
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="14:25" x14ac:dyDescent="0.35">
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="14:25" x14ac:dyDescent="0.35">
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="14:25" x14ac:dyDescent="0.35">
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="14:25" x14ac:dyDescent="0.35">
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="14:25" x14ac:dyDescent="0.35">
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="14:25" x14ac:dyDescent="0.35">
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="D24" s="3" t="e" cm="1" vm="1">
-        <f t="array" ref="D24">SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],_xlfn.ANCHORARRAY(G16),0))*(TimeSeriesPoints[day]=E24)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>172</v>
-      </c>
+    <row r="24" spans="14:25" x14ac:dyDescent="0.35">
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="E25" s="3" t="s">
-        <v>173</v>
-      </c>
+    <row r="25" spans="14:25" x14ac:dyDescent="0.35">
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="E26" s="3" t="s">
-        <v>174</v>
-      </c>
+    <row r="26" spans="14:25" x14ac:dyDescent="0.35">
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="14:25" x14ac:dyDescent="0.35">
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="14:25" x14ac:dyDescent="0.35">
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="14:25" x14ac:dyDescent="0.35">
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="14:25" x14ac:dyDescent="0.35">
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="V30" s="9"/>
       <c r="Y30" s="9"/>
     </row>
-    <row r="31" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="D31" s="3" cm="1">
-        <f t="array" ref="D31:D32">_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],_xlfn.ANCHORARRAY(G16),0))*(TimeSeriesPoints[day]=E25))</f>
-        <v>100000</v>
-      </c>
+    <row r="31" spans="14:25" x14ac:dyDescent="0.35">
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="V31" s="9"/>
       <c r="Y31" s="9"/>
     </row>
-    <row r="32" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="D32" s="3">
-        <v>100000</v>
-      </c>
+    <row r="32" spans="14:25" x14ac:dyDescent="0.35">
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
@@ -3678,6 +4146,7 @@
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{94F5DC8C-4B4D-4AF6-89DB-C19A08BA1E3A}">
       <formula1>$AD$4:$AD$40</formula1>
@@ -3696,7 +4165,7 @@
   <dimension ref="B1:AD100"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3741,10 +4210,10 @@
   <sheetData>
     <row r="1" spans="2:30" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B1" s="13" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -3833,8 +4302,8 @@
         <v>87</v>
       </c>
       <c r="AD4" s="6" t="str" cm="1">
-        <f t="array" ref="AD4:AD10">_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(ChargeLinks[],(ChargeLinks[charge_type]="Tariff")*(ChargeLinks[Charge_resolution]="PT1H")),,13))</f>
-        <v>tariff-hourly-1--0000000000800--3000000000000--consumption--800--non_profiled</v>
+        <f t="array" ref="AD4">_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(ChargeLinks[],(ChargeLinks[charge_type]="Tariff")*(ChargeLinks[Charge_resolution]="PT1H")),,13))</f>
+        <v/>
       </c>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.35">
@@ -3918,9 +4387,6 @@
         <f>IF(OutPut[[#This Row],[time]]="","","amount_per_charge")</f>
         <v>amount_per_charge</v>
       </c>
-      <c r="AD5" s="6" t="str">
-        <v>tariff-hourly-1--0000000000800--1000000000000--consumption--800--flex</v>
-      </c>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B6" s="15" t="str">
@@ -4003,9 +4469,6 @@
         <f>IF(OutPut[[#This Row],[time]]="","","amount_per_charge")</f>
         <v>amount_per_charge</v>
       </c>
-      <c r="AD6" s="6" t="str">
-        <v>tariff-hourly-2--0000000000800--1000000000000--consumption_from_grid--800</v>
-      </c>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B7" s="15" t="str">
@@ -4088,9 +4551,6 @@
         <f>IF(OutPut[[#This Row],[time]]="","","amount_per_charge")</f>
         <v>amount_per_charge</v>
       </c>
-      <c r="AD7" s="6" t="str">
-        <v>tariff-hourly-2--0000000000800--4000000000000--production--800</v>
-      </c>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B8" s="15" t="str">
@@ -4173,9 +4633,6 @@
         <f>IF(OutPut[[#This Row],[time]]="","","amount_per_charge")</f>
         <v>amount_per_charge</v>
       </c>
-      <c r="AD8" s="6" t="str">
-        <v>tariff-hourly-2--0000000000800--2000000000000--own_production--800</v>
-      </c>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B9" s="15" t="str">
@@ -4258,9 +4715,6 @@
         <f>IF(OutPut[[#This Row],[time]]="","","amount_per_charge")</f>
         <v>amount_per_charge</v>
       </c>
-      <c r="AD9" s="6" t="str">
-        <v>tariff-hourly-3--0000000000800--2000000000000--production--800</v>
-      </c>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B10" s="15" t="str">
@@ -4342,9 +4796,6 @@
       <c r="U10" s="15" t="str">
         <f>IF(OutPut[[#This Row],[time]]="","","amount_per_charge")</f>
         <v>amount_per_charge</v>
-      </c>
-      <c r="AD10" s="6" t="str">
-        <v>tariff-hourly-4-co_is_tax--6660000000666--1000000000000--consumption--800--flex</v>
       </c>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.35">
@@ -11875,8 +12326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9301DE9B-2D41-4976-BCEB-AE00C6574AF0}">
   <dimension ref="A1:AC287"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11887,7 +12338,8 @@
     <col min="4" max="8" width="10.6328125" style="3" customWidth="1"/>
     <col min="9" max="9" width="8.7265625" style="3"/>
     <col min="10" max="10" width="17.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="27" width="8.7265625" style="3"/>
+    <col min="11" max="26" width="8.7265625" style="3"/>
+    <col min="27" max="27" width="10.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="32.6328125" style="6" customWidth="1"/>
     <col min="29" max="29" width="19.36328125" style="6" bestFit="1" customWidth="1"/>
     <col min="30" max="16384" width="8.7265625" style="3"/>
@@ -11895,7 +12347,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="23" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>119</v>
@@ -11913,28 +12365,32 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B2" s="17" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>88</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>127</v>
-      </c>
       <c r="H3" s="18"/>
-      <c r="AA3" s="3" t="s">
-        <v>175</v>
+      <c r="Z3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA3" s="3" t="str">
+        <f>LEFT(AB3,10)</f>
+        <v>2023-01-31</v>
       </c>
       <c r="AB3" s="8" t="str">
         <f>C3</f>
@@ -11947,17 +12403,21 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B4" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H4" s="18"/>
-      <c r="AA4" s="3" t="s">
-        <v>175</v>
+      <c r="Z4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA4" s="3" t="str">
+        <f t="shared" ref="AA4:AA67" si="0">LEFT(AB4,10)</f>
+        <v>2023-02-01</v>
       </c>
       <c r="AB4" s="8" t="str">
-        <f t="shared" ref="AB4:AB35" si="0">IF(C$4&gt;TEXT(AB$3+((ROW()-3)/24),"åååå-mm-dd tt:mm:ss"),TEXT(AB$3+((ROW()-3)/24),"åååå-mm-dd tt:mm:ss"),"")</f>
+        <f t="shared" ref="AB4:AB35" si="1">IF(C$4&gt;TEXT(AB$3+((ROW()-3)/24),"åååå-mm-dd tt:mm:ss"),TEXT(AB$3+((ROW()-3)/24),"åååå-mm-dd tt:mm:ss"),"")</f>
         <v>2023-02-01 00:00:00</v>
       </c>
       <c r="AC4" s="8" t="str">
@@ -11967,17 +12427,21 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B5" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>89</v>
       </c>
       <c r="H5" s="18"/>
-      <c r="AA5" s="3" t="s">
-        <v>175</v>
+      <c r="Z5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01</v>
       </c>
       <c r="AB5" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-01 01:00:00</v>
       </c>
       <c r="AC5" s="8" t="str">
@@ -11987,17 +12451,21 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>90</v>
       </c>
       <c r="H6" s="18"/>
-      <c r="AA6" s="3" t="s">
-        <v>175</v>
+      <c r="Z6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01</v>
       </c>
       <c r="AB6" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-01 02:00:00</v>
       </c>
       <c r="AC6" s="8" t="str">
@@ -12007,17 +12475,21 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H7" s="18"/>
-      <c r="AA7" s="3" t="s">
-        <v>175</v>
+      <c r="Z7" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01</v>
       </c>
       <c r="AB7" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-01 03:00:00</v>
       </c>
       <c r="AC7" s="8"/>
@@ -12025,11 +12497,15 @@
     <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="D8" s="19"/>
       <c r="H8" s="18"/>
-      <c r="AA8" s="3" t="s">
-        <v>175</v>
+      <c r="Z8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01</v>
       </c>
       <c r="AB8" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-01 04:00:00</v>
       </c>
       <c r="AC8" s="8" t="str">
@@ -12042,15 +12518,19 @@
         <v>54</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D9" s="19"/>
       <c r="H9" s="18"/>
-      <c r="AA9" s="3" t="s">
-        <v>175</v>
+      <c r="Z9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01</v>
       </c>
       <c r="AB9" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-01 05:00:00</v>
       </c>
       <c r="AC9" s="8" t="str">
@@ -12067,11 +12547,15 @@
       </c>
       <c r="D10" s="19"/>
       <c r="H10" s="18"/>
-      <c r="AA10" s="3" t="s">
-        <v>175</v>
+      <c r="Z10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01</v>
       </c>
       <c r="AB10" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-01 06:00:00</v>
       </c>
       <c r="AC10" s="8" t="str">
@@ -12088,11 +12572,15 @@
       </c>
       <c r="D11" s="19"/>
       <c r="H11" s="18"/>
-      <c r="AA11" s="3" t="s">
-        <v>175</v>
+      <c r="Z11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01</v>
       </c>
       <c r="AB11" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-01 07:00:00</v>
       </c>
     </row>
@@ -12100,11 +12588,15 @@
       <c r="A12" s="9"/>
       <c r="D12" s="19"/>
       <c r="H12" s="18"/>
-      <c r="AA12" s="3" t="s">
-        <v>175</v>
+      <c r="Z12" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01</v>
       </c>
       <c r="AB12" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-01 08:00:00</v>
       </c>
     </row>
@@ -12113,14 +12605,18 @@
         <v>49</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H13" s="18"/>
-      <c r="AA13" s="3" t="s">
-        <v>175</v>
+      <c r="Z13" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01</v>
       </c>
       <c r="AB13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-01 09:00:00</v>
       </c>
     </row>
@@ -12132,11 +12628,15 @@
         <v>50</v>
       </c>
       <c r="H14" s="18"/>
-      <c r="AA14" s="3" t="s">
-        <v>175</v>
+      <c r="Z14" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01</v>
       </c>
       <c r="AB14" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-01 10:00:00</v>
       </c>
     </row>
@@ -12148,11 +12648,15 @@
         <v>51</v>
       </c>
       <c r="H15" s="18"/>
-      <c r="AA15" s="3" t="s">
-        <v>175</v>
+      <c r="Z15" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01</v>
       </c>
       <c r="AB15" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-01 11:00:00</v>
       </c>
     </row>
@@ -12164,11 +12668,15 @@
         <v>53</v>
       </c>
       <c r="H16" s="18"/>
-      <c r="AA16" s="3" t="s">
-        <v>175</v>
+      <c r="Z16" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01</v>
       </c>
       <c r="AB16" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-01 12:00:00</v>
       </c>
     </row>
@@ -12180,11 +12688,15 @@
         <v>52</v>
       </c>
       <c r="H17" s="18"/>
-      <c r="AA17" s="3" t="s">
-        <v>175</v>
+      <c r="Z17" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01</v>
       </c>
       <c r="AB17" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-01 13:00:00</v>
       </c>
     </row>
@@ -12196,11 +12708,15 @@
         <v>74</v>
       </c>
       <c r="H18" s="18"/>
-      <c r="AA18" s="3" t="s">
-        <v>175</v>
+      <c r="Z18" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01</v>
       </c>
       <c r="AB18" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-01 14:00:00</v>
       </c>
     </row>
@@ -12208,11 +12724,15 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="H19" s="18"/>
-      <c r="AA19" s="3" t="s">
-        <v>175</v>
+      <c r="Z19" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01</v>
       </c>
       <c r="AB19" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-01 15:00:00</v>
       </c>
     </row>
@@ -12220,11 +12740,15 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="H20" s="18"/>
-      <c r="AA20" s="3" t="s">
-        <v>175</v>
+      <c r="Z20" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01</v>
       </c>
       <c r="AB20" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-01 16:00:00</v>
       </c>
     </row>
@@ -12232,11 +12756,15 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="H21" s="18"/>
-      <c r="AA21" s="3" t="s">
-        <v>175</v>
+      <c r="Z21" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01</v>
       </c>
       <c r="AB21" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-01 17:00:00</v>
       </c>
     </row>
@@ -12244,11 +12772,15 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="H22" s="18"/>
-      <c r="AA22" s="3" t="s">
-        <v>175</v>
+      <c r="Z22" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01</v>
       </c>
       <c r="AB22" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-01 18:00:00</v>
       </c>
     </row>
@@ -12256,11 +12788,15 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="H23" s="18"/>
-      <c r="AA23" s="3" t="s">
-        <v>175</v>
+      <c r="Z23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01</v>
       </c>
       <c r="AB23" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-01 19:00:00</v>
       </c>
     </row>
@@ -12268,11 +12804,15 @@
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="H24" s="18"/>
-      <c r="AA24" s="3" t="s">
-        <v>175</v>
+      <c r="Z24" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01</v>
       </c>
       <c r="AB24" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-01 20:00:00</v>
       </c>
     </row>
@@ -12280,769 +12820,1065 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="H25" s="18"/>
-      <c r="AA25" s="3" t="s">
-        <v>175</v>
+      <c r="Z25" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01</v>
       </c>
       <c r="AB25" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-01 21:00:00</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
       <c r="H26" s="18"/>
-      <c r="AA26" s="3" t="s">
-        <v>175</v>
+      <c r="Z26" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01</v>
       </c>
       <c r="AB26" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-01 22:00:00</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
       <c r="H27" s="18"/>
-      <c r="AA27" s="3" t="s">
-        <v>176</v>
+      <c r="Z27" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01</v>
       </c>
       <c r="AB27" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-01 23:00:00</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B28" s="3"/>
       <c r="H28" s="18"/>
-      <c r="AA28" s="3" t="s">
-        <v>176</v>
+      <c r="Z28" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02</v>
       </c>
       <c r="AB28" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-02 00:00:00</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B29" s="3"/>
       <c r="H29" s="18"/>
-      <c r="AA29" s="3" t="s">
-        <v>176</v>
+      <c r="Z29" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02</v>
       </c>
       <c r="AB29" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-02 01:00:00</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H30" s="18"/>
-      <c r="AA30" s="3" t="s">
-        <v>176</v>
+      <c r="Z30" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02</v>
       </c>
       <c r="AB30" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-02 02:00:00</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H31" s="18"/>
-      <c r="AA31" s="3" t="s">
-        <v>176</v>
+      <c r="Z31" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02</v>
       </c>
       <c r="AB31" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-02 03:00:00</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="H32" s="18"/>
-      <c r="AA32" s="3" t="s">
-        <v>176</v>
+      <c r="Z32" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02</v>
       </c>
       <c r="AB32" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-02 04:00:00</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="H33" s="18"/>
-      <c r="AA33" s="3" t="s">
-        <v>176</v>
+      <c r="Z33" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02</v>
       </c>
       <c r="AB33" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-02 05:00:00</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34" s="9"/>
       <c r="H34" s="18"/>
-      <c r="AA34" s="3" t="s">
-        <v>176</v>
+      <c r="Z34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02</v>
       </c>
       <c r="AB34" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-02 06:00:00</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>
       <c r="H35" s="18"/>
-      <c r="AA35" s="3" t="s">
-        <v>176</v>
+      <c r="Z35" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02</v>
       </c>
       <c r="AB35" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2023-02-02 07:00:00</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36" s="9"/>
       <c r="H36" s="18"/>
-      <c r="AA36" s="3" t="s">
-        <v>176</v>
+      <c r="Z36" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02</v>
       </c>
       <c r="AB36" s="8" t="str">
-        <f t="shared" ref="AB36:AB67" si="1">IF(C$4&gt;TEXT(AB$3+((ROW()-3)/24),"åååå-mm-dd tt:mm:ss"),TEXT(AB$3+((ROW()-3)/24),"åååå-mm-dd tt:mm:ss"),"")</f>
+        <f t="shared" ref="AB36:AB67" si="2">IF(C$4&gt;TEXT(AB$3+((ROW()-3)/24),"åååå-mm-dd tt:mm:ss"),TEXT(AB$3+((ROW()-3)/24),"åååå-mm-dd tt:mm:ss"),"")</f>
         <v>2023-02-02 08:00:00</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37" s="9"/>
       <c r="H37" s="18"/>
-      <c r="AA37" s="3" t="s">
-        <v>176</v>
+      <c r="Z37" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02</v>
       </c>
       <c r="AB37" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-02 09:00:00</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" s="9"/>
       <c r="H38" s="18"/>
-      <c r="AA38" s="3" t="s">
-        <v>176</v>
+      <c r="Z38" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02</v>
       </c>
       <c r="AB38" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-02 10:00:00</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39" s="9"/>
       <c r="H39" s="18"/>
-      <c r="AA39" s="3" t="s">
-        <v>176</v>
+      <c r="Z39" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02</v>
       </c>
       <c r="AB39" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-02 11:00:00</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40" s="9"/>
       <c r="H40" s="18"/>
-      <c r="AA40" s="3" t="s">
-        <v>176</v>
+      <c r="Z40" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02</v>
       </c>
       <c r="AB40" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-02 12:00:00</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A41" s="9"/>
       <c r="H41" s="18"/>
-      <c r="AA41" s="3" t="s">
-        <v>176</v>
+      <c r="Z41" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02</v>
       </c>
       <c r="AB41" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-02 13:00:00</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A42" s="9"/>
       <c r="H42" s="18"/>
-      <c r="AA42" s="3" t="s">
-        <v>176</v>
+      <c r="Z42" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02</v>
       </c>
       <c r="AB42" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-02 14:00:00</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A43" s="9"/>
       <c r="H43" s="18"/>
-      <c r="AA43" s="3" t="s">
-        <v>176</v>
+      <c r="Z43" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02</v>
       </c>
       <c r="AB43" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-02 15:00:00</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="H44" s="18"/>
-      <c r="AA44" s="3" t="s">
-        <v>176</v>
+      <c r="Z44" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02</v>
       </c>
       <c r="AB44" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-02 16:00:00</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="H45" s="18"/>
-      <c r="AA45" s="3" t="s">
-        <v>176</v>
+      <c r="Z45" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02</v>
       </c>
       <c r="AB45" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-02 17:00:00</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="H46" s="18"/>
-      <c r="AA46" s="3" t="s">
-        <v>176</v>
+      <c r="Z46" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02</v>
       </c>
       <c r="AB46" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-02 18:00:00</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="H47" s="18"/>
-      <c r="AA47" s="3" t="s">
-        <v>176</v>
+      <c r="Z47" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02</v>
       </c>
       <c r="AB47" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-02 19:00:00</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="H48" s="18"/>
-      <c r="AA48" s="3" t="s">
-        <v>176</v>
+      <c r="Z48" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02</v>
       </c>
       <c r="AB48" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-02 20:00:00</v>
       </c>
     </row>
     <row r="49" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H49" s="18"/>
-      <c r="AA49" s="3" t="s">
-        <v>176</v>
+      <c r="Z49" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA49" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02</v>
       </c>
       <c r="AB49" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-02 21:00:00</v>
       </c>
     </row>
     <row r="50" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H50" s="18"/>
-      <c r="AA50" s="3" t="s">
-        <v>176</v>
+      <c r="Z50" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02</v>
       </c>
       <c r="AB50" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-02 22:00:00</v>
       </c>
     </row>
     <row r="51" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H51" s="18"/>
-      <c r="AA51" s="3" t="s">
-        <v>177</v>
+      <c r="Z51" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02</v>
       </c>
       <c r="AB51" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-02 23:00:00</v>
       </c>
     </row>
     <row r="52" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H52" s="18"/>
-      <c r="AA52" s="3" t="s">
-        <v>177</v>
+      <c r="Z52" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-03</v>
       </c>
       <c r="AB52" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-03 00:00:00</v>
       </c>
     </row>
     <row r="53" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H53" s="18"/>
-      <c r="AA53" s="3" t="s">
-        <v>177</v>
+      <c r="Z53" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-03</v>
       </c>
       <c r="AB53" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-03 01:00:00</v>
       </c>
     </row>
     <row r="54" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H54" s="18"/>
-      <c r="AA54" s="3" t="s">
-        <v>177</v>
+      <c r="Z54" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA54" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-03</v>
       </c>
       <c r="AB54" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-03 02:00:00</v>
       </c>
     </row>
     <row r="55" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H55" s="18"/>
-      <c r="AA55" s="3" t="s">
-        <v>177</v>
+      <c r="Z55" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA55" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-03</v>
       </c>
       <c r="AB55" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-03 03:00:00</v>
       </c>
     </row>
     <row r="56" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H56" s="18"/>
-      <c r="AA56" s="3" t="s">
-        <v>177</v>
+      <c r="Z56" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA56" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-03</v>
       </c>
       <c r="AB56" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-03 04:00:00</v>
       </c>
     </row>
     <row r="57" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H57" s="18"/>
-      <c r="AA57" s="3" t="s">
-        <v>177</v>
+      <c r="Z57" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA57" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-03</v>
       </c>
       <c r="AB57" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-03 05:00:00</v>
       </c>
     </row>
     <row r="58" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H58" s="18"/>
-      <c r="AA58" s="3" t="s">
-        <v>177</v>
+      <c r="Z58" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA58" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-03</v>
       </c>
       <c r="AB58" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-03 06:00:00</v>
       </c>
     </row>
     <row r="59" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H59" s="18"/>
-      <c r="AA59" s="3" t="s">
-        <v>177</v>
+      <c r="Z59" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA59" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-03</v>
       </c>
       <c r="AB59" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-03 07:00:00</v>
       </c>
     </row>
     <row r="60" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H60" s="18"/>
-      <c r="AA60" s="3" t="s">
-        <v>177</v>
+      <c r="Z60" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA60" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-03</v>
       </c>
       <c r="AB60" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-03 08:00:00</v>
       </c>
     </row>
     <row r="61" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H61" s="18"/>
-      <c r="AA61" s="3" t="s">
-        <v>177</v>
+      <c r="Z61" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA61" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-03</v>
       </c>
       <c r="AB61" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-03 09:00:00</v>
       </c>
     </row>
     <row r="62" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H62" s="18"/>
-      <c r="AA62" s="3" t="s">
-        <v>177</v>
+      <c r="Z62" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA62" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-03</v>
       </c>
       <c r="AB62" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-03 10:00:00</v>
       </c>
     </row>
     <row r="63" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H63" s="18"/>
-      <c r="AA63" s="3" t="s">
-        <v>177</v>
+      <c r="Z63" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA63" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-03</v>
       </c>
       <c r="AB63" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-03 11:00:00</v>
       </c>
     </row>
     <row r="64" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H64" s="18"/>
-      <c r="AA64" s="3" t="s">
-        <v>177</v>
+      <c r="Z64" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA64" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-03</v>
       </c>
       <c r="AB64" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-03 12:00:00</v>
       </c>
     </row>
     <row r="65" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H65" s="18"/>
-      <c r="AA65" s="3" t="s">
-        <v>177</v>
+      <c r="Z65" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA65" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-03</v>
       </c>
       <c r="AB65" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-03 13:00:00</v>
       </c>
     </row>
     <row r="66" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H66" s="18"/>
-      <c r="AA66" s="3" t="s">
-        <v>177</v>
+      <c r="Z66" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA66" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-03</v>
       </c>
       <c r="AB66" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-03 14:00:00</v>
       </c>
     </row>
     <row r="67" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H67" s="18"/>
-      <c r="AA67" s="3" t="s">
-        <v>177</v>
+      <c r="Z67" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA67" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-03</v>
       </c>
       <c r="AB67" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023-02-03 15:00:00</v>
       </c>
     </row>
     <row r="68" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H68" s="18"/>
-      <c r="AA68" s="3" t="s">
-        <v>177</v>
+      <c r="Z68" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA68" s="3" t="str">
+        <f t="shared" ref="AA68:AA98" si="3">LEFT(AB68,10)</f>
+        <v>2023-02-03</v>
       </c>
       <c r="AB68" s="8" t="str">
-        <f t="shared" ref="AB68:AB98" si="2">IF(C$4&gt;TEXT(AB$3+((ROW()-3)/24),"åååå-mm-dd tt:mm:ss"),TEXT(AB$3+((ROW()-3)/24),"åååå-mm-dd tt:mm:ss"),"")</f>
+        <f t="shared" ref="AB68:AB98" si="4">IF(C$4&gt;TEXT(AB$3+((ROW()-3)/24),"åååå-mm-dd tt:mm:ss"),TEXT(AB$3+((ROW()-3)/24),"åååå-mm-dd tt:mm:ss"),"")</f>
         <v>2023-02-03 16:00:00</v>
       </c>
     </row>
     <row r="69" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H69" s="18"/>
-      <c r="AA69" s="3" t="s">
-        <v>177</v>
+      <c r="Z69" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA69" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2023-02-03</v>
       </c>
       <c r="AB69" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2023-02-03 17:00:00</v>
       </c>
     </row>
     <row r="70" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H70" s="18"/>
-      <c r="AA70" s="3" t="s">
-        <v>177</v>
+      <c r="Z70" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA70" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2023-02-03</v>
       </c>
       <c r="AB70" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2023-02-03 18:00:00</v>
       </c>
     </row>
     <row r="71" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H71" s="18"/>
-      <c r="AA71" s="3" t="s">
-        <v>177</v>
+      <c r="Z71" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA71" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2023-02-03</v>
       </c>
       <c r="AB71" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2023-02-03 19:00:00</v>
       </c>
     </row>
     <row r="72" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H72" s="18"/>
-      <c r="AA72" s="3" t="s">
-        <v>177</v>
+      <c r="Z72" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA72" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2023-02-03</v>
       </c>
       <c r="AB72" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2023-02-03 20:00:00</v>
       </c>
     </row>
     <row r="73" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H73" s="18"/>
-      <c r="AA73" s="3" t="s">
-        <v>177</v>
+      <c r="Z73" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA73" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2023-02-03</v>
       </c>
       <c r="AB73" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2023-02-03 21:00:00</v>
       </c>
     </row>
     <row r="74" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H74" s="18"/>
-      <c r="AA74" s="3" t="s">
-        <v>177</v>
+      <c r="Z74" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA74" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2023-02-03</v>
       </c>
       <c r="AB74" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2023-02-03 22:00:00</v>
       </c>
     </row>
     <row r="75" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H75" s="18"/>
-      <c r="AA75" s="3" t="s">
-        <v>178</v>
+      <c r="Z75" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA75" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AB75" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H76" s="18"/>
-      <c r="AA76" s="3" t="s">
-        <v>178</v>
+      <c r="Z76" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA76" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AB76" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H77" s="18"/>
-      <c r="AA77" s="3" t="s">
-        <v>178</v>
+      <c r="Z77" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA77" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AB77" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H78" s="18"/>
-      <c r="AA78" s="3" t="s">
-        <v>178</v>
+      <c r="Z78" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA78" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AB78" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H79" s="18"/>
-      <c r="AA79" s="3" t="s">
-        <v>178</v>
+      <c r="Z79" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA79" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AB79" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H80" s="18"/>
-      <c r="AA80" s="3" t="s">
-        <v>178</v>
+      <c r="Z80" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA80" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AB80" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H81" s="18"/>
-      <c r="AA81" s="3" t="s">
-        <v>178</v>
+      <c r="Z81" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA81" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AB81" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H82" s="18"/>
-      <c r="AA82" s="3" t="s">
-        <v>178</v>
+      <c r="Z82" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA82" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AB82" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H83" s="18"/>
-      <c r="AA83" s="3" t="s">
-        <v>178</v>
+      <c r="Z83" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA83" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AB83" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H84" s="18"/>
-      <c r="AA84" s="3" t="s">
-        <v>178</v>
+      <c r="Z84" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA84" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AB84" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H85" s="18"/>
-      <c r="AA85" s="3" t="s">
-        <v>178</v>
+      <c r="Z85" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA85" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AB85" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H86" s="18"/>
-      <c r="AA86" s="3" t="s">
-        <v>178</v>
+      <c r="Z86" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA86" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AB86" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H87" s="18"/>
-      <c r="AA87" s="3" t="s">
-        <v>178</v>
+      <c r="Z87" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA87" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AB87" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H88" s="18"/>
-      <c r="AA88" s="3" t="s">
-        <v>178</v>
+      <c r="Z88" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA88" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AB88" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H89" s="18"/>
-      <c r="AA89" s="3" t="s">
-        <v>178</v>
+      <c r="Z89" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA89" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AB89" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H90" s="18"/>
-      <c r="AA90" s="3" t="s">
-        <v>178</v>
+      <c r="Z90" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA90" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AB90" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H91" s="18"/>
-      <c r="AA91" s="3" t="s">
-        <v>178</v>
+      <c r="Z91" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA91" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AB91" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H92" s="18"/>
-      <c r="AA92" s="3" t="s">
-        <v>178</v>
+      <c r="Z92" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA92" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AB92" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H93" s="18"/>
-      <c r="AA93" s="3" t="s">
-        <v>178</v>
+      <c r="Z93" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA93" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AB93" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H94" s="18"/>
-      <c r="AA94" s="3" t="s">
-        <v>178</v>
+      <c r="Z94" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA94" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AB94" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H95" s="18"/>
-      <c r="AA95" s="3" t="s">
-        <v>178</v>
+      <c r="Z95" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA95" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AB95" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H96" s="18"/>
-      <c r="AA96" s="3" t="s">
-        <v>178</v>
+      <c r="Z96" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA96" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AB96" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H97" s="18"/>
-      <c r="AA97" s="3" t="s">
-        <v>178</v>
+      <c r="Z97" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA97" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AB97" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="8:28" x14ac:dyDescent="0.35">
       <c r="H98" s="18"/>
-      <c r="AA98" s="3" t="s">
-        <v>178</v>
+      <c r="Z98" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA98" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AB98" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -13773,8 +14609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68540427-6C91-47D8-8C93-985527AE66E6}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13808,7 +14644,7 @@
         <v>118</v>
       </c>
       <c r="F1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G1" t="s">
         <v>46</v>
@@ -13820,13 +14656,13 @@
         <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="L1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -13834,7 +14670,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>60</v>
@@ -13867,7 +14703,7 @@
         <v>2023-02-01</v>
       </c>
       <c r="K2" s="3" t="str">
-        <f>INDEX('Config and arguments'!AA3:AB98,MATCH(TimeSeriesPoints[[#This Row],[observation_time]],'Config and arguments'!AB3:AB98,0),1)</f>
+        <f>IF(TimeSeriesPoints[[#This Row],[metering_point_id]]&lt;&gt;"",INDEX('Config and arguments'!Z3:AB98,MATCH(LEFT(TimeSeriesPoints[[#This Row],[day]],10),'Config and arguments'!AA3:AA98,0),1),"")</f>
         <v>Day1</v>
       </c>
       <c r="L2" s="3" t="str">
@@ -13913,7 +14749,7 @@
         <v>2023-02-01</v>
       </c>
       <c r="K3" s="3" t="str">
-        <f>INDEX('Config and arguments'!AA4:AB99,MATCH(TimeSeriesPoints[[#This Row],[observation_time]],'Config and arguments'!AB4:AB99,0),1)</f>
+        <f>IF(TimeSeriesPoints[[#This Row],[metering_point_id]]&lt;&gt;"",INDEX('Config and arguments'!Z4:AB99,MATCH(LEFT(TimeSeriesPoints[[#This Row],[day]],10),'Config and arguments'!AA4:AA99,0),1),"")</f>
         <v>Day1</v>
       </c>
       <c r="L3" s="3" t="str">
@@ -13958,9 +14794,9 @@
         <f>LEFT(TimeSeriesPoints[[#This Row],[observation_time]],10)</f>
         <v>2023-02-01</v>
       </c>
-      <c r="K4" s="3" t="e">
-        <f>INDEX('Config and arguments'!AA5:AB100,MATCH(TimeSeriesPoints[[#This Row],[observation_time]],'Config and arguments'!AB5:AB100,0),1)</f>
-        <v>#N/A</v>
+      <c r="K4" s="3" t="str">
+        <f>IF(TimeSeriesPoints[[#This Row],[metering_point_id]]&lt;&gt;"",INDEX('Config and arguments'!Z5:AB100,MATCH(LEFT(TimeSeriesPoints[[#This Row],[day]],10),'Config and arguments'!AA5:AA100,0),1),"")</f>
+        <v>Day1</v>
       </c>
       <c r="L4" s="3" t="str">
         <f>_xlfn.IFNA(INDEX(MeteringPointPeriods[],MATCH(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),10),"")</f>
@@ -14004,9 +14840,9 @@
         <f>LEFT(TimeSeriesPoints[[#This Row],[observation_time]],10)</f>
         <v>2023-02-01</v>
       </c>
-      <c r="K5" s="3" t="e">
-        <f>INDEX('Config and arguments'!AA6:AB101,MATCH(TimeSeriesPoints[[#This Row],[observation_time]],'Config and arguments'!AB6:AB101,0),1)</f>
-        <v>#N/A</v>
+      <c r="K5" s="3" t="str">
+        <f>IF(TimeSeriesPoints[[#This Row],[metering_point_id]]&lt;&gt;"",INDEX('Config and arguments'!Z6:AB101,MATCH(LEFT(TimeSeriesPoints[[#This Row],[day]],10),'Config and arguments'!AA6:AA101,0),1),"")</f>
+        <v>Day1</v>
       </c>
       <c r="L5" s="3" t="str">
         <f>_xlfn.IFNA(INDEX(MeteringPointPeriods[],MATCH(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),10),"")</f>
@@ -14018,7 +14854,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>60</v>
@@ -14050,9 +14886,9 @@
         <f>LEFT(TimeSeriesPoints[[#This Row],[observation_time]],10)</f>
         <v>2023-02-01</v>
       </c>
-      <c r="K6" s="3" t="e">
-        <f>INDEX('Config and arguments'!AA7:AB102,MATCH(TimeSeriesPoints[[#This Row],[observation_time]],'Config and arguments'!AB7:AB102,0),1)</f>
-        <v>#N/A</v>
+      <c r="K6" s="3" t="str">
+        <f>IF(TimeSeriesPoints[[#This Row],[metering_point_id]]&lt;&gt;"",INDEX('Config and arguments'!Z7:AB102,MATCH(LEFT(TimeSeriesPoints[[#This Row],[day]],10),'Config and arguments'!AA7:AA102,0),1),"")</f>
+        <v>Day1</v>
       </c>
       <c r="L6" s="3" t="str">
         <f>_xlfn.IFNA(INDEX(MeteringPointPeriods[],MATCH(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),10),"")</f>
@@ -14064,7 +14900,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>60</v>
@@ -14097,7 +14933,7 @@
         <v>2023-02-03</v>
       </c>
       <c r="K7" s="3" t="str">
-        <f>INDEX('Config and arguments'!AA8:AB103,MATCH(TimeSeriesPoints[[#This Row],[observation_time]],'Config and arguments'!AB8:AB103,0),1)</f>
+        <f>IF(TimeSeriesPoints[[#This Row],[metering_point_id]]&lt;&gt;"",INDEX('Config and arguments'!Z8:AB103,MATCH(LEFT(TimeSeriesPoints[[#This Row],[day]],10),'Config and arguments'!AA8:AA103,0),1),"")</f>
         <v>Day3</v>
       </c>
       <c r="L7" s="3" t="str">
@@ -14110,7 +14946,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>60</v>
@@ -14142,9 +14978,9 @@
         <f>LEFT(TimeSeriesPoints[[#This Row],[observation_time]],10)</f>
         <v>2023-02-01</v>
       </c>
-      <c r="K8" s="3" t="e">
-        <f>INDEX('Config and arguments'!AA9:AB104,MATCH(TimeSeriesPoints[[#This Row],[observation_time]],'Config and arguments'!AB9:AB104,0),1)</f>
-        <v>#N/A</v>
+      <c r="K8" s="3" t="str">
+        <f>IF(TimeSeriesPoints[[#This Row],[metering_point_id]]&lt;&gt;"",INDEX('Config and arguments'!Z9:AB104,MATCH(LEFT(TimeSeriesPoints[[#This Row],[day]],10),'Config and arguments'!AA9:AA104,0),1),"")</f>
+        <v>Day1</v>
       </c>
       <c r="L8" s="3" t="str">
         <f>_xlfn.IFNA(INDEX(MeteringPointPeriods[],MATCH(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),10),"")</f>
@@ -14156,7 +14992,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>60</v>
@@ -14188,9 +15024,9 @@
         <f>LEFT(TimeSeriesPoints[[#This Row],[observation_time]],10)</f>
         <v>2023-02-01</v>
       </c>
-      <c r="K9" s="3" t="e">
-        <f>INDEX('Config and arguments'!AA10:AB105,MATCH(TimeSeriesPoints[[#This Row],[observation_time]],'Config and arguments'!AB10:AB105,0),1)</f>
-        <v>#N/A</v>
+      <c r="K9" s="3" t="str">
+        <f>IF(TimeSeriesPoints[[#This Row],[metering_point_id]]&lt;&gt;"",INDEX('Config and arguments'!Z10:AB105,MATCH(LEFT(TimeSeriesPoints[[#This Row],[day]],10),'Config and arguments'!AA10:AA105,0),1),"")</f>
+        <v>Day1</v>
       </c>
       <c r="L9" s="3" t="str">
         <f>_xlfn.IFNA(INDEX(MeteringPointPeriods[],MATCH(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),10),"")</f>
@@ -14202,7 +15038,7 @@
         <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>60</v>
@@ -14234,9 +15070,9 @@
         <f>LEFT(TimeSeriesPoints[[#This Row],[observation_time]],10)</f>
         <v>2023-02-01</v>
       </c>
-      <c r="K10" s="3" t="e">
-        <f>INDEX('Config and arguments'!AA11:AB106,MATCH(TimeSeriesPoints[[#This Row],[observation_time]],'Config and arguments'!AB11:AB106,0),1)</f>
-        <v>#N/A</v>
+      <c r="K10" s="3" t="str">
+        <f>IF(TimeSeriesPoints[[#This Row],[metering_point_id]]&lt;&gt;"",INDEX('Config and arguments'!Z11:AB106,MATCH(LEFT(TimeSeriesPoints[[#This Row],[day]],10),'Config and arguments'!AA11:AA106,0),1),"")</f>
+        <v>Day1</v>
       </c>
       <c r="L10" s="3" t="str">
         <f>_xlfn.IFNA(INDEX(MeteringPointPeriods[],MATCH(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),10),"")</f>
@@ -14248,7 +15084,7 @@
         <v>114</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>60</v>
@@ -14280,9 +15116,9 @@
         <f>LEFT(TimeSeriesPoints[[#This Row],[observation_time]],10)</f>
         <v>2023-02-01</v>
       </c>
-      <c r="K11" s="3" t="e">
-        <f>INDEX('Config and arguments'!AA12:AB107,MATCH(TimeSeriesPoints[[#This Row],[observation_time]],'Config and arguments'!AB12:AB107,0),1)</f>
-        <v>#N/A</v>
+      <c r="K11" s="3" t="str">
+        <f>IF(TimeSeriesPoints[[#This Row],[metering_point_id]]&lt;&gt;"",INDEX('Config and arguments'!Z12:AB107,MATCH(LEFT(TimeSeriesPoints[[#This Row],[day]],10),'Config and arguments'!AA12:AA107,0),1),"")</f>
+        <v>Day1</v>
       </c>
       <c r="L11" s="3" t="str">
         <f>_xlfn.IFNA(INDEX(MeteringPointPeriods[],MATCH(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),10),"")</f>
@@ -14318,9 +15154,9 @@
         <f>LEFT(TimeSeriesPoints[[#This Row],[observation_time]],10)</f>
         <v/>
       </c>
-      <c r="K12" s="3" t="e">
-        <f>INDEX('Config and arguments'!AA13:AB108,MATCH(TimeSeriesPoints[[#This Row],[observation_time]],'Config and arguments'!AB13:AB108,0),1)</f>
-        <v>#N/A</v>
+      <c r="K12" s="3" t="str">
+        <f>IF(TimeSeriesPoints[[#This Row],[metering_point_id]]&lt;&gt;"",INDEX('Config and arguments'!Z13:AB108,MATCH(LEFT(TimeSeriesPoints[[#This Row],[day]],10),'Config and arguments'!AA13:AA108,0),1),"")</f>
+        <v/>
       </c>
       <c r="L12" s="3" t="str">
         <f>_xlfn.IFNA(INDEX(MeteringPointPeriods[],MATCH(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),10),"")</f>
@@ -14328,29 +15164,21 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="5" t="str">
         <f>IFERROR(VALUE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[quantity]],".",",")),"")</f>
-        <v>100000</v>
+        <v/>
       </c>
       <c r="F13" s="3" t="str">
         <f>_xlfn.IFNA(INDEX(MeteringPointPeriods[],MATCH(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
-        <v>111</v>
+        <v/>
       </c>
       <c r="G13" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>production</v>
+        <v/>
       </c>
       <c r="H13" s="3" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
@@ -14358,19 +15186,19 @@
       </c>
       <c r="I13" s="3" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
-        <v>2023-02-02 02:00:00</v>
+        <v/>
       </c>
       <c r="J13" s="3" t="str">
         <f>LEFT(TimeSeriesPoints[[#This Row],[observation_time]],10)</f>
-        <v>2023-02-02</v>
+        <v/>
       </c>
       <c r="K13" s="3" t="str">
-        <f>INDEX('Config and arguments'!AA14:AB109,MATCH(TimeSeriesPoints[[#This Row],[observation_time]],'Config and arguments'!AB14:AB109,0),1)</f>
-        <v>Day2</v>
+        <f>IF(TimeSeriesPoints[[#This Row],[metering_point_id]]&lt;&gt;"",INDEX('Config and arguments'!Z14:AB109,MATCH(LEFT(TimeSeriesPoints[[#This Row],[day]],10),'Config and arguments'!AA14:AA109,0),1),"")</f>
+        <v/>
       </c>
       <c r="L13" s="3" t="str">
         <f>_xlfn.IFNA(INDEX(MeteringPointPeriods[],MATCH(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),10),"")</f>
-        <v>2000000000000</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -14402,9 +15230,9 @@
         <f>LEFT(TimeSeriesPoints[[#This Row],[observation_time]],10)</f>
         <v/>
       </c>
-      <c r="K14" s="3" t="e">
-        <f>INDEX('Config and arguments'!AA15:AB110,MATCH(TimeSeriesPoints[[#This Row],[observation_time]],'Config and arguments'!AB15:AB110,0),1)</f>
-        <v>#N/A</v>
+      <c r="K14" s="3" t="str">
+        <f>IF(TimeSeriesPoints[[#This Row],[metering_point_id]]&lt;&gt;"",INDEX('Config and arguments'!Z15:AB110,MATCH(LEFT(TimeSeriesPoints[[#This Row],[day]],10),'Config and arguments'!AA15:AA110,0),1),"")</f>
+        <v/>
       </c>
       <c r="L14" s="3" t="str">
         <f>_xlfn.IFNA(INDEX(MeteringPointPeriods[],MATCH(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),10),"")</f>
@@ -14438,9 +15266,9 @@
         <f>LEFT(TimeSeriesPoints[[#This Row],[observation_time]],10)</f>
         <v/>
       </c>
-      <c r="K15" s="3" t="e">
-        <f>INDEX('Config and arguments'!AA16:AB111,MATCH(TimeSeriesPoints[[#This Row],[observation_time]],'Config and arguments'!AB16:AB111,0),1)</f>
-        <v>#N/A</v>
+      <c r="K15" s="3" t="str">
+        <f>IF(TimeSeriesPoints[[#This Row],[metering_point_id]]&lt;&gt;"",INDEX('Config and arguments'!Z16:AB111,MATCH(LEFT(TimeSeriesPoints[[#This Row],[day]],10),'Config and arguments'!AA16:AA111,0),1),"")</f>
+        <v/>
       </c>
       <c r="L15" s="3" t="str">
         <f>_xlfn.IFNA(INDEX(MeteringPointPeriods[],MATCH(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),10),"")</f>
@@ -14476,9 +15304,9 @@
         <f>LEFT(TimeSeriesPoints[[#This Row],[observation_time]],10)</f>
         <v/>
       </c>
-      <c r="K16" s="3" t="e">
-        <f>INDEX('Config and arguments'!AA17:AB112,MATCH(TimeSeriesPoints[[#This Row],[observation_time]],'Config and arguments'!AB17:AB112,0),1)</f>
-        <v>#N/A</v>
+      <c r="K16" s="3" t="str">
+        <f>IF(TimeSeriesPoints[[#This Row],[metering_point_id]]&lt;&gt;"",INDEX('Config and arguments'!Z17:AB112,MATCH(LEFT(TimeSeriesPoints[[#This Row],[day]],10),'Config and arguments'!AA17:AA112,0),1),"")</f>
+        <v/>
       </c>
       <c r="L16" s="3" t="str">
         <f>_xlfn.IFNA(INDEX(MeteringPointPeriods[],MATCH(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),10),"")</f>
@@ -14514,9 +15342,9 @@
         <f>LEFT(TimeSeriesPoints[[#This Row],[observation_time]],10)</f>
         <v/>
       </c>
-      <c r="K17" s="3" t="e">
-        <f>INDEX('Config and arguments'!AA18:AB113,MATCH(TimeSeriesPoints[[#This Row],[observation_time]],'Config and arguments'!AB18:AB113,0),1)</f>
-        <v>#N/A</v>
+      <c r="K17" s="3" t="str">
+        <f>IF(TimeSeriesPoints[[#This Row],[metering_point_id]]&lt;&gt;"",INDEX('Config and arguments'!Z18:AB113,MATCH(LEFT(TimeSeriesPoints[[#This Row],[day]],10),'Config and arguments'!AA18:AA113,0),1),"")</f>
+        <v/>
       </c>
       <c r="L17" s="3" t="str">
         <f>_xlfn.IFNA(INDEX(MeteringPointPeriods[],MATCH(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),10),"")</f>
@@ -14552,9 +15380,9 @@
         <f>LEFT(TimeSeriesPoints[[#This Row],[observation_time]],10)</f>
         <v/>
       </c>
-      <c r="K18" s="3" t="e">
-        <f>INDEX('Config and arguments'!AA19:AB114,MATCH(TimeSeriesPoints[[#This Row],[observation_time]],'Config and arguments'!AB19:AB114,0),1)</f>
-        <v>#N/A</v>
+      <c r="K18" s="3" t="str">
+        <f>IF(TimeSeriesPoints[[#This Row],[metering_point_id]]&lt;&gt;"",INDEX('Config and arguments'!Z19:AB114,MATCH(LEFT(TimeSeriesPoints[[#This Row],[day]],10),'Config and arguments'!AA19:AA114,0),1),"")</f>
+        <v/>
       </c>
       <c r="L18" s="3" t="str">
         <f>_xlfn.IFNA(INDEX(MeteringPointPeriods[],MATCH(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),10),"")</f>
@@ -14590,9 +15418,9 @@
         <f>LEFT(TimeSeriesPoints[[#This Row],[observation_time]],10)</f>
         <v/>
       </c>
-      <c r="K19" s="3" t="e">
-        <f>INDEX('Config and arguments'!AA20:AB115,MATCH(TimeSeriesPoints[[#This Row],[observation_time]],'Config and arguments'!AB20:AB115,0),1)</f>
-        <v>#N/A</v>
+      <c r="K19" s="3" t="str">
+        <f>IF(TimeSeriesPoints[[#This Row],[metering_point_id]]&lt;&gt;"",INDEX('Config and arguments'!Z20:AB115,MATCH(LEFT(TimeSeriesPoints[[#This Row],[day]],10),'Config and arguments'!AA20:AA115,0),1),"")</f>
+        <v/>
       </c>
       <c r="L19" s="3" t="str">
         <f>_xlfn.IFNA(INDEX(MeteringPointPeriods[],MATCH(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),10),"")</f>
@@ -14628,9 +15456,9 @@
         <f>LEFT(TimeSeriesPoints[[#This Row],[observation_time]],10)</f>
         <v/>
       </c>
-      <c r="K20" s="3" t="e">
-        <f>INDEX('Config and arguments'!AA21:AB116,MATCH(TimeSeriesPoints[[#This Row],[observation_time]],'Config and arguments'!AB21:AB116,0),1)</f>
-        <v>#N/A</v>
+      <c r="K20" s="3" t="str">
+        <f>IF(TimeSeriesPoints[[#This Row],[metering_point_id]]&lt;&gt;"",INDEX('Config and arguments'!Z21:AB116,MATCH(LEFT(TimeSeriesPoints[[#This Row],[day]],10),'Config and arguments'!AA21:AA116,0),1),"")</f>
+        <v/>
       </c>
       <c r="L20" s="3" t="str">
         <f>_xlfn.IFNA(INDEX(MeteringPointPeriods[],MATCH(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),10),"")</f>
@@ -14666,9 +15494,9 @@
         <f>LEFT(TimeSeriesPoints[[#This Row],[observation_time]],10)</f>
         <v/>
       </c>
-      <c r="K21" s="3" t="e">
-        <f>INDEX('Config and arguments'!AA22:AB117,MATCH(TimeSeriesPoints[[#This Row],[observation_time]],'Config and arguments'!AB22:AB117,0),1)</f>
-        <v>#N/A</v>
+      <c r="K21" s="3" t="str">
+        <f>IF(TimeSeriesPoints[[#This Row],[metering_point_id]]&lt;&gt;"",INDEX('Config and arguments'!Z22:AB117,MATCH(LEFT(TimeSeriesPoints[[#This Row],[day]],10),'Config and arguments'!AA22:AA117,0),1),"")</f>
+        <v/>
       </c>
       <c r="L21" s="3" t="str">
         <f>_xlfn.IFNA(INDEX(MeteringPointPeriods[],MATCH(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),10),"")</f>
@@ -14704,9 +15532,9 @@
         <f>LEFT(TimeSeriesPoints[[#This Row],[observation_time]],10)</f>
         <v/>
       </c>
-      <c r="K22" s="3" t="e">
-        <f>INDEX('Config and arguments'!AA23:AB118,MATCH(TimeSeriesPoints[[#This Row],[observation_time]],'Config and arguments'!AB23:AB118,0),1)</f>
-        <v>#N/A</v>
+      <c r="K22" s="3" t="str">
+        <f>IF(TimeSeriesPoints[[#This Row],[metering_point_id]]&lt;&gt;"",INDEX('Config and arguments'!Z23:AB118,MATCH(LEFT(TimeSeriesPoints[[#This Row],[day]],10),'Config and arguments'!AA23:AA118,0),1),"")</f>
+        <v/>
       </c>
       <c r="L22" s="3" t="str">
         <f>_xlfn.IFNA(INDEX(MeteringPointPeriods[],MATCH(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),10),"")</f>
@@ -14742,9 +15570,9 @@
         <f>LEFT(TimeSeriesPoints[[#This Row],[observation_time]],10)</f>
         <v/>
       </c>
-      <c r="K23" s="3" t="e">
-        <f>INDEX('Config and arguments'!AA24:AB119,MATCH(TimeSeriesPoints[[#This Row],[observation_time]],'Config and arguments'!AB24:AB119,0),1)</f>
-        <v>#N/A</v>
+      <c r="K23" s="3" t="str">
+        <f>IF(TimeSeriesPoints[[#This Row],[metering_point_id]]&lt;&gt;"",INDEX('Config and arguments'!Z24:AB119,MATCH(LEFT(TimeSeriesPoints[[#This Row],[day]],10),'Config and arguments'!AA24:AA119,0),1),"")</f>
+        <v/>
       </c>
       <c r="L23" s="3" t="str">
         <f>_xlfn.IFNA(INDEX(MeteringPointPeriods[],MATCH(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),10),"")</f>
@@ -14778,9 +15606,9 @@
         <f>LEFT(TimeSeriesPoints[[#This Row],[observation_time]],10)</f>
         <v/>
       </c>
-      <c r="K24" s="3" t="e">
-        <f>INDEX('Config and arguments'!AA25:AB120,MATCH(TimeSeriesPoints[[#This Row],[observation_time]],'Config and arguments'!AB25:AB120,0),1)</f>
-        <v>#N/A</v>
+      <c r="K24" s="3" t="str">
+        <f>IF(TimeSeriesPoints[[#This Row],[metering_point_id]]&lt;&gt;"",INDEX('Config and arguments'!Z25:AB120,MATCH(LEFT(TimeSeriesPoints[[#This Row],[day]],10),'Config and arguments'!AA25:AA120,0),1),"")</f>
+        <v/>
       </c>
       <c r="L24" s="3" t="str">
         <f>_xlfn.IFNA(INDEX(MeteringPointPeriods[],MATCH(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),10),"")</f>
@@ -14814,9 +15642,9 @@
         <f>LEFT(TimeSeriesPoints[[#This Row],[observation_time]],10)</f>
         <v/>
       </c>
-      <c r="K25" s="3" t="e">
-        <f>INDEX('Config and arguments'!AA26:AB121,MATCH(TimeSeriesPoints[[#This Row],[observation_time]],'Config and arguments'!AB26:AB121,0),1)</f>
-        <v>#N/A</v>
+      <c r="K25" s="3" t="str">
+        <f>IF(TimeSeriesPoints[[#This Row],[metering_point_id]]&lt;&gt;"",INDEX('Config and arguments'!Z26:AB121,MATCH(LEFT(TimeSeriesPoints[[#This Row],[day]],10),'Config and arguments'!AA26:AA121,0),1),"")</f>
+        <v/>
       </c>
       <c r="L25" s="3" t="str">
         <f>_xlfn.IFNA(INDEX(MeteringPointPeriods[],MATCH(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),10),"")</f>
@@ -14850,9 +15678,9 @@
         <f>LEFT(TimeSeriesPoints[[#This Row],[observation_time]],10)</f>
         <v/>
       </c>
-      <c r="K26" s="3" t="e">
-        <f>INDEX('Config and arguments'!AA27:AB122,MATCH(TimeSeriesPoints[[#This Row],[observation_time]],'Config and arguments'!AB27:AB122,0),1)</f>
-        <v>#N/A</v>
+      <c r="K26" s="3" t="str">
+        <f>IF(TimeSeriesPoints[[#This Row],[metering_point_id]]&lt;&gt;"",INDEX('Config and arguments'!Z27:AB122,MATCH(LEFT(TimeSeriesPoints[[#This Row],[day]],10),'Config and arguments'!AA27:AA122,0),1),"")</f>
+        <v/>
       </c>
       <c r="L26" s="3" t="str">
         <f>_xlfn.IFNA(INDEX(MeteringPointPeriods[],MATCH(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),10),"")</f>
@@ -15427,7 +16255,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>108</v>
@@ -15468,7 +16296,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>108</v>
@@ -15509,7 +16337,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>24</v>
@@ -15530,7 +16358,7 @@
         <v>113</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>108</v>
@@ -16078,11 +16906,1053 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388E8B59-85FB-47ED-807C-3BC947FE93AD}">
+  <dimension ref="B1:AD100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="2" max="2" width="35" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7265625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.1796875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="15.1796875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="17.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.54296875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="20.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="22.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.81640625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="31.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="73.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.81640625" style="3" customWidth="1"/>
+    <col min="34" max="34" width="8.7265625" style="3"/>
+    <col min="35" max="35" width="17.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.81640625" style="3" customWidth="1"/>
+    <col min="37" max="16384" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:30" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="C3" s="6" t="str" cm="1">
+        <f t="array" ref="C3:H3">_xlfn.TEXTSPLIT(C1,"--")</f>
+        <v>fee-1</v>
+      </c>
+      <c r="D3" s="6" t="str">
+        <v>0000000000800</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <v>1000000000000</v>
+      </c>
+      <c r="F3" s="6" t="str">
+        <v>consumption</v>
+      </c>
+      <c r="G3" s="6" t="str">
+        <v>800</v>
+      </c>
+      <c r="H3" s="6" t="str">
+        <v>flex</v>
+      </c>
+      <c r="AD3" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD4" s="6" t="str" cm="1">
+        <f t="array" ref="AD4:AD6">_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[charge_type]="Fee"),,13))</f>
+        <v>Day2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$2)</f>
+        <v>0b15a420-9fc8-409a-a169-fbd49479d718</v>
+      </c>
+      <c r="C5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$5)</f>
+        <v>wholesale_fixing</v>
+      </c>
+      <c r="D5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$6)</f>
+        <v>2024-01-01 23:00:00</v>
+      </c>
+      <c r="E5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","IGNORED")</f>
+        <v>IGNORED</v>
+      </c>
+      <c r="F5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",G$3)</f>
+        <v>800</v>
+      </c>
+      <c r="G5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$E$3)</f>
+        <v>1000000000000</v>
+      </c>
+      <c r="H5" s="11" cm="1">
+        <f t="array" ref="H5">IF(OutPut1011[[#This Row],[time]]="","",IFERROR(SUBSTITUTE(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X5))),",","."),0))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","kWh")</f>
+        <v>kWh</v>
+      </c>
+      <c r="J5" s="11" t="str" cm="1">
+        <f t="array" ref="J5">IF(OutPut1011[[#This Row],[time]]="","",IFERROR(IF(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X5)))&gt;0,"['missing', 'measured']","'missing'"),"['missing]"))</f>
+        <v>['missing]</v>
+      </c>
+      <c r="K5" s="11" t="str">
+        <f>IF('Config and arguments'!AC3="","",_xlfn.CONCAT('Config and arguments'!AC3," 23:00:00"))</f>
+        <v>2023-01-31 23:00:00</v>
+      </c>
+      <c r="L5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","P1D")</f>
+        <v>P1D</v>
+      </c>
+      <c r="M5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$F$3)</f>
+        <v>consumption</v>
+      </c>
+      <c r="N5" s="12" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",IF($H$3="","",$H$3))</f>
+        <v>flex</v>
+      </c>
+      <c r="O5" s="12" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]]),",",".")))</f>
+        <v/>
+      </c>
+      <c r="P5" s="12" t="str">
+        <f>IFERROR(SUBSTITUTE(SUBSTITUTE(OutPut1011[[#This Row],[price]],".",",")*SUBSTITUTE(OutPut1011[[#This Row],[quantity]],".",","),",","."),"")</f>
+        <v/>
+      </c>
+      <c r="Q5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE))</f>
+        <v>false</v>
+      </c>
+      <c r="R5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$C$3)</f>
+        <v>fee-1</v>
+      </c>
+      <c r="S5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","fee")</f>
+        <v>fee</v>
+      </c>
+      <c r="T5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$D$3)</f>
+        <v>0000000000800</v>
+      </c>
+      <c r="U5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","amount_per_charge")</f>
+        <v>amount_per_charge</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD5" s="6" t="str">
+        <v>Day3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$2)</f>
+        <v>0b15a420-9fc8-409a-a169-fbd49479d718</v>
+      </c>
+      <c r="C6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$5)</f>
+        <v>wholesale_fixing</v>
+      </c>
+      <c r="D6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$6)</f>
+        <v>2024-01-01 23:00:00</v>
+      </c>
+      <c r="E6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","IGNORED")</f>
+        <v>IGNORED</v>
+      </c>
+      <c r="F6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",G$3)</f>
+        <v>800</v>
+      </c>
+      <c r="G6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$E$3)</f>
+        <v>1000000000000</v>
+      </c>
+      <c r="H6" s="11" cm="1">
+        <f t="array" ref="H6">IF(OutPut1011[[#This Row],[time]]="","",IFERROR(SUBSTITUTE(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X6))),",","."),0))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","kWh")</f>
+        <v>kWh</v>
+      </c>
+      <c r="J6" s="11" t="str" cm="1">
+        <f t="array" ref="J6">IF(OutPut1011[[#This Row],[time]]="","",IFERROR(IF(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X6)))&gt;0,"['missing', 'measured']","'missing'"),"['missing]"))</f>
+        <v>['missing]</v>
+      </c>
+      <c r="K6" s="11" t="str">
+        <f>IF('Config and arguments'!AC4="","",_xlfn.CONCAT('Config and arguments'!AC4," 23:00:00"))</f>
+        <v>2023-02-01 23:00:00</v>
+      </c>
+      <c r="L6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","P1D")</f>
+        <v>P1D</v>
+      </c>
+      <c r="M6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$F$3)</f>
+        <v>consumption</v>
+      </c>
+      <c r="N6" s="12" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",IF($H$3="","",$H$3))</f>
+        <v>flex</v>
+      </c>
+      <c r="O6" s="12" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]]),",",".")))</f>
+        <v>20</v>
+      </c>
+      <c r="P6" s="12" t="str">
+        <f>IFERROR(SUBSTITUTE(SUBSTITUTE(OutPut1011[[#This Row],[price]],".",",")*SUBSTITUTE(OutPut1011[[#This Row],[quantity]],".",","),",","."),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE))</f>
+        <v>false</v>
+      </c>
+      <c r="R6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$C$3)</f>
+        <v>fee-1</v>
+      </c>
+      <c r="S6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","fee")</f>
+        <v>fee</v>
+      </c>
+      <c r="T6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$D$3)</f>
+        <v>0000000000800</v>
+      </c>
+      <c r="U6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","amount_per_charge")</f>
+        <v>amount_per_charge</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD6" s="6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$2)</f>
+        <v>0b15a420-9fc8-409a-a169-fbd49479d718</v>
+      </c>
+      <c r="C7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$5)</f>
+        <v>wholesale_fixing</v>
+      </c>
+      <c r="D7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$6)</f>
+        <v>2024-01-01 23:00:00</v>
+      </c>
+      <c r="E7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","IGNORED")</f>
+        <v>IGNORED</v>
+      </c>
+      <c r="F7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",G$3)</f>
+        <v>800</v>
+      </c>
+      <c r="G7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$E$3)</f>
+        <v>1000000000000</v>
+      </c>
+      <c r="H7" s="11" cm="1">
+        <f t="array" ref="H7">IF(OutPut1011[[#This Row],[time]]="","",IFERROR(SUBSTITUTE(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X7))),",","."),0))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","kWh")</f>
+        <v>kWh</v>
+      </c>
+      <c r="J7" s="11" t="str" cm="1">
+        <f t="array" ref="J7">IF(OutPut1011[[#This Row],[time]]="","",IFERROR(IF(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X7)))&gt;0,"['missing', 'measured']","'missing'"),"['missing]"))</f>
+        <v>['missing]</v>
+      </c>
+      <c r="K7" s="11" t="str">
+        <f>IF('Config and arguments'!AC5="","",_xlfn.CONCAT('Config and arguments'!AC5," 23:00:00"))</f>
+        <v>2023-02-02 23:00:00</v>
+      </c>
+      <c r="L7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","P1D")</f>
+        <v>P1D</v>
+      </c>
+      <c r="M7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$F$3)</f>
+        <v>consumption</v>
+      </c>
+      <c r="N7" s="12" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",IF($H$3="","",$H$3))</f>
+        <v>flex</v>
+      </c>
+      <c r="O7" s="12" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]]),",",".")))</f>
+        <v>30</v>
+      </c>
+      <c r="P7" s="12" t="str">
+        <f>IFERROR(SUBSTITUTE(SUBSTITUTE(OutPut1011[[#This Row],[price]],".",",")*SUBSTITUTE(OutPut1011[[#This Row],[quantity]],".",","),",","."),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE))</f>
+        <v>false</v>
+      </c>
+      <c r="R7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$C$3)</f>
+        <v>fee-1</v>
+      </c>
+      <c r="S7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","fee")</f>
+        <v>fee</v>
+      </c>
+      <c r="T7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$D$3)</f>
+        <v>0000000000800</v>
+      </c>
+      <c r="U7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","amount_per_charge")</f>
+        <v>amount_per_charge</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$2)</f>
+        <v/>
+      </c>
+      <c r="C8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$5)</f>
+        <v/>
+      </c>
+      <c r="D8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$6)</f>
+        <v/>
+      </c>
+      <c r="E8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","IGNORED")</f>
+        <v/>
+      </c>
+      <c r="F8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",G$3)</f>
+        <v/>
+      </c>
+      <c r="G8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$E$3)</f>
+        <v/>
+      </c>
+      <c r="H8" s="11" t="str" cm="1">
+        <f t="array" ref="H8">IF(OutPut1011[[#This Row],[time]]="","",IFERROR(SUBSTITUTE(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X8))),",","."),0))</f>
+        <v/>
+      </c>
+      <c r="I8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","kWh")</f>
+        <v/>
+      </c>
+      <c r="J8" s="11" t="str" cm="1">
+        <f t="array" ref="J8">IF(OutPut1011[[#This Row],[time]]="","",IFERROR(IF(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X8)))&gt;0,"['missing', 'measured']","'missing'"),"['missing]"))</f>
+        <v/>
+      </c>
+      <c r="K8" s="11" t="str">
+        <f>IF('Config and arguments'!AC6="","",_xlfn.CONCAT('Config and arguments'!AC6," 23:00:00"))</f>
+        <v/>
+      </c>
+      <c r="L8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","P1D")</f>
+        <v/>
+      </c>
+      <c r="M8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$F$3)</f>
+        <v/>
+      </c>
+      <c r="N8" s="12" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",IF($H$3="","",$H$3))</f>
+        <v/>
+      </c>
+      <c r="O8" s="12" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]]),",",".")))</f>
+        <v/>
+      </c>
+      <c r="P8" s="12" t="str">
+        <f>IFERROR(SUBSTITUTE(SUBSTITUTE(OutPut1011[[#This Row],[price]],".",",")*SUBSTITUTE(OutPut1011[[#This Row],[quantity]],".",","),",","."),"")</f>
+        <v/>
+      </c>
+      <c r="Q8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="R8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$C$3)</f>
+        <v/>
+      </c>
+      <c r="S8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","fee")</f>
+        <v/>
+      </c>
+      <c r="T8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$D$3)</f>
+        <v/>
+      </c>
+      <c r="U8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","amount_per_charge")</f>
+        <v/>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+    </row>
+    <row r="24" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+    </row>
+    <row r="28" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="V30" s="9"/>
+      <c r="Y30" s="9"/>
+    </row>
+    <row r="31" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="V31" s="9"/>
+      <c r="Y31" s="9"/>
+    </row>
+    <row r="32" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Y32" s="9"/>
+    </row>
+    <row r="33" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Y33" s="9"/>
+    </row>
+    <row r="34" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Y34" s="9"/>
+    </row>
+    <row r="35" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Y35" s="9"/>
+    </row>
+    <row r="36" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Y36" s="9"/>
+    </row>
+    <row r="37" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Y37" s="9"/>
+    </row>
+    <row r="38" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Y38" s="9"/>
+    </row>
+    <row r="39" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Y39" s="9"/>
+    </row>
+    <row r="40" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Y40" s="9"/>
+    </row>
+    <row r="41" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Y41" s="9"/>
+    </row>
+    <row r="42" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Y42" s="9"/>
+    </row>
+    <row r="43" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Y43" s="9"/>
+    </row>
+    <row r="44" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Y44" s="9"/>
+    </row>
+    <row r="45" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Y45" s="9"/>
+    </row>
+    <row r="46" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Y46" s="9"/>
+    </row>
+    <row r="47" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Y47" s="9"/>
+    </row>
+    <row r="48" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Y48" s="9"/>
+    </row>
+    <row r="49" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Y49" s="9"/>
+    </row>
+    <row r="50" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Y50" s="9"/>
+    </row>
+    <row r="51" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Y51" s="9"/>
+    </row>
+    <row r="52" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Y52" s="9"/>
+    </row>
+    <row r="53" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Y53" s="9"/>
+    </row>
+    <row r="54" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Y54" s="9"/>
+    </row>
+    <row r="55" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Y55" s="9"/>
+    </row>
+    <row r="56" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Y56" s="9"/>
+    </row>
+    <row r="57" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Y57" s="9"/>
+    </row>
+    <row r="58" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
+    </row>
+    <row r="59" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="9"/>
+      <c r="Y59" s="9"/>
+    </row>
+    <row r="60" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="9"/>
+    </row>
+    <row r="61" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="9"/>
+    </row>
+    <row r="62" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
+    </row>
+    <row r="63" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="9"/>
+    </row>
+    <row r="64" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="9"/>
+      <c r="Y64" s="9"/>
+    </row>
+    <row r="65" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="9"/>
+      <c r="Y65" s="9"/>
+    </row>
+    <row r="66" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="9"/>
+      <c r="Y66" s="9"/>
+    </row>
+    <row r="67" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="V67" s="9"/>
+      <c r="W67" s="9"/>
+      <c r="X67" s="9"/>
+      <c r="Y67" s="9"/>
+    </row>
+    <row r="68" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+    </row>
+    <row r="69" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+    </row>
+    <row r="70" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+    </row>
+    <row r="71" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+    </row>
+    <row r="72" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+    </row>
+    <row r="73" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+    </row>
+    <row r="74" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+    </row>
+    <row r="75" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+    </row>
+    <row r="76" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+    </row>
+    <row r="77" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+    </row>
+    <row r="78" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+    </row>
+    <row r="79" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+    </row>
+    <row r="80" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+    </row>
+    <row r="81" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+    </row>
+    <row r="82" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+    </row>
+    <row r="83" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+    </row>
+    <row r="84" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+    </row>
+    <row r="85" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+    </row>
+    <row r="86" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+    </row>
+    <row r="87" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+    </row>
+    <row r="88" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+    </row>
+    <row r="89" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+    </row>
+    <row r="90" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+    </row>
+    <row r="91" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+    </row>
+    <row r="92" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+    </row>
+    <row r="93" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+    </row>
+    <row r="94" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+    </row>
+    <row r="95" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+    </row>
+    <row r="96" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+    </row>
+    <row r="97" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+    </row>
+    <row r="98" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+    </row>
+    <row r="99" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+    </row>
+    <row r="100" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{291C9C82-946C-4F70-B4B8-F453C4BF5243}">
+      <formula1>$AD$4:$AD$40</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A590646-6E43-4F6B-BCFA-A9C526C6DA6E}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16097,11 +17967,11 @@
     <col min="9" max="9" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.54296875" customWidth="1"/>
-    <col min="13" max="13" width="87" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="19.54296875" customWidth="1"/>
+    <col min="15" max="15" width="87" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -16124,7 +17994,7 @@
         <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I1" t="s">
         <v>37</v>
@@ -16136,13 +18006,19 @@
         <v>32</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
@@ -16159,13 +18035,13 @@
         <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="H2" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1M</v>
       </c>
       <c r="I2" s="6" t="str">
@@ -16181,17 +18057,25 @@
         <v>flex</v>
       </c>
       <c r="L2" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+        <f>IFERROR(INDEX('Config and arguments'!Z3:AB98,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB3:AB98,0),1),"")</f>
+        <v>Day1</v>
+      </c>
+      <c r="M2" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z3:AB98,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB3:AB98,0),1),"")</f>
+        <v>Day2</v>
+      </c>
+      <c r="N2" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="M2" s="6" t="str">
+      <c r="O2" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>fee-1--0000000000800--1000000000000--consumption--800--flex</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -16200,19 +18084,19 @@
         <v>106</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="H3" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1M</v>
       </c>
       <c r="I3" s="6" t="str">
@@ -16221,69 +18105,85 @@
       </c>
       <c r="J3" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption_from_grid</v>
+        <v>consumption</v>
       </c>
       <c r="K3" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>flex</v>
       </c>
       <c r="L3" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+        <f>IFERROR(INDEX('Config and arguments'!Z4:AB99,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB4:AB99,0),1),"")</f>
+        <v>Day2</v>
+      </c>
+      <c r="M3" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z4:AB99,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB4:AB99,0),1),"")</f>
+        <v>Day3</v>
+      </c>
+      <c r="N3" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="M3" s="6" t="str">
+      <c r="O3" s="6" t="str">
+        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
+        <v>fee-1--0000000000800--1000000000000--consumption--800--flex</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="6" t="str">
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
+        <v>P1M</v>
+      </c>
+      <c r="I4" s="6" t="str">
+        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
+        <v>1000000000000</v>
+      </c>
+      <c r="J4" s="6" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
+        <v>consumption_from_grid</v>
+      </c>
+      <c r="K4" s="6" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L4" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z5:AB100,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB5:AB100,0),1),"")</f>
+        <v>Day3</v>
+      </c>
+      <c r="M4" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z5:AB100,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB5:AB100,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N4" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
+        <v>800</v>
+      </c>
+      <c r="O4" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>fee-2--0000000000800--1000000000000--consumption_from_grid--800</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H4" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
-        <v>P1M</v>
-      </c>
-      <c r="I4" s="6" t="str">
-        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>3000000000000</v>
-      </c>
-      <c r="J4" s="6" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
-      </c>
-      <c r="K4" s="6" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>non_profiled</v>
-      </c>
-      <c r="L4" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
-        <v>800</v>
-      </c>
-      <c r="M4" s="6" t="str">
-        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>fee-2--0000000000800--3000000000000--consumption--800--non_profiled</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>95</v>
       </c>
@@ -16294,19 +18194,19 @@
         <v>106</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1M</v>
       </c>
       <c r="I5" s="6" t="str">
@@ -16322,17 +18222,25 @@
         <v>non_profiled</v>
       </c>
       <c r="L5" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+        <f>IFERROR(INDEX('Config and arguments'!Z6:AB101,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB6:AB101,0),1),"")</f>
+        <v>Day3</v>
+      </c>
+      <c r="M5" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z6:AB101,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB6:AB101,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N5" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="M5" s="6" t="str">
+      <c r="O5" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>fee-2--0000000000800--3000000000000--consumption--800--non_profiled</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
@@ -16341,43 +18249,51 @@
         <v>106</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1M</v>
       </c>
       <c r="I6" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="J6" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>production</v>
+        <v>consumption</v>
       </c>
       <c r="K6" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="L6" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+        <f>IFERROR(INDEX('Config and arguments'!Z7:AB102,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB7:AB102,0),1),"")</f>
+        <v>Day3</v>
+      </c>
+      <c r="M6" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z7:AB102,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB7:AB102,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N6" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="M6" s="6" t="str">
+      <c r="O6" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>fee-3--0000000000800--2000000000000--production--800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>fee-2--0000000000800--3000000000000--consumption--800--non_profiled</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>96</v>
       </c>
@@ -16394,13 +18310,13 @@
         <v>57</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1M</v>
       </c>
       <c r="I7" s="6" t="str">
@@ -16416,15 +18332,23 @@
         <v/>
       </c>
       <c r="L7" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+        <f>IFERROR(INDEX('Config and arguments'!Z8:AB103,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB8:AB103,0),1),"")</f>
+        <v>Day2</v>
+      </c>
+      <c r="M7" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z8:AB103,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB8:AB103,0),1),"")</f>
+        <v>Day3</v>
+      </c>
+      <c r="N7" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="M7" s="6" t="str">
+      <c r="O7" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>fee-3--0000000000800--2000000000000--production--800</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>96</v>
       </c>
@@ -16441,13 +18365,13 @@
         <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1M</v>
       </c>
       <c r="I8" s="6" t="str">
@@ -16463,64 +18387,80 @@
         <v/>
       </c>
       <c r="L8" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+        <f>IFERROR(INDEX('Config and arguments'!Z9:AB104,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB9:AB104,0),1),"")</f>
+        <v>Day3</v>
+      </c>
+      <c r="M8" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z9:AB104,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB9:AB104,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N8" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="M8" s="6" t="str">
+      <c r="O8" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>fee-3--0000000000800--2000000000000--production--800</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1M</v>
       </c>
       <c r="I9" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>1000000000000</v>
+        <v>2000000000000</v>
       </c>
       <c r="J9" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="K9" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>flex</v>
+        <v/>
       </c>
       <c r="L9" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+        <f>IFERROR(INDEX('Config and arguments'!Z10:AB105,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB10:AB105,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="M9" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z10:AB105,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB10:AB105,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N9" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="M9" s="6" t="str">
+      <c r="O9" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>subscription-1--0000000000800--1000000000000--consumption--800--flex</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>fee-3--0000000000800--2000000000000--production--800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
@@ -16529,24 +18469,21 @@
         <v>106</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1M</v>
       </c>
       <c r="I10" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>3000000000000</v>
+        <v>1000000000000</v>
       </c>
       <c r="J10" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -16554,18 +18491,26 @@
       </c>
       <c r="K10" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>non_profiled</v>
+        <v>flex</v>
       </c>
       <c r="L10" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+        <f>IFERROR(INDEX('Config and arguments'!Z11:AB106,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB11:AB106,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="M10" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z11:AB106,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB11:AB106,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N10" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="M10" s="6" t="str">
+      <c r="O10" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>subscription-2--0000000000800--3000000000000--consumption--800--non_profiled</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+        <v>subscription-1--0000000000800--1000000000000--consumption--800--flex</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>98</v>
       </c>
@@ -16576,19 +18521,19 @@
         <v>106</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1M</v>
       </c>
       <c r="I11" s="6" t="str">
@@ -16604,15 +18549,23 @@
         <v>non_profiled</v>
       </c>
       <c r="L11" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+        <f>IFERROR(INDEX('Config and arguments'!Z12:AB107,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB12:AB107,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="M11" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z12:AB107,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB12:AB107,0),1),"")</f>
+        <v>Day3</v>
+      </c>
+      <c r="N11" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="M11" s="6" t="str">
+      <c r="O11" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>subscription-2--0000000000800--3000000000000--consumption--800--non_profiled</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>98</v>
       </c>
@@ -16623,45 +18576,50 @@
         <v>106</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1M</v>
       </c>
       <c r="I12" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>2000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="J12" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>production</v>
+        <v>consumption</v>
       </c>
       <c r="K12" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>non_profiled</v>
       </c>
       <c r="L12" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+        <f>IFERROR(INDEX('Config and arguments'!Z13:AB108,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB13:AB108,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="M12" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z13:AB108,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB13:AB108,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N12" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="M12" s="6" t="str">
+      <c r="O12" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>subscription-2--0000000000800--2000000000000--production--800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+        <v>subscription-2--0000000000800--3000000000000--consumption--800--non_profiled</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>15</v>
@@ -16670,19 +18628,16 @@
         <v>106</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1M</v>
       </c>
       <c r="I13" s="6" t="str">
@@ -16691,116 +18646,134 @@
       </c>
       <c r="J13" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>own_production</v>
+        <v>production</v>
       </c>
       <c r="K13" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="L13" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+        <f>IFERROR(INDEX('Config and arguments'!Z14:AB109,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB14:AB109,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="M13" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z14:AB109,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB14:AB109,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N13" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="M13" s="6" t="str">
+      <c r="O13" s="6" t="str">
+        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
+        <v>subscription-2--0000000000800--2000000000000--production--800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="6" t="str">
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
+        <v>P1M</v>
+      </c>
+      <c r="I14" s="6" t="str">
+        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
+        <v>2000000000000</v>
+      </c>
+      <c r="J14" s="6" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
+        <v>own_production</v>
+      </c>
+      <c r="K14" s="6" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L14" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z15:AB110,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB15:AB110,0),1),"")</f>
+        <v>Day3</v>
+      </c>
+      <c r="M14" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z15:AB110,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB15:AB110,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N14" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
+        <v>800</v>
+      </c>
+      <c r="O14" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>subscription-3--0000000000800--2000000000000--own_production--800</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H14" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
+      <c r="F15" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H15" s="6" t="str">
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1M</v>
       </c>
-      <c r="I14" s="6" t="str">
+      <c r="I15" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v>4000000000000</v>
       </c>
-      <c r="J14" s="6" t="str">
+      <c r="J15" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>production</v>
       </c>
-      <c r="K14" s="6" t="str">
+      <c r="K15" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="L14" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+      <c r="L15" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z16:AB111,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB16:AB111,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="M15" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z16:AB111,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB16:AB111,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N15" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="M14" s="6" t="str">
+      <c r="O15" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>subscription-3--0000000000800--4000000000000--production--800</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
-        <v>PT1H</v>
-      </c>
-      <c r="I15" s="6" t="str">
-        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>3000000000000</v>
-      </c>
-      <c r="J15" s="6" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
-      </c>
-      <c r="K15" s="6" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>non_profiled</v>
-      </c>
-      <c r="L15" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
-        <v>800</v>
-      </c>
-      <c r="M15" s="6" t="str">
-        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-hourly-1--0000000000800--3000000000000--consumption--800--non_profiled</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>100</v>
       </c>
@@ -16811,19 +18784,16 @@
         <v>106</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>PT1H</v>
       </c>
       <c r="I16" s="6" t="str">
@@ -16839,15 +18809,23 @@
         <v>non_profiled</v>
       </c>
       <c r="L16" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+        <f>IFERROR(INDEX('Config and arguments'!Z17:AB112,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB17:AB112,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="M16" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z17:AB112,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB17:AB112,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N16" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="M16" s="6" t="str">
+      <c r="O16" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>tariff-hourly-1--0000000000800--3000000000000--consumption--800--non_profiled</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>100</v>
       </c>
@@ -16858,24 +18836,21 @@
         <v>106</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>PT1H</v>
       </c>
       <c r="I17" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>1000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="J17" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -16883,18 +18858,26 @@
       </c>
       <c r="K17" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>flex</v>
+        <v>non_profiled</v>
       </c>
       <c r="L17" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+        <f>IFERROR(INDEX('Config and arguments'!Z18:AB113,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB18:AB113,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="M17" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z18:AB113,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB18:AB113,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N17" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="M17" s="6" t="str">
+      <c r="O17" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-hourly-1--0000000000800--1000000000000--consumption--800--flex</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+        <v>tariff-hourly-1--0000000000800--3000000000000--consumption--800--non_profiled</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>100</v>
       </c>
@@ -16905,19 +18888,16 @@
         <v>106</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>PT1H</v>
       </c>
       <c r="I18" s="6" t="str">
@@ -16933,17 +18913,25 @@
         <v>flex</v>
       </c>
       <c r="L18" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+        <f>IFERROR(INDEX('Config and arguments'!Z19:AB114,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB19:AB114,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="M18" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z19:AB114,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB19:AB114,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N18" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="M18" s="6" t="str">
+      <c r="O18" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>tariff-hourly-1--0000000000800--1000000000000--consumption--800--flex</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>2</v>
@@ -16952,19 +18940,16 @@
         <v>106</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>PT1H</v>
       </c>
       <c r="I19" s="6" t="str">
@@ -16973,118 +18958,136 @@
       </c>
       <c r="J19" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption_from_grid</v>
+        <v>consumption</v>
       </c>
       <c r="K19" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v/>
+        <v>flex</v>
       </c>
       <c r="L19" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+        <f>IFERROR(INDEX('Config and arguments'!Z20:AB115,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB20:AB115,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="M19" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z20:AB115,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB20:AB115,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N19" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="M19" s="6" t="str">
+      <c r="O19" s="6" t="str">
+        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
+        <v>tariff-hourly-1--0000000000800--1000000000000--consumption--800--flex</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H20" s="6" t="str">
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
+        <v>PT1H</v>
+      </c>
+      <c r="I20" s="6" t="str">
+        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
+        <v>1000000000000</v>
+      </c>
+      <c r="J20" s="6" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
+        <v>consumption_from_grid</v>
+      </c>
+      <c r="K20" s="6" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L20" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z21:AB116,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB21:AB116,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="M20" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z21:AB116,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB21:AB116,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N20" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
+        <v>800</v>
+      </c>
+      <c r="O20" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>tariff-hourly-2--0000000000800--1000000000000--consumption_from_grid--800</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H20" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
+      <c r="F21" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="6" t="str">
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>PT1H</v>
       </c>
-      <c r="I20" s="6" t="str">
+      <c r="I21" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v>4000000000000</v>
       </c>
-      <c r="J20" s="6" t="str">
+      <c r="J21" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>production</v>
       </c>
-      <c r="K20" s="6" t="str">
+      <c r="K21" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="L20" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+      <c r="L21" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z22:AB117,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB22:AB117,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="M21" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z22:AB117,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB22:AB117,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N21" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="M20" s="6" t="str">
+      <c r="O21" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>tariff-hourly-2--0000000000800--4000000000000--production--800</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
-        <v>PT1H</v>
-      </c>
-      <c r="I21" s="6" t="str">
-        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>2000000000000</v>
-      </c>
-      <c r="J21" s="6" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>own_production</v>
-      </c>
-      <c r="K21" s="6" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="L21" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
-        <v>800</v>
-      </c>
-      <c r="M21" s="6" t="str">
-        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-hourly-2--0000000000800--2000000000000--own_production--800</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>2</v>
@@ -17093,19 +19096,16 @@
         <v>106</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>PT1H</v>
       </c>
       <c r="I22" s="6" t="str">
@@ -17114,22 +19114,30 @@
       </c>
       <c r="J22" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>production</v>
+        <v>own_production</v>
       </c>
       <c r="K22" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="L22" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+        <f>IFERROR(INDEX('Config and arguments'!Z23:AB118,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB23:AB118,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="M22" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z23:AB118,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB23:AB118,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N22" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="M22" s="6" t="str">
+      <c r="O22" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-hourly-3--0000000000800--2000000000000--production--800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+        <v>tariff-hourly-2--0000000000800--2000000000000--own_production--800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>102</v>
       </c>
@@ -17140,19 +19148,16 @@
         <v>106</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>PT1H</v>
       </c>
       <c r="I23" s="6" t="str">
@@ -17168,90 +19173,100 @@
         <v/>
       </c>
       <c r="L23" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+        <f>IFERROR(INDEX('Config and arguments'!Z24:AB119,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB24:AB119,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="M23" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z24:AB119,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB24:AB119,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N23" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="M23" s="6" t="str">
+      <c r="O23" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>tariff-hourly-3--0000000000800--2000000000000--production--800</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>PT1H</v>
       </c>
       <c r="I24" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>1000000000000</v>
+        <v>2000000000000</v>
       </c>
       <c r="J24" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="K24" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>flex</v>
+        <v/>
       </c>
       <c r="L24" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+        <f>IFERROR(INDEX('Config and arguments'!Z25:AB120,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB25:AB120,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="M24" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z25:AB120,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB25:AB120,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N24" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="M24" s="6" t="str">
+      <c r="O24" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-hourly-4-co_is_tax--6660000000666--1000000000000--consumption--800--flex</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+        <v>tariff-hourly-3--0000000000800--2000000000000--production--800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
-        <v>P1D</v>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
+        <v>PT1H</v>
       </c>
       <c r="I25" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>3000000000000</v>
+        <v>1000000000000</v>
       </c>
       <c r="J25" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -17259,18 +19274,26 @@
       </c>
       <c r="K25" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>non_profiled</v>
+        <v>flex</v>
       </c>
       <c r="L25" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+        <f>IFERROR(INDEX('Config and arguments'!Z26:AB121,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB26:AB121,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="M25" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z26:AB121,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB26:AB121,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N25" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="M25" s="6" t="str">
+      <c r="O25" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-daily-1--0000000000800--3000000000000--consumption--800--non_profiled</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+        <v>tariff-hourly-4-co_is_tax--6660000000666--1000000000000--consumption--800--flex</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>103</v>
       </c>
@@ -17281,19 +19304,16 @@
         <v>106</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="2">
         <v>1</v>
       </c>
+      <c r="E26" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="F26" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1D</v>
       </c>
       <c r="I26" s="6" t="str">
@@ -17309,15 +19329,23 @@
         <v>non_profiled</v>
       </c>
       <c r="L26" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+        <f>IFERROR(INDEX('Config and arguments'!Z27:AB122,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB27:AB122,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="M26" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z27:AB122,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB27:AB122,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N26" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="M26" s="6" t="str">
+      <c r="O26" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>tariff-daily-1--0000000000800--3000000000000--consumption--800--non_profiled</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>103</v>
       </c>
@@ -17328,24 +19356,21 @@
         <v>106</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1D</v>
       </c>
       <c r="I27" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>1000000000000</v>
+        <v>3000000000000</v>
       </c>
       <c r="J27" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -17353,67 +19378,80 @@
       </c>
       <c r="K27" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>flex</v>
+        <v>non_profiled</v>
       </c>
       <c r="L27" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+        <f>IFERROR(INDEX('Config and arguments'!Z28:AB123,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB28:AB123,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="M27" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z28:AB123,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB28:AB123,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N27" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="M27" s="6" t="str">
+      <c r="O27" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-daily-1--0000000000800--1000000000000--consumption--800--flex</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+        <v>tariff-daily-1--0000000000800--3000000000000--consumption--800--non_profiled</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1D</v>
       </c>
       <c r="I28" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>2000000000000</v>
+        <v>1000000000000</v>
       </c>
       <c r="J28" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>production</v>
+        <v>consumption_from_grid</v>
       </c>
       <c r="K28" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="L28" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+        <f>IFERROR(INDEX('Config and arguments'!Z29:AB124,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB29:AB124,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="M28" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z29:AB124,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB29:AB124,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N28" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="M28" s="6" t="str">
+      <c r="O28" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-daily-2--0000000000800--2000000000000--production--800</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+        <v>tariff-daily-3-co_is_tax--6660000000666--1000000000000--consumption_from_grid--800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>2</v>
@@ -17422,71 +19460,73 @@
         <v>82</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1D</v>
       </c>
       <c r="I29" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>1000000000000</v>
+        <v>2000000000000</v>
       </c>
       <c r="J29" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption_from_grid</v>
+        <v>production</v>
       </c>
       <c r="K29" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="L29" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+        <f>IFERROR(INDEX('Config and arguments'!Z30:AB125,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB30:AB125,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="M29" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z30:AB125,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB30:AB125,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N29" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="M29" s="6" t="str">
+      <c r="O29" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-daily-3-co_is_tax--6660000000666--1000000000000--consumption_from_grid--800</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+        <v>tariff-daily-4-co_is_not_tax--6660000000666--2000000000000--production--800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="2">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1D</v>
       </c>
       <c r="I30" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>2000000000000</v>
+        <v>4000000000000</v>
       </c>
       <c r="J30" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -17497,15 +19537,23 @@
         <v/>
       </c>
       <c r="L30" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+        <f>IFERROR(INDEX('Config and arguments'!Z31:AB126,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB31:AB126,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="M30" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z31:AB126,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB31:AB126,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N30" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="M30" s="6" t="str">
+      <c r="O30" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-daily-4-co_is_not_tax--6660000000666--2000000000000--production--800</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+        <v>tariff-daily-2--0000000000800--4000000000000--production--800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>104</v>
       </c>
@@ -17516,45 +19564,50 @@
         <v>106</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1D</v>
       </c>
       <c r="I31" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>4000000000000</v>
+        <v>2000000000000</v>
       </c>
       <c r="J31" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>production</v>
+        <v>own_production</v>
       </c>
       <c r="K31" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="L31" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+        <f>IFERROR(INDEX('Config and arguments'!Z32:AB127,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB32:AB127,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="M31" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z32:AB127,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB32:AB127,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N31" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="M31" s="6" t="str">
+      <c r="O31" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-daily-2--0000000000800--4000000000000--production--800</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+        <v>tariff-daily-2--0000000000800--2000000000000--own_production--800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>2</v>
@@ -17563,19 +19616,16 @@
         <v>106</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="H32" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1D</v>
       </c>
       <c r="I32" s="6" t="str">
@@ -17584,46 +19634,51 @@
       </c>
       <c r="J32" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>own_production</v>
+        <v>production</v>
       </c>
       <c r="K32" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="L32" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
-        <v>800</v>
+        <f>IFERROR(INDEX('Config and arguments'!Z33:AB128,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB33:AB128,0),1),"")</f>
+        <v/>
       </c>
       <c r="M32" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z33:AB128,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB33:AB128,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N32" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
+        <v>111</v>
+      </c>
+      <c r="O32" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-daily-2--0000000000800--2000000000000--own_production--800</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+        <v>tariff-daily-1--0000000000800--2000000000000--production--111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="H33" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
-        <v>P1D</v>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
+        <v>P1M</v>
       </c>
       <c r="I33" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
@@ -17638,106 +19693,98 @@
         <v/>
       </c>
       <c r="L33" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
+        <f>IFERROR(INDEX('Config and arguments'!Z34:AB129,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB34:AB129,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="M33" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z34:AB129,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB34:AB129,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N33" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>111</v>
       </c>
-      <c r="M33" s="6" t="str">
+      <c r="O33" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-daily-1--0000000000800--2000000000000--production--111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E34" s="2">
-        <v>1</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>108</v>
-      </c>
+        <v>subscription-1--0000000000800--2000000000000--production--111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
       <c r="H34" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
-        <v>P1D</v>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
+        <v/>
       </c>
       <c r="I34" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>2000000000000</v>
+        <v/>
       </c>
       <c r="J34" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>production</v>
+        <v/>
       </c>
       <c r="K34" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="L34" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
-        <v>111</v>
+        <f>IFERROR(INDEX('Config and arguments'!Z35:AB130,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB35:AB130,0),1),"")</f>
+        <v/>
       </c>
       <c r="M34" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z35:AB130,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB35:AB130,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N34" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
+        <v/>
+      </c>
+      <c r="O34" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-daily-1--0000000000800--2000000000000--production--111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="2">
-        <v>2</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>108</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
       <c r="H35" s="6" t="str">
-        <f>INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4)</f>
-        <v>P1M</v>
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
+        <v/>
       </c>
       <c r="I35" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>2000000000000</v>
+        <v/>
       </c>
       <c r="J35" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>production</v>
+        <v/>
       </c>
       <c r="K35" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
       <c r="L35" s="6" t="str">
-        <f>INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5)</f>
-        <v>111</v>
+        <f>IFERROR(INDEX('Config and arguments'!Z36:AB131,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB36:AB131,0),1),"")</f>
+        <v/>
       </c>
       <c r="M35" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z36:AB131,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB36:AB131,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N35" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
+        <v/>
+      </c>
+      <c r="O35" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>subscription-1--0000000000800--2000000000000--production--111</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -17748,7 +19795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390955F0-E63E-40F1-976B-0ECD4E3D9CAB}">
   <dimension ref="A1:H25"/>
   <sheetViews>
@@ -17785,13 +19832,13 @@
         <v>61</v>
       </c>
       <c r="F1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G1" t="s">
         <v>70</v>
       </c>
       <c r="H1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -17805,7 +19852,7 @@
         <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>62</v>
@@ -17834,7 +19881,7 @@
         <v>106</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>63</v>
@@ -17863,7 +19910,7 @@
         <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>63</v>
@@ -17892,7 +19939,7 @@
         <v>106</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>63</v>
@@ -17921,7 +19968,7 @@
         <v>106</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>64</v>
@@ -17950,7 +19997,7 @@
         <v>106</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>64</v>
@@ -17979,7 +20026,7 @@
         <v>106</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>64</v>
@@ -18008,7 +20055,7 @@
         <v>106</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>65</v>
@@ -18037,7 +20084,7 @@
         <v>106</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>91</v>
@@ -18066,7 +20113,7 @@
         <v>106</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>91</v>
@@ -18095,7 +20142,7 @@
         <v>106</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>65</v>
@@ -18124,7 +20171,7 @@
         <v>82</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>65</v>
@@ -18153,7 +20200,7 @@
         <v>106</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>64</v>
@@ -18211,7 +20258,7 @@
         <v>82</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>63</v>
@@ -18240,7 +20287,7 @@
         <v>82</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>64</v>

--- a/source/databricks/calculation_engine/tests/features/Oracle - tariffs.xlsx
+++ b/source/databricks/calculation_engine/tests/features/Oracle - tariffs.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\opengeh-wholesale\source\databricks\calculation_engine\tests\features\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8700E64-05CA-4FCB-B34A-B12E16F24B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC313EB-7CE2-4395-A703-D0B8EFE1D501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="21100" activeTab="6" xr2:uid="{029705A5-E2D6-4928-9AB0-F32087606243}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="21100" activeTab="8" xr2:uid="{029705A5-E2D6-4928-9AB0-F32087606243}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tariffs - daily" sheetId="8" r:id="rId1"/>
-    <sheet name="Tariffs - hourly" sheetId="1" r:id="rId2"/>
-    <sheet name="Config and arguments" sheetId="7" r:id="rId3"/>
-    <sheet name="TimeSeriesPoints" sheetId="5" r:id="rId4"/>
-    <sheet name="MeteringPointPeriods" sheetId="4" r:id="rId5"/>
-    <sheet name="ChargePriceInformationPeriods" sheetId="3" r:id="rId6"/>
-    <sheet name="fee_per_co_es.csv" sheetId="9" r:id="rId7"/>
-    <sheet name="ChargeLinks" sheetId="2" r:id="rId8"/>
-    <sheet name="ChargePricePoints" sheetId="6" r:id="rId9"/>
+    <sheet name="fee_per_co_es.csv" sheetId="9" r:id="rId1"/>
+    <sheet name="Tariffs - daily" sheetId="8" r:id="rId2"/>
+    <sheet name="Tariffs - hourly" sheetId="1" r:id="rId3"/>
+    <sheet name="Config and arguments" sheetId="7" r:id="rId4"/>
+    <sheet name="TimeSeriesPoints" sheetId="5" r:id="rId5"/>
+    <sheet name="MeteringPointPeriods" sheetId="4" r:id="rId6"/>
+    <sheet name="ChargePriceInformationPeriods" sheetId="3" r:id="rId7"/>
+    <sheet name="subscriptions" sheetId="10" r:id="rId8"/>
+    <sheet name="ChargeLinks" sheetId="2" r:id="rId9"/>
+    <sheet name="ChargePricePoints" sheetId="6" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="gridLoss1H_quarter1" localSheetId="3">TimeSeriesPoints!$L$66</definedName>
-    <definedName name="gridLoss1H_quarter2" localSheetId="3">TimeSeriesPoints!$L$67</definedName>
-    <definedName name="gridLoss1H_quarter3" localSheetId="3">TimeSeriesPoints!$L$68</definedName>
-    <definedName name="gridLoss1H_quarter4" localSheetId="3">TimeSeriesPoints!$L$69</definedName>
+    <definedName name="gridLoss1H_quarter1" localSheetId="4">TimeSeriesPoints!$L$66</definedName>
+    <definedName name="gridLoss1H_quarter2" localSheetId="4">TimeSeriesPoints!$L$67</definedName>
+    <definedName name="gridLoss1H_quarter3" localSheetId="4">TimeSeriesPoints!$L$68</definedName>
+    <definedName name="gridLoss1H_quarter4" localSheetId="4">TimeSeriesPoints!$L$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="179">
   <si>
     <t>charge_price</t>
   </si>
@@ -581,9 +582,6 @@
     <t>whichday</t>
   </si>
   <si>
-    <t>fee-1--0000000000800--1000000000000--consumption--800--flex</t>
-  </si>
-  <si>
     <t>whichdayFromDay</t>
   </si>
   <si>
@@ -599,13 +597,19 @@
     <t>2019-06-06 23:00:00</t>
   </si>
   <si>
-    <t>2023-02-20 23:00:00</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>2023-02-04 23:00:00</t>
+  </si>
+  <si>
+    <t>Quantity_quantified</t>
+  </si>
+  <si>
+    <t>fee-3--0000000000800--2000000000000--production--800</t>
+  </si>
+  <si>
+    <t>subscription-1--0000000000800--2000000000000--production--111</t>
   </si>
 </sst>
 </file>
@@ -769,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -795,6 +799,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -808,7 +813,121 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="124">
+  <dxfs count="147">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.000000"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -860,7 +979,25 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -882,6 +1019,91 @@
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1348,198 +1570,6 @@
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
@@ -2431,6 +2461,466 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2450,68 +2940,66 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8C1F9529-110B-40F9-8C26-ABDA713BFD15}" name="OutPut10" displayName="OutPut10" ref="B4:U8" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4AADA5DB-0BFB-429D-972F-F9681FB8402D}" name="OutPut1011" displayName="OutPut1011" ref="B4:U8" totalsRowShown="0" headerRowDxfId="146" dataDxfId="145">
   <autoFilter ref="B4:U8" xr:uid="{D2FF87A6-8F25-416A-AF7A-DA3500DDFC40}"/>
   <tableColumns count="20">
-    <tableColumn id="17" xr3:uid="{940A16E7-F84C-4270-B1A9-57FBF6F2994B}" name="calculation_id" dataDxfId="121">
-      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",'Config and arguments'!C$2)</calculatedColumnFormula>
+    <tableColumn id="17" xr3:uid="{6C4FF581-7A09-4E03-A877-4D6DE30695C1}" name="calculation_id" dataDxfId="144">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{6EE4D5AC-3136-4CFB-96B5-508251133DF0}" name="calculation_type" dataDxfId="120">
-      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",'Config and arguments'!C$5)</calculatedColumnFormula>
+    <tableColumn id="18" xr3:uid="{9FC972C6-093D-4EEB-A2BC-4C5568B583DC}" name="calculation_type" dataDxfId="143">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{C21B7ED5-A5B4-4A4B-83CF-13E86DA51D9B}" name="calculation_execution_time_start" dataDxfId="119">
-      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",'Config and arguments'!C$6)</calculatedColumnFormula>
+    <tableColumn id="19" xr3:uid="{28EF63D3-20C6-47B9-B732-D9DBCE627E44}" name="calculation_execution_time_start" dataDxfId="142">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{726B2AD0-3C52-4881-9A1E-39F084A8516A}" name="calculation_result_id" dataDxfId="118">
-      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","","IGNORED")</calculatedColumnFormula>
+    <tableColumn id="20" xr3:uid="{B542ECDE-75E5-46BE-BA7F-BF0AE34B7430}" name="calculation_result_id" dataDxfId="141">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","","IGNORED")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BC71DDD9-BD82-458C-8818-3422A0CA67E1}" name="grid_area_code" dataDxfId="117">
-      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",G$3)</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{A55242AB-2425-4412-9647-30D9C10BB124}" name="grid_area_code" dataDxfId="140">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",G$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C7B284DD-6E01-4FF2-98DD-0C68007ED9C4}" name="energy_supplier_id" dataDxfId="116">
-      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",$E$3)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{30B16759-23FA-47E3-9652-58F49E19581C}" name="energy_supplier_id" dataDxfId="139">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",$E$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BB70289C-E05D-4CBF-8163-BCB1670CB7B4}" name="quantity" dataDxfId="115">
-      <calculatedColumnFormula array="1">IF(OutPut10[[#This Row],[time]]="","",IFERROR(SUBSTITUTE(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X5))),",","."),0))</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{257418CC-C4DA-433E-9656-71A609B017D1}" name="quantity" dataDxfId="138">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",SUMIFS(ChargeLinks[Quantity_quantified],ChargeLinks[OutputCombination],C$1,ChargeLinks[whichdayFromDay],X5))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9BC4E831-16AB-4A9C-A05C-41C9B8BCA61B}" name="quantity_unit" dataDxfId="114">
-      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","","kWh")</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{7A0A3EE7-8623-4064-B5FB-B201DD517F49}" name="quantity_unit" dataDxfId="137">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","","pcs")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5E508F52-F245-4252-A053-3A4CF96A1E64}" name="quantity_qualities" dataDxfId="113">
-      <calculatedColumnFormula array="1">IF(OutPut10[[#This Row],[time]]="","",IFERROR(IF(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X5)))&gt;0,"['missing', 'measured']","'missing'"),"['missing]"))</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{6BB672EB-598A-4007-A2F8-99E3651F2EEA}" name="quantity_qualities" dataDxfId="136"/>
+    <tableColumn id="7" xr3:uid="{BD29D916-4FAA-4BD8-ABF3-2BADA65D3AD2}" name="time" dataDxfId="135">
+      <calculatedColumnFormula>IF(COUNTIFS(ChargeLinks[whichdayFromDay],X5,ChargeLinks[OutputCombination],C$1)&gt;0,IF('Config and arguments'!AC3="","",_xlfn.CONCAT('Config and arguments'!AC3," 23:00:00")),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{09DDC3DF-BD86-4667-82E3-A93BC5449F84}" name="time" dataDxfId="112">
-      <calculatedColumnFormula>IF('Config and arguments'!AC3="","",_xlfn.CONCAT('Config and arguments'!AC3," 23:00:00"))</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{35574B58-0F97-474C-B3D1-2AF6E9BEBC36}" name="resolution" dataDxfId="134">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","","P1D")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A90DE32A-2A31-4C61-9DBB-EF94C4547149}" name="resolution" dataDxfId="111">
-      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","","P1D")</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{848A124C-B8AD-4613-A315-5DC0A487C6AD}" name="metering_point_type" dataDxfId="133">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",$F$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9004D9C9-21EC-45BA-9606-EB0F82E2D0B0}" name="metering_point_type" dataDxfId="110">
-      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",$F$3)</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{F2B6D6BB-6B09-4FD9-8060-469C2836998D}" name="settlement_method" dataDxfId="132">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",IF($H$3="","",$H$3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9687C2B3-5DA9-4486-9B8D-0594A95BB9D3}" name="settlement_method" dataDxfId="109">
-      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",IF($H$3="","",$H$3))</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{CBA1B0CA-6822-4844-8F48-97E1A46D661A}" name="price" dataDxfId="131">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]]),",",".")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{32A90718-8212-4196-9024-26AA9AD07D21}" name="price" dataDxfId="108">
-      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut10[[#This Row],[time]],ChargePricePoints[charge_code],OutPut10[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut10[[#This Row],[time]],ChargePricePoints[charge_code],OutPut10[[#This Row],[charge_code]]),",",".")))</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{E81279EE-62EA-4B15-BEBC-10AD734B9CF7}" name="amount" dataDxfId="130">
+      <calculatedColumnFormula>IFERROR(SUBSTITUTE(SUBSTITUTE(OutPut1011[[#This Row],[price]],".",",")*SUBSTITUTE(OutPut1011[[#This Row],[quantity]],".",","),",","."),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{BD375783-A03A-49F3-877C-6BBFC098DC79}" name="amount" dataDxfId="107">
-      <calculatedColumnFormula>IFERROR(SUBSTITUTE(SUBSTITUTE(OutPut10[[#This Row],[price]],".",",")*SUBSTITUTE(OutPut10[[#This Row],[quantity]],".",","),",","."),"")</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{12F2C78F-1A47-4355-8665-B23F65E21FD3}" name="is_tax" dataDxfId="129">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{89F57AB7-40BD-42BE-89B4-ECEB2C36D1FF}" name="is_tax" dataDxfId="106">
-      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE))</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{49179731-BB1F-4F6B-9415-9540A3A8A74E}" name="charge_code" dataDxfId="128">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",$C$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{646C9EED-02AB-4F33-B2CA-7ED3272E9FD1}" name="charge_code" dataDxfId="105">
-      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",$C$3)</calculatedColumnFormula>
+    <tableColumn id="15" xr3:uid="{55B814FF-5E3E-4095-90AC-0E2CBE99DEAA}" name="charge_type" dataDxfId="127">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","","fee")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{2124DB4B-D05E-4FF3-B11A-3C2CD2DB489F}" name="charge_type" dataDxfId="104">
-      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","","tariff")</calculatedColumnFormula>
+    <tableColumn id="16" xr3:uid="{D074830B-6D39-46E5-93EB-0EAEE96C54A1}" name="charge_owner_id" dataDxfId="126">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",$D$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{E3ACC620-F20E-489D-83FF-8FAB25088A35}" name="charge_owner_id" dataDxfId="103">
-      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",$D$3)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="1" xr3:uid="{4E6498E7-69CC-46BD-AAC2-4F8C3C54B573}" name="amount_type" dataDxfId="102">
-      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","","amount_per_charge")</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{22C171CE-7BFD-4CBA-AF95-D75D809F7C62}" name="amount_type" dataDxfId="125">
+      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","","amount_per_charge")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2519,21 +3007,64 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C016282-02DA-45DD-8144-000BF0AE3C4B}" name="ChargeLinks" displayName="ChargeLinks" ref="A1:P35" totalsRowShown="0" headerRowDxfId="22">
+  <autoFilter ref="A1:P35" xr:uid="{4C016282-02DA-45DD-8144-000BF0AE3C4B}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{5D866E37-33E8-4772-8058-91EEF8C237C2}" name="charge_code" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{490CB0A2-0EF8-4653-8A5E-9B8094165BDC}" name="charge_type" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{7135A3A1-5051-429E-8261-8AB31A739FB5}" name="charge_owner_id" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{5C6B43BE-2B8F-4A1F-BF82-B40970FE2DC5}" name="metering_point_id" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{59F6ECAA-71F3-40FF-846D-92E4C6D2132D}" name="quantity" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{39BCCFB9-F921-409E-84A0-7A6857B7750E}" name="from_date" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{7264F479-E0E3-49AD-90F9-D674864C31B9}" name="to_date" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{D4F9E4BF-038C-44B8-84BD-68CDB130F334}" name="Charge_resolution" dataDxfId="14">
+      <calculatedColumnFormula>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{C5B2455F-EDB7-418D-BBC9-F8FAB1082057}" name="Quantity_quantified" dataDxfId="13">
+      <calculatedColumnFormula>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{3847870A-615B-48A2-A325-CD1C7BAED26A}" name="energy_supplier_id" dataDxfId="12">
+      <calculatedColumnFormula>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{58B714A4-DCC0-4728-99C2-D5D8472B5530}" name="metering_point_type" dataDxfId="11">
+      <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{76EB7E81-9D94-4902-9DF2-1A4EF371DAF0}" name="settlement_method" dataDxfId="10">
+      <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{B31AFEA3-7FB4-4030-B29A-473E94B7464D}" name="whichdayFromDay" dataDxfId="9">
+      <calculatedColumnFormula>IFERROR(INDEX('Config and arguments'!Z3:AB98,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB3:AB98,0),1),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{27B6CBA5-D5A2-4C63-B037-451D5B9422CB}" name="whichToDay" dataDxfId="8">
+      <calculatedColumnFormula>IFERROR(INDEX('Config and arguments'!Z3:AB98,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB3:AB98,0),1),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{9B7776FE-6F51-4A0B-A78D-D4AAF0A7F158}" name="ga" dataDxfId="7">
+      <calculatedColumnFormula>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{A2CD103B-C1B7-45F8-A620-EBFFDBF64097}" name="OutputCombination" dataDxfId="6">
+      <calculatedColumnFormula>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CC8E1B98-9587-45C5-95FD-F3B94687A50B}" name="ChargePricePoints" displayName="ChargePricePoints" ref="A1:H25" totalsRowShown="0">
   <autoFilter ref="A1:H25" xr:uid="{CC8E1B98-9587-45C5-95FD-F3B94687A50B}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{69DFFE3D-C209-469C-93C2-67D70897CECD}" name="charge_code"/>
     <tableColumn id="2" xr3:uid="{C2BA6440-DC16-4F9B-96BE-A9A0F237B7ED}" name="charge_type"/>
-    <tableColumn id="3" xr3:uid="{DE42A2CB-11DB-40C9-972F-4996A60A2655}" name="charge_owner_id" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{C462E5E9-79F8-4B90-AE92-B40FC6B4334A}" name="charge_price" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{C24479F8-FACC-4841-9EBA-38DC21F5176A}" name="charge_time" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{A8F6CD35-AC38-4473-9AC2-FFF55080D37D}" name="charge_price_quantified" dataDxfId="30">
+    <tableColumn id="3" xr3:uid="{DE42A2CB-11DB-40C9-972F-4996A60A2655}" name="charge_owner_id" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{C462E5E9-79F8-4B90-AE92-B40FC6B4334A}" name="charge_price" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{C24479F8-FACC-4841-9EBA-38DC21F5176A}" name="charge_time" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{A8F6CD35-AC38-4473-9AC2-FFF55080D37D}" name="charge_price_quantified" dataDxfId="2">
       <calculatedColumnFormula>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{95636D1A-8B9F-4BA2-BBFA-C07691BB959D}" name="charge_time_shortened" dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{95636D1A-8B9F-4BA2-BBFA-C07691BB959D}" name="charge_time_shortened" dataDxfId="1">
       <calculatedColumnFormula>LEFT(E2,19)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{47A0FE82-5DE4-4CCB-9012-C7369049E3C7}" name="charge_time_day" dataDxfId="28">
+    <tableColumn id="8" xr3:uid="{47A0FE82-5DE4-4CCB-9012-C7369049E3C7}" name="charge_time_day" dataDxfId="0">
       <calculatedColumnFormula>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2542,67 +3073,136 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2FF87A6-8F25-416A-AF7A-DA3500DDFC40}" name="OutPut" displayName="OutPut" ref="B4:U100" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8C1F9529-110B-40F9-8C26-ABDA713BFD15}" name="OutPut10" displayName="OutPut10" ref="B4:U8" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
+  <autoFilter ref="B4:U8" xr:uid="{D2FF87A6-8F25-416A-AF7A-DA3500DDFC40}"/>
+  <tableColumns count="20">
+    <tableColumn id="17" xr3:uid="{940A16E7-F84C-4270-B1A9-57FBF6F2994B}" name="calculation_id" dataDxfId="122">
+      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",'Config and arguments'!C$2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{6EE4D5AC-3136-4CFB-96B5-508251133DF0}" name="calculation_type" dataDxfId="121">
+      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",'Config and arguments'!C$5)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{C21B7ED5-A5B4-4A4B-83CF-13E86DA51D9B}" name="calculation_execution_time_start" dataDxfId="120">
+      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",'Config and arguments'!C$6)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{726B2AD0-3C52-4881-9A1E-39F084A8516A}" name="calculation_result_id" dataDxfId="119">
+      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","","IGNORED")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{BC71DDD9-BD82-458C-8818-3422A0CA67E1}" name="grid_area_code" dataDxfId="118">
+      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",G$3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{C7B284DD-6E01-4FF2-98DD-0C68007ED9C4}" name="energy_supplier_id" dataDxfId="117">
+      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",$E$3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{BB70289C-E05D-4CBF-8163-BCB1670CB7B4}" name="quantity" dataDxfId="116">
+      <calculatedColumnFormula array="1">IF(OutPut10[[#This Row],[time]]="","",IFERROR(SUBSTITUTE(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X5))),",","."),0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{9BC4E831-16AB-4A9C-A05C-41C9B8BCA61B}" name="quantity_unit" dataDxfId="115">
+      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","","kWh")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{5E508F52-F245-4252-A053-3A4CF96A1E64}" name="quantity_qualities" dataDxfId="114">
+      <calculatedColumnFormula array="1">IF(OutPut10[[#This Row],[time]]="","",IFERROR(IF(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X5)))&gt;0,"['missing', 'measured']","'missing'"),"['missing]"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{09DDC3DF-BD86-4667-82E3-A93BC5449F84}" name="time" dataDxfId="113">
+      <calculatedColumnFormula>IF('Config and arguments'!AC3="","",_xlfn.CONCAT('Config and arguments'!AC3," 23:00:00"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{A90DE32A-2A31-4C61-9DBB-EF94C4547149}" name="resolution" dataDxfId="112">
+      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","","P1D")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{9004D9C9-21EC-45BA-9606-EB0F82E2D0B0}" name="metering_point_type" dataDxfId="111">
+      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",$F$3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{9687C2B3-5DA9-4486-9B8D-0594A95BB9D3}" name="settlement_method" dataDxfId="110">
+      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",IF($H$3="","",$H$3))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{32A90718-8212-4196-9024-26AA9AD07D21}" name="price" dataDxfId="109">
+      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut10[[#This Row],[time]],ChargePricePoints[charge_code],OutPut10[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut10[[#This Row],[time]],ChargePricePoints[charge_code],OutPut10[[#This Row],[charge_code]]),",",".")))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{BD375783-A03A-49F3-877C-6BBFC098DC79}" name="amount" dataDxfId="108">
+      <calculatedColumnFormula>IFERROR(SUBSTITUTE(SUBSTITUTE(OutPut10[[#This Row],[price]],".",",")*SUBSTITUTE(OutPut10[[#This Row],[quantity]],".",","),",","."),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{89F57AB7-40BD-42BE-89B4-ECEB2C36D1FF}" name="is_tax" dataDxfId="107">
+      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{646C9EED-02AB-4F33-B2CA-7ED3272E9FD1}" name="charge_code" dataDxfId="106">
+      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",$C$3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{2124DB4B-D05E-4FF3-B11A-3C2CD2DB489F}" name="charge_type" dataDxfId="105">
+      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","","tariff")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{E3ACC620-F20E-489D-83FF-8FAB25088A35}" name="charge_owner_id" dataDxfId="104">
+      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","",$D$3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" xr3:uid="{4E6498E7-69CC-46BD-AAC2-4F8C3C54B573}" name="amount_type" dataDxfId="103">
+      <calculatedColumnFormula>IF(OutPut10[[#This Row],[time]]="","","amount_per_charge")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2FF87A6-8F25-416A-AF7A-DA3500DDFC40}" name="OutPut" displayName="OutPut" ref="B4:U100" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
   <autoFilter ref="B4:U100" xr:uid="{D2FF87A6-8F25-416A-AF7A-DA3500DDFC40}"/>
   <tableColumns count="20">
-    <tableColumn id="17" xr3:uid="{F4A59025-41CA-47AD-952B-2428959E8A50}" name="calculation_id" dataDxfId="99">
+    <tableColumn id="17" xr3:uid="{F4A59025-41CA-47AD-952B-2428959E8A50}" name="calculation_id" dataDxfId="100">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","",'Config and arguments'!C$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{F095173D-E1DC-4697-B288-D95D5945D253}" name="calculation_type" dataDxfId="98">
+    <tableColumn id="18" xr3:uid="{F095173D-E1DC-4697-B288-D95D5945D253}" name="calculation_type" dataDxfId="99">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","",'Config and arguments'!C$5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{2C01FBCF-AEED-47E5-874A-D9CB2BD9D409}" name="calculation_execution_time_start" dataDxfId="97">
+    <tableColumn id="19" xr3:uid="{2C01FBCF-AEED-47E5-874A-D9CB2BD9D409}" name="calculation_execution_time_start" dataDxfId="98">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","",'Config and arguments'!C$6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{37341BB6-4D32-46E1-825A-6DF5D1A0D770}" name="calculation_result_id" dataDxfId="96">
+    <tableColumn id="20" xr3:uid="{37341BB6-4D32-46E1-825A-6DF5D1A0D770}" name="calculation_result_id" dataDxfId="97">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","","IGNORED")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{0DDB3581-9EFD-4CD5-A5E4-AA25CC64A8EA}" name="grid_area_code" dataDxfId="95">
+    <tableColumn id="2" xr3:uid="{0DDB3581-9EFD-4CD5-A5E4-AA25CC64A8EA}" name="grid_area_code" dataDxfId="96">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","",G$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9ECD4A31-B204-4AAA-BCE0-A55479D4D6F9}" name="energy_supplier_id" dataDxfId="94">
+    <tableColumn id="3" xr3:uid="{9ECD4A31-B204-4AAA-BCE0-A55479D4D6F9}" name="energy_supplier_id" dataDxfId="95">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","",$E$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{08094514-49A8-4D25-A69E-A75EB3232592}" name="quantity" dataDxfId="93">
+    <tableColumn id="4" xr3:uid="{08094514-49A8-4D25-A69E-A75EB3232592}" name="quantity" dataDxfId="94">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","",SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity_quantified],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]],TimeSeriesPoints[grid_area],OutPut[[#This Row],[grid_area_code]],TimeSeriesPoints[es],E$3),",","."))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{88D10A42-9475-42BD-ADCA-A3FFA72BC973}" name="quantity_unit" dataDxfId="92">
+    <tableColumn id="5" xr3:uid="{88D10A42-9475-42BD-ADCA-A3FFA72BC973}" name="quantity_unit" dataDxfId="93">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","","kWh")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A3DD608C-4E56-40B0-B1F7-95AC815014A7}" name="quantity_qualities" dataDxfId="91">
+    <tableColumn id="6" xr3:uid="{A3DD608C-4E56-40B0-B1F7-95AC815014A7}" name="quantity_qualities" dataDxfId="92">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","",IF(SUMIFS(TimeSeriesPoints[quantity_quantified],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[es],OutPut[[#This Row],[energy_supplier_id]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FBD9FA55-93F5-4E1A-96F5-ED949010179F}" name="time" dataDxfId="90">
+    <tableColumn id="7" xr3:uid="{FBD9FA55-93F5-4E1A-96F5-ED949010179F}" name="time" dataDxfId="91">
       <calculatedColumnFormula>'Config and arguments'!AB3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9932B718-7F22-4D96-BEE4-F0152DC66C3C}" name="resolution" dataDxfId="89">
+    <tableColumn id="8" xr3:uid="{9932B718-7F22-4D96-BEE4-F0152DC66C3C}" name="resolution" dataDxfId="90">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","","PT1H")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E64C45EC-3ECC-46FF-85E7-A6E4C66A6B05}" name="metering_point_type" dataDxfId="88">
+    <tableColumn id="9" xr3:uid="{E64C45EC-3ECC-46FF-85E7-A6E4C66A6B05}" name="metering_point_type" dataDxfId="89">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","",$F$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0EF4D2F5-DCAF-46F8-9394-603FD6C1F55C}" name="settlement_method" dataDxfId="87">
+    <tableColumn id="10" xr3:uid="{0EF4D2F5-DCAF-46F8-9394-603FD6C1F55C}" name="settlement_method" dataDxfId="88">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","",IF($H$3="","",$H$3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{DBC31B41-AB04-4AC3-9F13-BFC4F3EEAA92}" name="price" dataDxfId="86">
+    <tableColumn id="11" xr3:uid="{DBC31B41-AB04-4AC3-9F13-BFC4F3EEAA92}" name="price" dataDxfId="87">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",",".")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{D1E8A453-6F3B-41B3-A143-A8DCE8CA5BCA}" name="amount" dataDxfId="85">
+    <tableColumn id="12" xr3:uid="{D1E8A453-6F3B-41B3-A143-A8DCE8CA5BCA}" name="amount" dataDxfId="86">
       <calculatedColumnFormula>IFERROR(SUBSTITUTE(SUBSTITUTE(OutPut[[#This Row],[price]],".",",")*SUBSTITUTE(OutPut[[#This Row],[quantity]],".",","),",","."),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{1EB903FD-EE7B-4893-8B3E-F5CD1AE80C04}" name="is_tax" dataDxfId="84">
+    <tableColumn id="13" xr3:uid="{1EB903FD-EE7B-4893-8B3E-F5CD1AE80C04}" name="is_tax" dataDxfId="85">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","",VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{6EA78CDA-CA22-44EA-8F2B-84698D2E2563}" name="charge_code" dataDxfId="83">
+    <tableColumn id="14" xr3:uid="{6EA78CDA-CA22-44EA-8F2B-84698D2E2563}" name="charge_code" dataDxfId="84">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","",$C$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{736A1B4A-102F-483A-AA11-B763F06372FC}" name="charge_type" dataDxfId="82">
+    <tableColumn id="15" xr3:uid="{736A1B4A-102F-483A-AA11-B763F06372FC}" name="charge_type" dataDxfId="83">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","","tariff")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{64C92314-FA8E-4583-B04E-521FB24FEAD6}" name="charge_owner_id" dataDxfId="81">
+    <tableColumn id="16" xr3:uid="{64C92314-FA8E-4583-B04E-521FB24FEAD6}" name="charge_owner_id" dataDxfId="82">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","",$D$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{F22DD871-796B-4BA4-81DC-7842494D2C98}" name="amount_type" dataDxfId="80">
+    <tableColumn id="1" xr3:uid="{F22DD871-796B-4BA4-81DC-7842494D2C98}" name="amount_type" dataDxfId="81">
       <calculatedColumnFormula>IF(OutPut[[#This Row],[time]]="","","amount_per_charge")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2610,52 +3210,52 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4D9288B3-D090-4897-AD89-5C04D501F267}" name="MPTypeMapping" displayName="MPTypeMapping" ref="A13:B25" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4D9288B3-D090-4897-AD89-5C04D501F267}" name="MPTypeMapping" displayName="MPTypeMapping" ref="A13:B25" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
   <autoFilter ref="A13:B25" xr:uid="{4D9288B3-D090-4897-AD89-5C04D501F267}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7A432737-3E15-4ECB-BE3F-D5902A6BDC2B}" name="MP type mapping" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{FDB8F8B6-CF45-4A18-8759-8120EBE28034}" name="Mapped" dataDxfId="76"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{78218855-94F9-4AAF-B51E-818503732FDE}" name="SettlementMapping" displayName="SettlementMapping" ref="A9:B11" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
-  <autoFilter ref="A9:B11" xr:uid="{78218855-94F9-4AAF-B51E-818503732FDE}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{09776318-E643-49BC-83B0-C37A38FFE072}" name="Settlement method mapping" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{D6412985-2D80-4076-945F-216E94C8E760}" name="mapped" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{7A432737-3E15-4ECB-BE3F-D5902A6BDC2B}" name="MP type mapping" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{FDB8F8B6-CF45-4A18-8759-8120EBE28034}" name="Mapped" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{78218855-94F9-4AAF-B51E-818503732FDE}" name="SettlementMapping" displayName="SettlementMapping" ref="A9:B11" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+  <autoFilter ref="A9:B11" xr:uid="{78218855-94F9-4AAF-B51E-818503732FDE}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{09776318-E643-49BC-83B0-C37A38FFE072}" name="Settlement method mapping" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{D6412985-2D80-4076-945F-216E94C8E760}" name="mapped" dataDxfId="73"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3C8F0617-F039-41D8-8DF9-B9925F5FD292}" name="TimeSeriesPoints" displayName="TimeSeriesPoints" ref="A1:L26" totalsRowShown="0">
   <autoFilter ref="A1:L26" xr:uid="{3C8F0617-F039-41D8-8DF9-B9925F5FD292}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{ED5AEA4E-C692-4374-B1CE-C8D8084741D8}" name="metering_point_id"/>
-    <tableColumn id="2" xr3:uid="{DBE4F15E-E8C9-4215-9F8E-1B98001B79C1}" name="quantity" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{DBE4F15E-E8C9-4215-9F8E-1B98001B79C1}" name="quantity" dataDxfId="72"/>
     <tableColumn id="3" xr3:uid="{D9F5ACD6-F0C4-4862-A8B2-60E7B62AC08B}" name="quality"/>
-    <tableColumn id="4" xr3:uid="{920B490A-353A-458C-88EB-A4C7A92A30BF}" name="observation_time" dataDxfId="70"/>
-    <tableColumn id="9" xr3:uid="{97767956-0C76-4A35-860F-18BF3F7A3AB2}" name="quantity_quantified" dataDxfId="69">
+    <tableColumn id="4" xr3:uid="{920B490A-353A-458C-88EB-A4C7A92A30BF}" name="observation_time" dataDxfId="71"/>
+    <tableColumn id="9" xr3:uid="{97767956-0C76-4A35-860F-18BF3F7A3AB2}" name="quantity_quantified" dataDxfId="70">
       <calculatedColumnFormula>IFERROR(VALUE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[quantity]],".",",")),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{95F37151-1BE1-4674-A3E2-CA6607A85058}" name="grid_area" dataDxfId="68">
+    <tableColumn id="8" xr3:uid="{95F37151-1BE1-4674-A3E2-CA6607A85058}" name="grid_area" dataDxfId="69">
       <calculatedColumnFormula>_xlfn.IFNA(INDEX(MeteringPointPeriods[],MATCH(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2111F635-3CBD-450C-8956-C061F4C2F263}" name="metering_point_type" dataDxfId="67"/>
-    <tableColumn id="6" xr3:uid="{111D7211-7EE4-420E-A428-72724271B430}" name="settlement_method" dataDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{E3FD1FFD-3A22-44CC-B91A-56AD78045817}" name="hour" dataDxfId="65"/>
-    <tableColumn id="11" xr3:uid="{D09BFE2D-78E0-4D13-A4AC-2879BE34BEB2}" name="day" dataDxfId="64">
+    <tableColumn id="5" xr3:uid="{2111F635-3CBD-450C-8956-C061F4C2F263}" name="metering_point_type" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{111D7211-7EE4-420E-A428-72724271B430}" name="settlement_method" dataDxfId="67"/>
+    <tableColumn id="7" xr3:uid="{E3FD1FFD-3A22-44CC-B91A-56AD78045817}" name="hour" dataDxfId="66"/>
+    <tableColumn id="11" xr3:uid="{D09BFE2D-78E0-4D13-A4AC-2879BE34BEB2}" name="day" dataDxfId="65">
       <calculatedColumnFormula>LEFT(TimeSeriesPoints[[#This Row],[observation_time]],10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{58CC0E1D-F2F8-45BB-BE68-8AEE47403DD0}" name="whichday" dataDxfId="63">
+    <tableColumn id="12" xr3:uid="{58CC0E1D-F2F8-45BB-BE68-8AEE47403DD0}" name="whichday" dataDxfId="64">
       <calculatedColumnFormula>IF(TimeSeriesPoints[[#This Row],[metering_point_id]]&lt;&gt;"",INDEX('Config and arguments'!Z3:AB98,MATCH(LEFT(TimeSeriesPoints[[#This Row],[day]],10),'Config and arguments'!AA3:AA98,0),1),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D0F2E272-8CBF-4B28-9B88-2B8309280988}" name="es" dataDxfId="62">
+    <tableColumn id="10" xr3:uid="{D0F2E272-8CBF-4B28-9B88-2B8309280988}" name="es" dataDxfId="63">
       <calculatedColumnFormula>_xlfn.IFNA(INDEX(MeteringPointPeriods[],MATCH(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),10),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2663,147 +3263,105 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C23C94B-085F-44ED-9C29-B56B92F1B82F}" name="MeteringPointPeriods" displayName="MeteringPointPeriods" ref="A1:M26" totalsRowShown="0" dataDxfId="61">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C23C94B-085F-44ED-9C29-B56B92F1B82F}" name="MeteringPointPeriods" displayName="MeteringPointPeriods" ref="A1:M26" totalsRowShown="0" dataDxfId="62">
   <autoFilter ref="A1:M26" xr:uid="{9C23C94B-085F-44ED-9C29-B56B92F1B82F}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{BDDD221E-D8D0-4820-9E79-C550EEFB1552}" name="metering_point_id" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{3264101E-B7CE-433E-95D3-ECAF67C4B197}" name="type" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{7C0D9AD3-5F1E-4528-9C99-D7C9C0B81870}" name="calculation_type" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{A7E122D3-3055-4D9F-A63D-DBCBA9074AEF}" name="settlement_method" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{BDA72DCA-8178-4B49-AC99-64FE311CA920}" name="grid_area_code" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{7C4FD7ED-486D-43F5-8209-FB7F4E50B817}" name="resolution" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{EA876C75-481F-4F0C-BFAD-2B6485E386C9}" name="from_grid_area_code" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{DDADF541-4D21-429F-AD29-34F72E0F5DB0}" name="to_grid_area_code" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{6873E7DA-25ED-4F63-9CC3-142EBFD5C96C}" name="parent_metering_point_id" dataDxfId="52"/>
-    <tableColumn id="10" xr3:uid="{5E7B70BE-3917-4AE6-83EA-8A871F97FB99}" name="energy_supplier_id" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{BE1BF5F2-4168-4BEC-B68C-E044D0519557}" name="balance_responsible_party_id" dataDxfId="50"/>
-    <tableColumn id="12" xr3:uid="{9E73F0DE-D460-465D-A80A-57B4C4CD3239}" name="from_date" dataDxfId="49"/>
-    <tableColumn id="13" xr3:uid="{AC523A53-B312-436C-B015-81473D31863F}" name="to_date" dataDxfId="48"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{91FEEFC2-9D36-4306-A34D-8A90B0675648}" name="ChargePriceInformationPeriods" displayName="ChargePriceInformationPeriods" ref="A1:G15" totalsRowShown="0">
-  <autoFilter ref="A1:G15" xr:uid="{91FEEFC2-9D36-4306-A34D-8A90B0675648}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{CF0BFE7C-60FC-42F9-9181-73CE1D7E20B7}" name="charge_code"/>
-    <tableColumn id="2" xr3:uid="{673AD76B-379D-462E-928F-C6D0BFD5A10C}" name="charge_type"/>
-    <tableColumn id="3" xr3:uid="{243A323C-AF81-41DC-852D-4848600A710B}" name="charge_owner_id" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{AD6E792C-2C46-4350-8BAD-EFB6FA436C58}" name="resolution"/>
-    <tableColumn id="5" xr3:uid="{30067025-C046-41BD-B06F-E0FF1088CE27}" name="is_tax" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{0AB395C0-A6FB-4B10-918C-5C09E228F063}" name="from_date" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{62861BBF-4C0E-43ED-8B6A-11C6ED2A05A8}" name="to_date" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{BDDD221E-D8D0-4820-9E79-C550EEFB1552}" name="metering_point_id" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{3264101E-B7CE-433E-95D3-ECAF67C4B197}" name="type" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{7C0D9AD3-5F1E-4528-9C99-D7C9C0B81870}" name="calculation_type" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{A7E122D3-3055-4D9F-A63D-DBCBA9074AEF}" name="settlement_method" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{BDA72DCA-8178-4B49-AC99-64FE311CA920}" name="grid_area_code" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{7C4FD7ED-486D-43F5-8209-FB7F4E50B817}" name="resolution" dataDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{EA876C75-481F-4F0C-BFAD-2B6485E386C9}" name="from_grid_area_code" dataDxfId="55"/>
+    <tableColumn id="8" xr3:uid="{DDADF541-4D21-429F-AD29-34F72E0F5DB0}" name="to_grid_area_code" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{6873E7DA-25ED-4F63-9CC3-142EBFD5C96C}" name="parent_metering_point_id" dataDxfId="53"/>
+    <tableColumn id="10" xr3:uid="{5E7B70BE-3917-4AE6-83EA-8A871F97FB99}" name="energy_supplier_id" dataDxfId="52"/>
+    <tableColumn id="11" xr3:uid="{BE1BF5F2-4168-4BEC-B68C-E044D0519557}" name="balance_responsible_party_id" dataDxfId="51"/>
+    <tableColumn id="12" xr3:uid="{9E73F0DE-D460-465D-A80A-57B4C4CD3239}" name="from_date" dataDxfId="50"/>
+    <tableColumn id="13" xr3:uid="{AC523A53-B312-436C-B015-81473D31863F}" name="to_date" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4AADA5DB-0BFB-429D-972F-F9681FB8402D}" name="OutPut1011" displayName="OutPut1011" ref="B4:U8" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="B4:U8" xr:uid="{D2FF87A6-8F25-416A-AF7A-DA3500DDFC40}"/>
-  <tableColumns count="20">
-    <tableColumn id="17" xr3:uid="{6C4FF581-7A09-4E03-A877-4D6DE30695C1}" name="calculation_id" dataDxfId="25">
-      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" xr3:uid="{9FC972C6-093D-4EEB-A2BC-4C5568B583DC}" name="calculation_type" dataDxfId="24">
-      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$5)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="19" xr3:uid="{28EF63D3-20C6-47B9-B732-D9DBCE627E44}" name="calculation_execution_time_start" dataDxfId="23">
-      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$6)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="20" xr3:uid="{B542ECDE-75E5-46BE-BA7F-BF0AE34B7430}" name="calculation_result_id" dataDxfId="22">
-      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","","IGNORED")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{A55242AB-2425-4412-9647-30D9C10BB124}" name="grid_area_code" dataDxfId="21">
-      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",G$3)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{30B16759-23FA-47E3-9652-58F49E19581C}" name="energy_supplier_id" dataDxfId="20">
-      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",$E$3)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{257418CC-C4DA-433E-9656-71A609B017D1}" name="quantity" dataDxfId="19">
-      <calculatedColumnFormula array="1">IF(OutPut1011[[#This Row],[time]]="","",IFERROR(SUBSTITUTE(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X5))),",","."),0))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{7A0A3EE7-8623-4064-B5FB-B201DD517F49}" name="quantity_unit" dataDxfId="18">
-      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","","kWh")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{6BB672EB-598A-4007-A2F8-99E3651F2EEA}" name="quantity_qualities" dataDxfId="17">
-      <calculatedColumnFormula array="1">IF(OutPut1011[[#This Row],[time]]="","",IFERROR(IF(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X5)))&gt;0,"['missing', 'measured']","'missing'"),"['missing]"))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{BD29D916-4FAA-4BD8-ABF3-2BADA65D3AD2}" name="time" dataDxfId="16">
-      <calculatedColumnFormula>IF('Config and arguments'!AC3="","",_xlfn.CONCAT('Config and arguments'!AC3," 23:00:00"))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{35574B58-0F97-474C-B3D1-2AF6E9BEBC36}" name="resolution" dataDxfId="15">
-      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","","P1D")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{848A124C-B8AD-4613-A315-5DC0A487C6AD}" name="metering_point_type" dataDxfId="14">
-      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",$F$3)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{F2B6D6BB-6B09-4FD9-8060-469C2836998D}" name="settlement_method" dataDxfId="13">
-      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",IF($H$3="","",$H$3))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{CBA1B0CA-6822-4844-8F48-97E1A46D661A}" name="price" dataDxfId="12">
-      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]]),",",".")))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" xr3:uid="{E81279EE-62EA-4B15-BEBC-10AD734B9CF7}" name="amount" dataDxfId="11">
-      <calculatedColumnFormula>IFERROR(SUBSTITUTE(SUBSTITUTE(OutPut1011[[#This Row],[price]],".",",")*SUBSTITUTE(OutPut1011[[#This Row],[quantity]],".",","),",","."),"")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{12F2C78F-1A47-4355-8665-B23F65E21FD3}" name="is_tax" dataDxfId="10">
-      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" xr3:uid="{49179731-BB1F-4F6B-9415-9540A3A8A74E}" name="charge_code" dataDxfId="9">
-      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",$C$3)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" xr3:uid="{55B814FF-5E3E-4095-90AC-0E2CBE99DEAA}" name="charge_type" dataDxfId="6">
-      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","","fee")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" xr3:uid="{D074830B-6D39-46E5-93EB-0EAEE96C54A1}" name="charge_owner_id" dataDxfId="8">
-      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","",$D$3)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="1" xr3:uid="{22C171CE-7BFD-4CBA-AF95-D75D809F7C62}" name="amount_type" dataDxfId="7">
-      <calculatedColumnFormula>IF(OutPut1011[[#This Row],[time]]="","","amount_per_charge")</calculatedColumnFormula>
-    </tableColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{91FEEFC2-9D36-4306-A34D-8A90B0675648}" name="ChargePriceInformationPeriods" displayName="ChargePriceInformationPeriods" ref="A1:G15" totalsRowShown="0">
+  <autoFilter ref="A1:G15" xr:uid="{91FEEFC2-9D36-4306-A34D-8A90B0675648}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{CF0BFE7C-60FC-42F9-9181-73CE1D7E20B7}" name="charge_code"/>
+    <tableColumn id="2" xr3:uid="{673AD76B-379D-462E-928F-C6D0BFD5A10C}" name="charge_type"/>
+    <tableColumn id="3" xr3:uid="{243A323C-AF81-41DC-852D-4848600A710B}" name="charge_owner_id" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{AD6E792C-2C46-4350-8BAD-EFB6FA436C58}" name="resolution"/>
+    <tableColumn id="5" xr3:uid="{30067025-C046-41BD-B06F-E0FF1088CE27}" name="is_tax" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{0AB395C0-A6FB-4B10-918C-5C09E228F063}" name="from_date" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{62861BBF-4C0E-43ED-8B6A-11C6ED2A05A8}" name="to_date" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C016282-02DA-45DD-8144-000BF0AE3C4B}" name="ChargeLinks" displayName="ChargeLinks" ref="A1:O35" totalsRowShown="0" headerRowDxfId="43">
-  <autoFilter ref="A1:O35" xr:uid="{4C016282-02DA-45DD-8144-000BF0AE3C4B}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{5D866E37-33E8-4772-8058-91EEF8C237C2}" name="charge_code" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{490CB0A2-0EF8-4653-8A5E-9B8094165BDC}" name="charge_type" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{7135A3A1-5051-429E-8261-8AB31A739FB5}" name="charge_owner_id" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{5C6B43BE-2B8F-4A1F-BF82-B40970FE2DC5}" name="metering_point_id" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{59F6ECAA-71F3-40FF-846D-92E4C6D2132D}" name="quantity" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{39BCCFB9-F921-409E-84A0-7A6857B7750E}" name="from_date" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{7264F479-E0E3-49AD-90F9-D674864C31B9}" name="to_date" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{D4F9E4BF-038C-44B8-84BD-68CDB130F334}" name="Charge_resolution" dataDxfId="3">
-      <calculatedColumnFormula>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{042DE6EC-43FD-4733-9934-D05A3193884B}" name="OutPut101112" displayName="OutPut101112" ref="B4:U8" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="B4:U8" xr:uid="{D2FF87A6-8F25-416A-AF7A-DA3500DDFC40}"/>
+  <tableColumns count="20">
+    <tableColumn id="17" xr3:uid="{BC5F005A-5086-4086-9AC9-20060BA07EA6}" name="calculation_id" dataDxfId="42">
+      <calculatedColumnFormula>IF(OutPut101112[[#This Row],[time]]="","",'Config and arguments'!C$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3847870A-615B-48A2-A325-CD1C7BAED26A}" name="energy_supplier_id" dataDxfId="38">
-      <calculatedColumnFormula>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</calculatedColumnFormula>
+    <tableColumn id="18" xr3:uid="{4B48CCE8-95E7-4DAC-8F81-FD6914E28F7D}" name="calculation_type" dataDxfId="41">
+      <calculatedColumnFormula>IF(OutPut101112[[#This Row],[time]]="","",'Config and arguments'!C$5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{58B714A4-DCC0-4728-99C2-D5D8472B5530}" name="metering_point_type" dataDxfId="37">
-      <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</calculatedColumnFormula>
+    <tableColumn id="19" xr3:uid="{776CEC28-C1F5-45F3-8D4E-D8A6E74F097C}" name="calculation_execution_time_start" dataDxfId="40">
+      <calculatedColumnFormula>IF(OutPut101112[[#This Row],[time]]="","",'Config and arguments'!C$6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{76EB7E81-9D94-4902-9DF2-1A4EF371DAF0}" name="settlement_method" dataDxfId="36">
-      <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</calculatedColumnFormula>
+    <tableColumn id="20" xr3:uid="{5F6299EA-100B-44B7-B9E9-24AF333175FB}" name="calculation_result_id" dataDxfId="39">
+      <calculatedColumnFormula>IF(OutPut101112[[#This Row],[time]]="","","IGNORED")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{B31AFEA3-7FB4-4030-B29A-473E94B7464D}" name="whichdayFromDay" dataDxfId="1">
-      <calculatedColumnFormula>IFERROR(INDEX('Config and arguments'!Z3:AB98,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB3:AB98,0),1),"")</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{61F58A90-C71C-4743-BDD8-FCD02DD09DE0}" name="grid_area_code" dataDxfId="38">
+      <calculatedColumnFormula>IF(OutPut101112[[#This Row],[time]]="","",G$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{27B6CBA5-D5A2-4C63-B037-451D5B9422CB}" name="whichToDay" dataDxfId="0">
-      <calculatedColumnFormula>IFERROR(INDEX('Config and arguments'!Z3:AB98,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB3:AB98,0),1),"")</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{D71B4F24-D202-4340-B2F3-3E5909835F92}" name="energy_supplier_id" dataDxfId="37">
+      <calculatedColumnFormula>IF(OutPut101112[[#This Row],[time]]="","",$E$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{9B7776FE-6F51-4A0B-A78D-D4AAF0A7F158}" name="ga" dataDxfId="35">
-      <calculatedColumnFormula>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{A8787DE5-9489-4CAE-9EC4-A58389C7890D}" name="quantity" dataDxfId="36">
+      <calculatedColumnFormula>IF(OutPut101112[[#This Row],[time]]="","",SUMIF(ChargeLinks[OutputCombination],C$1,ChargeLinks[Quantity_quantified]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A2CD103B-C1B7-45F8-A620-EBFFDBF64097}" name="OutputCombination" dataDxfId="34">
-      <calculatedColumnFormula>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{5C16E795-E71A-4086-BF86-C18E08F56469}" name="quantity_unit" dataDxfId="35">
+      <calculatedColumnFormula>IF(OutPut101112[[#This Row],[time]]="","","pcs")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{24397C5D-D342-452A-A3FC-7130C49BB2DA}" name="quantity_qualities" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{4C307E2F-D6CA-4917-BDE4-F31C59B548AE}" name="time" dataDxfId="33">
+      <calculatedColumnFormula>IF('Config and arguments'!AC3="","",_xlfn.CONCAT('Config and arguments'!AC3," 23:00:00"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{8CE849A3-6B68-436B-BB04-BE9026316703}" name="resolution" dataDxfId="32">
+      <calculatedColumnFormula>IF(OutPut101112[[#This Row],[time]]="","","P1D")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{69B0EDC9-439E-40F4-A0BB-E677B6AAA850}" name="metering_point_type" dataDxfId="31">
+      <calculatedColumnFormula>IF(OutPut101112[[#This Row],[time]]="","",$F$3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{DE94DC75-A9D1-41BE-BF6E-8EDF4071788D}" name="settlement_method" dataDxfId="30">
+      <calculatedColumnFormula>IF(OutPut101112[[#This Row],[time]]="","",IF($H$3="","",$H$3))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{A33FFDCD-3983-4454-AFE9-93A385A9177D}" name="price" dataDxfId="29">
+      <calculatedColumnFormula>IF(OutPut101112[[#This Row],[time]]="","",SUBSTITUTE(ROUND(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_code],OutPut101112[[#This Row],[charge_code]])/COUNTIF(OutPut101112[resolution],"P1D"),6),",","."))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{B223B745-F9DE-4513-A856-41F70B79D979}" name="amount" dataDxfId="28">
+      <calculatedColumnFormula>IFERROR(SUBSTITUTE(SUBSTITUTE(OutPut101112[[#This Row],[price]],".",",")*SUBSTITUTE(OutPut101112[[#This Row],[quantity]],".",","),",","."),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{CF5360BC-022B-49CB-BEF6-FD2960F34EBF}" name="is_tax" dataDxfId="27">
+      <calculatedColumnFormula>IF(OutPut101112[[#This Row],[time]]="","",VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{C195B9B6-595D-4175-B98A-DB083AA3365F}" name="charge_code" dataDxfId="26">
+      <calculatedColumnFormula>IF(OutPut101112[[#This Row],[time]]="","",$C$3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{D67AAB62-93D3-49CB-B35A-6162CBB77E28}" name="charge_type" dataDxfId="25">
+      <calculatedColumnFormula>IF(OutPut101112[[#This Row],[time]]="","","subscription")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{7DA72576-56D5-44F0-8E21-E21820BD8424}" name="charge_owner_id" dataDxfId="24">
+      <calculatedColumnFormula>IF(OutPut101112[[#This Row],[time]]="","",$D$3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" xr3:uid="{6049258A-0DC2-421B-831B-D6DA7A5426C4}" name="amount_type" dataDxfId="23">
+      <calculatedColumnFormula>IF(OutPut101112[[#This Row],[time]]="","","amount_per_charge")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3126,14 +3684,1704 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388E8B59-85FB-47ED-807C-3BC947FE93AD}">
+  <dimension ref="B1:AD100"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="2" max="2" width="36.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7265625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.1796875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="15.1796875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="17.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.54296875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="20.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="22.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.81640625" style="6" customWidth="1"/>
+    <col min="25" max="25" width="31.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="73.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.81640625" style="3" customWidth="1"/>
+    <col min="34" max="34" width="8.7265625" style="3"/>
+    <col min="35" max="35" width="17.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.81640625" style="3" customWidth="1"/>
+    <col min="37" max="16384" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:30" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="X1" s="3"/>
+    </row>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="C3" s="6" t="str" cm="1">
+        <f t="array" ref="C3:G3">_xlfn.TEXTSPLIT(C1,"--")</f>
+        <v>fee-3</v>
+      </c>
+      <c r="D3" s="6" t="str">
+        <v>0000000000800</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <v>2000000000000</v>
+      </c>
+      <c r="F3" s="6" t="str">
+        <v>production</v>
+      </c>
+      <c r="G3" s="6" t="str">
+        <v>800</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="X3" s="3"/>
+      <c r="AD3" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD4" s="6" t="str" cm="1">
+        <f t="array" ref="AD4:AD7">_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[charge_type]="Fee"),,16))</f>
+        <v>fee-1--0000000000800--1000000000000--consumption--800--flex</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$2)</f>
+        <v/>
+      </c>
+      <c r="C5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$5)</f>
+        <v/>
+      </c>
+      <c r="D5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$6)</f>
+        <v/>
+      </c>
+      <c r="E5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","IGNORED")</f>
+        <v/>
+      </c>
+      <c r="F5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",G$3)</f>
+        <v/>
+      </c>
+      <c r="G5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$E$3)</f>
+        <v/>
+      </c>
+      <c r="H5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",SUMIFS(ChargeLinks[Quantity_quantified],ChargeLinks[OutputCombination],C$1,ChargeLinks[whichdayFromDay],X5))</f>
+        <v/>
+      </c>
+      <c r="I5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","pcs")</f>
+        <v/>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="str">
+        <f>IF(COUNTIFS(ChargeLinks[whichdayFromDay],X5,ChargeLinks[OutputCombination],C$1)&gt;0,IF('Config and arguments'!AC3="","",_xlfn.CONCAT('Config and arguments'!AC3," 23:00:00")),"")</f>
+        <v/>
+      </c>
+      <c r="L5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","P1D")</f>
+        <v/>
+      </c>
+      <c r="M5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$F$3)</f>
+        <v/>
+      </c>
+      <c r="N5" s="12" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",IF($H$3="","",$H$3))</f>
+        <v/>
+      </c>
+      <c r="O5" s="12" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]]),",",".")))</f>
+        <v/>
+      </c>
+      <c r="P5" s="12" t="str">
+        <f>IFERROR(SUBSTITUTE(SUBSTITUTE(OutPut1011[[#This Row],[price]],".",",")*SUBSTITUTE(OutPut1011[[#This Row],[quantity]],".",","),",","."),"")</f>
+        <v/>
+      </c>
+      <c r="Q5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="R5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$C$3)</f>
+        <v/>
+      </c>
+      <c r="S5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","fee")</f>
+        <v/>
+      </c>
+      <c r="T5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$D$3)</f>
+        <v/>
+      </c>
+      <c r="U5" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","amount_per_charge")</f>
+        <v/>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD5" s="6" t="str">
+        <v>fee-2--0000000000800--1000000000000--consumption_from_grid--800</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$2)</f>
+        <v>0b15a420-9fc8-409a-a169-fbd49479d718</v>
+      </c>
+      <c r="C6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$5)</f>
+        <v>wholesale_fixing</v>
+      </c>
+      <c r="D6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$6)</f>
+        <v>2024-01-01 23:00:00</v>
+      </c>
+      <c r="E6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","IGNORED")</f>
+        <v>IGNORED</v>
+      </c>
+      <c r="F6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",G$3)</f>
+        <v>800</v>
+      </c>
+      <c r="G6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$E$3)</f>
+        <v>2000000000000</v>
+      </c>
+      <c r="H6" s="11">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",SUMIFS(ChargeLinks[Quantity_quantified],ChargeLinks[OutputCombination],C$1,ChargeLinks[whichdayFromDay],X6))</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","pcs")</f>
+        <v>pcs</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11" t="str">
+        <f>IF(COUNTIFS(ChargeLinks[whichdayFromDay],X6,ChargeLinks[OutputCombination],C$1)&gt;0,IF('Config and arguments'!AC4="","",_xlfn.CONCAT('Config and arguments'!AC4," 23:00:00")),"")</f>
+        <v>2023-02-01 23:00:00</v>
+      </c>
+      <c r="L6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","P1D")</f>
+        <v>P1D</v>
+      </c>
+      <c r="M6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$F$3)</f>
+        <v>production</v>
+      </c>
+      <c r="N6" s="12" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",IF($H$3="","",$H$3))</f>
+        <v/>
+      </c>
+      <c r="O6" s="12" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]]),",",".")))</f>
+        <v/>
+      </c>
+      <c r="P6" s="12" t="str">
+        <f>IFERROR(SUBSTITUTE(SUBSTITUTE(OutPut1011[[#This Row],[price]],".",",")*SUBSTITUTE(OutPut1011[[#This Row],[quantity]],".",","),",","."),"")</f>
+        <v/>
+      </c>
+      <c r="Q6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE))</f>
+        <v>false</v>
+      </c>
+      <c r="R6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$C$3)</f>
+        <v>fee-3</v>
+      </c>
+      <c r="S6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","fee")</f>
+        <v>fee</v>
+      </c>
+      <c r="T6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$D$3)</f>
+        <v>0000000000800</v>
+      </c>
+      <c r="U6" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","amount_per_charge")</f>
+        <v>amount_per_charge</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD6" s="6" t="str">
+        <v>fee-2--0000000000800--3000000000000--consumption--800--non_profiled</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$2)</f>
+        <v>0b15a420-9fc8-409a-a169-fbd49479d718</v>
+      </c>
+      <c r="C7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$5)</f>
+        <v>wholesale_fixing</v>
+      </c>
+      <c r="D7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$6)</f>
+        <v>2024-01-01 23:00:00</v>
+      </c>
+      <c r="E7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","IGNORED")</f>
+        <v>IGNORED</v>
+      </c>
+      <c r="F7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",G$3)</f>
+        <v>800</v>
+      </c>
+      <c r="G7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$E$3)</f>
+        <v>2000000000000</v>
+      </c>
+      <c r="H7" s="11">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",SUMIFS(ChargeLinks[Quantity_quantified],ChargeLinks[OutputCombination],C$1,ChargeLinks[whichdayFromDay],X7))</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","pcs")</f>
+        <v>pcs</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11" t="str">
+        <f>IF(COUNTIFS(ChargeLinks[whichdayFromDay],X7,ChargeLinks[OutputCombination],C$1)&gt;0,IF('Config and arguments'!AC5="","",_xlfn.CONCAT('Config and arguments'!AC5," 23:00:00")),"")</f>
+        <v>2023-02-02 23:00:00</v>
+      </c>
+      <c r="L7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","P1D")</f>
+        <v>P1D</v>
+      </c>
+      <c r="M7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$F$3)</f>
+        <v>production</v>
+      </c>
+      <c r="N7" s="12" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",IF($H$3="","",$H$3))</f>
+        <v/>
+      </c>
+      <c r="O7" s="12" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]]),",",".")))</f>
+        <v>20</v>
+      </c>
+      <c r="P7" s="12" t="str">
+        <f>IFERROR(SUBSTITUTE(SUBSTITUTE(OutPut1011[[#This Row],[price]],".",",")*SUBSTITUTE(OutPut1011[[#This Row],[quantity]],".",","),",","."),"")</f>
+        <v>20</v>
+      </c>
+      <c r="Q7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE))</f>
+        <v>false</v>
+      </c>
+      <c r="R7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$C$3)</f>
+        <v>fee-3</v>
+      </c>
+      <c r="S7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","fee")</f>
+        <v>fee</v>
+      </c>
+      <c r="T7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$D$3)</f>
+        <v>0000000000800</v>
+      </c>
+      <c r="U7" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","amount_per_charge")</f>
+        <v>amount_per_charge</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD7" s="6" t="str">
+        <v>fee-3--0000000000800--2000000000000--production--800</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$2)</f>
+        <v/>
+      </c>
+      <c r="C8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$5)</f>
+        <v/>
+      </c>
+      <c r="D8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$6)</f>
+        <v/>
+      </c>
+      <c r="E8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","IGNORED")</f>
+        <v/>
+      </c>
+      <c r="F8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",G$3)</f>
+        <v/>
+      </c>
+      <c r="G8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$E$3)</f>
+        <v/>
+      </c>
+      <c r="H8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",SUMIFS(ChargeLinks[Quantity_quantified],ChargeLinks[OutputCombination],C$1,ChargeLinks[whichdayFromDay],X8))</f>
+        <v/>
+      </c>
+      <c r="I8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","pcs")</f>
+        <v/>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11" t="str">
+        <f>IF(COUNTIFS(ChargeLinks[whichdayFromDay],X8,ChargeLinks[OutputCombination],C$1)&gt;0,IF('Config and arguments'!AC6="","",_xlfn.CONCAT('Config and arguments'!AC6," 23:00:00")),"")</f>
+        <v/>
+      </c>
+      <c r="L8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","P1D")</f>
+        <v/>
+      </c>
+      <c r="M8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$F$3)</f>
+        <v/>
+      </c>
+      <c r="N8" s="12" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",IF($H$3="","",$H$3))</f>
+        <v/>
+      </c>
+      <c r="O8" s="12" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]]),",",".")))</f>
+        <v/>
+      </c>
+      <c r="P8" s="12" t="str">
+        <f>IFERROR(SUBSTITUTE(SUBSTITUTE(OutPut1011[[#This Row],[price]],".",",")*SUBSTITUTE(OutPut1011[[#This Row],[quantity]],".",","),",","."),"")</f>
+        <v/>
+      </c>
+      <c r="Q8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="R8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$C$3)</f>
+        <v/>
+      </c>
+      <c r="S8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","fee")</f>
+        <v/>
+      </c>
+      <c r="T8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","",$D$3)</f>
+        <v/>
+      </c>
+      <c r="U8" s="11" t="str">
+        <f>IF(OutPut1011[[#This Row],[time]]="","","amount_per_charge")</f>
+        <v/>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+    </row>
+    <row r="24" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+    </row>
+    <row r="28" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="V30" s="9"/>
+      <c r="Y30" s="9"/>
+    </row>
+    <row r="31" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="V31" s="9"/>
+      <c r="Y31" s="9"/>
+    </row>
+    <row r="32" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Y32" s="9"/>
+    </row>
+    <row r="33" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Y33" s="9"/>
+    </row>
+    <row r="34" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Y34" s="9"/>
+    </row>
+    <row r="35" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Y35" s="9"/>
+    </row>
+    <row r="36" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Y36" s="9"/>
+    </row>
+    <row r="37" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Y37" s="9"/>
+    </row>
+    <row r="38" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Y38" s="9"/>
+    </row>
+    <row r="39" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Y39" s="9"/>
+    </row>
+    <row r="40" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Y40" s="9"/>
+    </row>
+    <row r="41" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Y41" s="9"/>
+    </row>
+    <row r="42" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Y42" s="9"/>
+    </row>
+    <row r="43" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Y43" s="9"/>
+    </row>
+    <row r="44" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Y44" s="9"/>
+    </row>
+    <row r="45" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Y45" s="9"/>
+    </row>
+    <row r="46" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Y46" s="9"/>
+    </row>
+    <row r="47" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Y47" s="9"/>
+    </row>
+    <row r="48" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Y48" s="9"/>
+    </row>
+    <row r="49" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Y49" s="9"/>
+    </row>
+    <row r="50" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Y50" s="9"/>
+    </row>
+    <row r="51" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Y51" s="9"/>
+    </row>
+    <row r="52" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Y52" s="9"/>
+    </row>
+    <row r="53" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Y53" s="9"/>
+    </row>
+    <row r="54" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Y54" s="9"/>
+    </row>
+    <row r="55" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Y55" s="9"/>
+    </row>
+    <row r="56" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Y56" s="9"/>
+    </row>
+    <row r="57" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Y57" s="9"/>
+    </row>
+    <row r="58" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="25"/>
+      <c r="Y58" s="9"/>
+    </row>
+    <row r="59" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="25"/>
+      <c r="Y59" s="9"/>
+    </row>
+    <row r="60" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="25"/>
+      <c r="Y60" s="9"/>
+    </row>
+    <row r="61" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="25"/>
+      <c r="Y61" s="9"/>
+    </row>
+    <row r="62" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="25"/>
+      <c r="Y62" s="9"/>
+    </row>
+    <row r="63" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="25"/>
+      <c r="Y63" s="9"/>
+    </row>
+    <row r="64" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="25"/>
+      <c r="Y64" s="9"/>
+    </row>
+    <row r="65" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="25"/>
+      <c r="Y65" s="9"/>
+    </row>
+    <row r="66" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="25"/>
+      <c r="Y66" s="9"/>
+    </row>
+    <row r="67" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="V67" s="9"/>
+      <c r="W67" s="9"/>
+      <c r="X67" s="25"/>
+      <c r="Y67" s="9"/>
+    </row>
+    <row r="68" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+    </row>
+    <row r="69" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+    </row>
+    <row r="70" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+    </row>
+    <row r="71" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+    </row>
+    <row r="72" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+    </row>
+    <row r="73" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+    </row>
+    <row r="74" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+    </row>
+    <row r="75" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+    </row>
+    <row r="76" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+    </row>
+    <row r="77" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+    </row>
+    <row r="78" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+    </row>
+    <row r="79" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+    </row>
+    <row r="80" spans="14:25" x14ac:dyDescent="0.35">
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+    </row>
+    <row r="81" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+    </row>
+    <row r="82" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+    </row>
+    <row r="83" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+    </row>
+    <row r="84" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+    </row>
+    <row r="85" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+    </row>
+    <row r="86" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+    </row>
+    <row r="87" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+    </row>
+    <row r="88" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+    </row>
+    <row r="89" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+    </row>
+    <row r="90" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+    </row>
+    <row r="91" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+    </row>
+    <row r="92" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+    </row>
+    <row r="93" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+    </row>
+    <row r="94" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+    </row>
+    <row r="95" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+    </row>
+    <row r="96" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+    </row>
+    <row r="97" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+    </row>
+    <row r="98" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+    </row>
+    <row r="99" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+    </row>
+    <row r="100" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{291C9C82-946C-4F70-B4B8-F453C4BF5243}">
+      <formula1>$AD$4:$AD$40</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390955F0-E63E-40F1-976B-0ECD4E3D9CAB}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.453125" customWidth="1"/>
+    <col min="7" max="7" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="7">
+        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
+        <v>20</v>
+      </c>
+      <c r="G2" s="8" t="str">
+        <f t="shared" ref="G2:G25" si="0">LEFT(E2,19)</f>
+        <v>2023-02-01 23:00:00</v>
+      </c>
+      <c r="H2" s="6" t="str">
+        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
+        <v>2023-02-01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="7">
+        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
+        <v>30</v>
+      </c>
+      <c r="G3" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02 23:00:00</v>
+      </c>
+      <c r="H3" s="6" t="str">
+        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
+        <v>2023-02-02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="7">
+        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
+        <v>30</v>
+      </c>
+      <c r="G4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02 23:00:00</v>
+      </c>
+      <c r="H4" s="6" t="str">
+        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
+        <v>2023-02-02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="7">
+        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
+        <v>20</v>
+      </c>
+      <c r="G5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02 23:00:00</v>
+      </c>
+      <c r="H5" s="6" t="str">
+        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
+        <v>2023-02-02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="7">
+        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
+        <v>0.90860200000000002</v>
+      </c>
+      <c r="G6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-01-31 23:00:00</v>
+      </c>
+      <c r="H6" s="6" t="str">
+        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
+        <v>2023-01-31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="7">
+        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-01-31 23:00:00</v>
+      </c>
+      <c r="H7" s="6" t="str">
+        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
+        <v>2023-01-31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="7">
+        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-01-31 23:00:00</v>
+      </c>
+      <c r="H8" s="6" t="str">
+        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
+        <v>2023-01-31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="7">
+        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
+        <v>10</v>
+      </c>
+      <c r="G9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01 02:00:00</v>
+      </c>
+      <c r="H9" s="6" t="str">
+        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
+        <v>2023-02-01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="7">
+        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
+        <v>10</v>
+      </c>
+      <c r="G10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-03 02:00:00</v>
+      </c>
+      <c r="H10" s="6" t="str">
+        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
+        <v>2023-02-03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="7">
+        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
+        <v>10</v>
+      </c>
+      <c r="G11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-03 02:00:00</v>
+      </c>
+      <c r="H11" s="6" t="str">
+        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
+        <v>2023-02-03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="7">
+        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
+        <v>7.6543210000000004</v>
+      </c>
+      <c r="G12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01 02:00:00</v>
+      </c>
+      <c r="H12" s="6" t="str">
+        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
+        <v>2023-02-01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="7">
+        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
+        <v>666.66666599999996</v>
+      </c>
+      <c r="G13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-01 02:00:00</v>
+      </c>
+      <c r="H13" s="6" t="str">
+        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
+        <v>2023-02-01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="7">
+        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
+        <v>1E-3</v>
+      </c>
+      <c r="G14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-01-31 23:00:00</v>
+      </c>
+      <c r="H14" s="6" t="str">
+        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
+        <v>2023-01-31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="7">
+        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-01-31 23:00:00</v>
+      </c>
+      <c r="H15" s="6" t="str">
+        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
+        <v>2023-01-31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="7">
+        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
+        <v>666.66666599999996</v>
+      </c>
+      <c r="G16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-02-02 23:00:00</v>
+      </c>
+      <c r="H16" s="6" t="str">
+        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
+        <v>2023-02-02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="7">
+        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
+        <v>10</v>
+      </c>
+      <c r="G17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-01-31 23:00:00</v>
+      </c>
+      <c r="H17" s="6" t="str">
+        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
+        <v>2023-01-31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="7" t="str">
+        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
+        <v/>
+      </c>
+      <c r="G18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H18" s="6" t="str">
+        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="7" t="str">
+        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
+        <v/>
+      </c>
+      <c r="G19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H19" s="6" t="str">
+        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="7" t="str">
+        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
+        <v/>
+      </c>
+      <c r="G20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H20" s="6" t="str">
+        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="7" t="str">
+        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
+        <v/>
+      </c>
+      <c r="G21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H21" s="6" t="str">
+        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="7" t="str">
+        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
+        <v/>
+      </c>
+      <c r="G22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H22" s="6" t="str">
+        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="7" t="str">
+        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
+        <v/>
+      </c>
+      <c r="G23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H23" s="6" t="str">
+        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="7" t="str">
+        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
+        <v/>
+      </c>
+      <c r="G24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H24" s="6" t="str">
+        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="7" t="str">
+        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
+        <v/>
+      </c>
+      <c r="G25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H25" s="6" t="str">
+        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8198E869-7DB3-49E5-B6F6-E519947E3917}">
   <dimension ref="B1:AD100"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="3"/>
     <col min="2" max="2" width="35" style="3" bestFit="1" customWidth="1"/>
@@ -3152,18 +5400,18 @@
     <col min="15" max="15" width="15.1796875" style="3" customWidth="1"/>
     <col min="16" max="16" width="17.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.54296875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="20.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="29.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="22.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="26.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="24.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.81640625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="21.81640625" style="6" customWidth="1"/>
     <col min="25" max="25" width="31.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="29.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="73.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="73.1796875" style="6" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="24.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="10.81640625" style="3" customWidth="1"/>
@@ -3177,12 +5425,12 @@
       <c r="B1" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.35">
       <c r="C3" s="6" t="str" cm="1">
@@ -3268,8 +5516,8 @@
         <v>87</v>
       </c>
       <c r="AD4" s="6" t="str" cm="1">
-        <f t="array" ref="AD4">_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(ChargeLinks[],(ChargeLinks[charge_type]="Tariff")*(ChargeLinks[Charge_resolution]="P1D")),,13))</f>
-        <v/>
+        <f t="array" ref="AD4:AD9">_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(ChargeLinks[],(ChargeLinks[charge_type]="Tariff")*(ChargeLinks[Charge_resolution]="P1D")),,16))</f>
+        <v>tariff-daily-1--0000000000800--3000000000000--consumption--800--non_profiled</v>
       </c>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.35">
@@ -3353,8 +5601,11 @@
         <f>IF(OutPut10[[#This Row],[time]]="","","amount_per_charge")</f>
         <v>amount_per_charge</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="X5" s="6" t="s">
         <v>164</v>
+      </c>
+      <c r="AD5" s="6" t="str">
+        <v>tariff-daily-3-co_is_tax--6660000000666--1000000000000--consumption_from_grid--800</v>
       </c>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.35">
@@ -3438,8 +5689,11 @@
         <f>IF(OutPut10[[#This Row],[time]]="","","amount_per_charge")</f>
         <v>amount_per_charge</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="X6" s="6" t="s">
         <v>165</v>
+      </c>
+      <c r="AD6" s="6" t="str">
+        <v>tariff-daily-4-co_is_not_tax--6660000000666--2000000000000--production--800</v>
       </c>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.35">
@@ -3523,8 +5777,11 @@
         <f>IF(OutPut10[[#This Row],[time]]="","","amount_per_charge")</f>
         <v>amount_per_charge</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="X7" s="6" t="s">
         <v>166</v>
+      </c>
+      <c r="AD7" s="6" t="str">
+        <v>tariff-daily-2--0000000000800--4000000000000--production--800</v>
       </c>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.35">
@@ -3608,14 +5865,20 @@
         <f>IF(OutPut10[[#This Row],[time]]="","","amount_per_charge")</f>
         <v/>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="X8" s="6" t="s">
         <v>167</v>
+      </c>
+      <c r="AD8" s="6" t="str">
+        <v>tariff-daily-2--0000000000800--2000000000000--own_production--800</v>
       </c>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.35">
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
+      <c r="AD9" s="6" t="str">
+        <v>tariff-daily-1--0000000000800--2000000000000--production--111</v>
+      </c>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.35">
       <c r="N10" s="5"/>
@@ -3893,7 +6156,7 @@
       <c r="P58" s="5"/>
       <c r="V58" s="9"/>
       <c r="W58" s="9"/>
-      <c r="X58" s="9"/>
+      <c r="X58" s="25"/>
       <c r="Y58" s="9"/>
     </row>
     <row r="59" spans="14:25" x14ac:dyDescent="0.35">
@@ -3902,7 +6165,7 @@
       <c r="P59" s="5"/>
       <c r="V59" s="9"/>
       <c r="W59" s="9"/>
-      <c r="X59" s="9"/>
+      <c r="X59" s="25"/>
       <c r="Y59" s="9"/>
     </row>
     <row r="60" spans="14:25" x14ac:dyDescent="0.35">
@@ -3911,7 +6174,7 @@
       <c r="P60" s="5"/>
       <c r="V60" s="9"/>
       <c r="W60" s="9"/>
-      <c r="X60" s="9"/>
+      <c r="X60" s="25"/>
       <c r="Y60" s="9"/>
     </row>
     <row r="61" spans="14:25" x14ac:dyDescent="0.35">
@@ -3920,7 +6183,7 @@
       <c r="P61" s="5"/>
       <c r="V61" s="9"/>
       <c r="W61" s="9"/>
-      <c r="X61" s="9"/>
+      <c r="X61" s="25"/>
       <c r="Y61" s="9"/>
     </row>
     <row r="62" spans="14:25" x14ac:dyDescent="0.35">
@@ -3929,7 +6192,7 @@
       <c r="P62" s="5"/>
       <c r="V62" s="9"/>
       <c r="W62" s="9"/>
-      <c r="X62" s="9"/>
+      <c r="X62" s="25"/>
       <c r="Y62" s="9"/>
     </row>
     <row r="63" spans="14:25" x14ac:dyDescent="0.35">
@@ -3938,7 +6201,7 @@
       <c r="P63" s="5"/>
       <c r="V63" s="9"/>
       <c r="W63" s="9"/>
-      <c r="X63" s="9"/>
+      <c r="X63" s="25"/>
       <c r="Y63" s="9"/>
     </row>
     <row r="64" spans="14:25" x14ac:dyDescent="0.35">
@@ -3947,7 +6210,7 @@
       <c r="P64" s="5"/>
       <c r="V64" s="9"/>
       <c r="W64" s="9"/>
-      <c r="X64" s="9"/>
+      <c r="X64" s="25"/>
       <c r="Y64" s="9"/>
     </row>
     <row r="65" spans="14:25" x14ac:dyDescent="0.35">
@@ -3956,7 +6219,7 @@
       <c r="P65" s="5"/>
       <c r="V65" s="9"/>
       <c r="W65" s="9"/>
-      <c r="X65" s="9"/>
+      <c r="X65" s="25"/>
       <c r="Y65" s="9"/>
     </row>
     <row r="66" spans="14:25" x14ac:dyDescent="0.35">
@@ -3965,7 +6228,7 @@
       <c r="P66" s="5"/>
       <c r="V66" s="9"/>
       <c r="W66" s="9"/>
-      <c r="X66" s="9"/>
+      <c r="X66" s="25"/>
       <c r="Y66" s="9"/>
     </row>
     <row r="67" spans="14:25" x14ac:dyDescent="0.35">
@@ -3974,7 +6237,7 @@
       <c r="P67" s="5"/>
       <c r="V67" s="9"/>
       <c r="W67" s="9"/>
-      <c r="X67" s="9"/>
+      <c r="X67" s="25"/>
       <c r="Y67" s="9"/>
     </row>
     <row r="68" spans="14:25" x14ac:dyDescent="0.35">
@@ -4160,15 +6423,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70CB6AB-141A-4E8A-8579-9357A3BEFD45}">
   <dimension ref="B1:AD100"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="3"/>
     <col min="2" max="2" width="35" style="3" bestFit="1" customWidth="1"/>
@@ -4187,7 +6450,7 @@
     <col min="15" max="15" width="15.1796875" style="3" customWidth="1"/>
     <col min="16" max="16" width="17.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.54296875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="20.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="29.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="22.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="26.7265625" style="3" bestFit="1" customWidth="1"/>
@@ -4198,7 +6461,7 @@
     <col min="27" max="27" width="22.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="73.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="73.1796875" style="6" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="24.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="10.81640625" style="3" customWidth="1"/>
@@ -4212,12 +6475,12 @@
       <c r="B1" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.35">
       <c r="C3" s="6" t="str" cm="1">
@@ -4302,8 +6565,8 @@
         <v>87</v>
       </c>
       <c r="AD4" s="6" t="str" cm="1">
-        <f t="array" ref="AD4">_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(ChargeLinks[],(ChargeLinks[charge_type]="Tariff")*(ChargeLinks[Charge_resolution]="PT1H")),,13))</f>
-        <v/>
+        <f t="array" ref="AD4:AD10">_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(ChargeLinks[],(ChargeLinks[charge_type]="Tariff")*(ChargeLinks[Charge_resolution]="PT1H")),,16))</f>
+        <v>tariff-hourly-1--0000000000800--3000000000000--consumption--800--non_profiled</v>
       </c>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.35">
@@ -4387,6 +6650,9 @@
         <f>IF(OutPut[[#This Row],[time]]="","","amount_per_charge")</f>
         <v>amount_per_charge</v>
       </c>
+      <c r="AD5" s="6" t="str">
+        <v>tariff-hourly-1--0000000000800--1000000000000--consumption--800--flex</v>
+      </c>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B6" s="15" t="str">
@@ -4469,6 +6735,9 @@
         <f>IF(OutPut[[#This Row],[time]]="","","amount_per_charge")</f>
         <v>amount_per_charge</v>
       </c>
+      <c r="AD6" s="6" t="str">
+        <v>tariff-hourly-2--0000000000800--1000000000000--consumption_from_grid--800</v>
+      </c>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B7" s="15" t="str">
@@ -4551,6 +6820,9 @@
         <f>IF(OutPut[[#This Row],[time]]="","","amount_per_charge")</f>
         <v>amount_per_charge</v>
       </c>
+      <c r="AD7" s="6" t="str">
+        <v>tariff-hourly-2--0000000000800--4000000000000--production--800</v>
+      </c>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B8" s="15" t="str">
@@ -4633,6 +6905,9 @@
         <f>IF(OutPut[[#This Row],[time]]="","","amount_per_charge")</f>
         <v>amount_per_charge</v>
       </c>
+      <c r="AD8" s="6" t="str">
+        <v>tariff-hourly-2--0000000000800--2000000000000--own_production--800</v>
+      </c>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B9" s="15" t="str">
@@ -4715,6 +6990,9 @@
         <f>IF(OutPut[[#This Row],[time]]="","","amount_per_charge")</f>
         <v>amount_per_charge</v>
       </c>
+      <c r="AD9" s="6" t="str">
+        <v>tariff-hourly-3--0000000000800--2000000000000--production--800</v>
+      </c>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B10" s="15" t="str">
@@ -4796,6 +7074,9 @@
       <c r="U10" s="15" t="str">
         <f>IF(OutPut[[#This Row],[time]]="","","amount_per_charge")</f>
         <v>amount_per_charge</v>
+      </c>
+      <c r="AD10" s="6" t="str">
+        <v>tariff-hourly-4-co_is_tax--6660000000666--1000000000000--consumption--800--flex</v>
       </c>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.35">
@@ -12322,26 +14603,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9301DE9B-2D41-4976-BCEB-AE00C6574AF0}">
   <dimension ref="A1:AC287"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AB19" sqref="AB19"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="50.453125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="10.6328125" style="3" customWidth="1"/>
+    <col min="4" max="8" width="10.54296875" style="3" customWidth="1"/>
     <col min="9" max="9" width="8.7265625" style="3"/>
     <col min="10" max="10" width="17.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="26" width="8.7265625" style="3"/>
     <col min="27" max="27" width="10.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="32.6328125" style="6" customWidth="1"/>
-    <col min="29" max="29" width="19.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="32.54296875" style="6" customWidth="1"/>
+    <col min="29" max="29" width="19.453125" style="6" bestFit="1" customWidth="1"/>
     <col min="30" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
@@ -14605,7 +16886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68540427-6C91-47D8-8C93-985527AE66E6}">
   <dimension ref="A1:L26"/>
   <sheetViews>
@@ -14624,7 +16905,7 @@
     <col min="8" max="8" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="17.7265625" customWidth="1"/>
-    <col min="12" max="12" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -15695,7 +17976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD10BE4-A7AA-4A04-94B3-3C11AFB3E44E}">
   <dimension ref="A1:M26"/>
   <sheetViews>
@@ -15714,7 +17995,7 @@
     <col min="7" max="7" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="42.26953125" customWidth="1"/>
     <col min="12" max="12" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.26953125" bestFit="1" customWidth="1"/>
@@ -16533,12 +18814,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0DBE91-61E8-4AF4-8F90-EB71E87C01CF}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16905,18 +19186,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388E8B59-85FB-47ED-807C-3BC947FE93AD}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C637E6-63E5-4A24-9C1A-400C0E8E9CFE}">
   <dimension ref="B1:AD100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="3"/>
-    <col min="2" max="2" width="35" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.81640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="31.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="3" bestFit="1" customWidth="1"/>
@@ -16927,23 +19208,23 @@
     <col min="10" max="10" width="20.7265625" style="3" customWidth="1"/>
     <col min="11" max="11" width="19" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="30.1796875" style="3" customWidth="1"/>
     <col min="15" max="15" width="15.1796875" style="3" customWidth="1"/>
     <col min="16" max="16" width="17.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.54296875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="20.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="29.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="22.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="26.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="24.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.81640625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="21.81640625" style="6" customWidth="1"/>
     <col min="25" max="25" width="31.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="29.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="73.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="73.1796875" style="6" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="24.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="10.81640625" style="3" customWidth="1"/>
@@ -16957,33 +19238,36 @@
       <c r="B1" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
+      <c r="C1" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="X1" s="3"/>
+    </row>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="X2" s="3"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.35">
       <c r="C3" s="6" t="str" cm="1">
-        <f t="array" ref="C3:H3">_xlfn.TEXTSPLIT(C1,"--")</f>
-        <v>fee-1</v>
+        <f t="array" ref="C3:G3">_xlfn.TEXTSPLIT(C1,"--")</f>
+        <v>subscription-1</v>
       </c>
       <c r="D3" s="6" t="str">
         <v>0000000000800</v>
       </c>
       <c r="E3" s="6" t="str">
-        <v>1000000000000</v>
+        <v>2000000000000</v>
       </c>
       <c r="F3" s="6" t="str">
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="G3" s="6" t="str">
-        <v>800</v>
-      </c>
-      <c r="H3" s="6" t="str">
-        <v>flex</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="X3" s="3"/>
       <c r="AD3" s="14" t="s">
         <v>71</v>
       </c>
@@ -17050,360 +19334,357 @@
         <v>87</v>
       </c>
       <c r="AD4" s="6" t="str" cm="1">
-        <f t="array" ref="AD4:AD6">_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[charge_type]="Fee"),,13))</f>
-        <v>Day2</v>
+        <f t="array" ref="AD4:AD9">_xlfn.UNIQUE(INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[charge_type]="Subscription"),,16))</f>
+        <v>subscription-1--0000000000800--1000000000000--consumption--800--flex</v>
       </c>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$2)</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",'Config and arguments'!C$2)</f>
         <v>0b15a420-9fc8-409a-a169-fbd49479d718</v>
       </c>
       <c r="C5" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$5)</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",'Config and arguments'!C$5)</f>
         <v>wholesale_fixing</v>
       </c>
       <c r="D5" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$6)</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",'Config and arguments'!C$6)</f>
         <v>2024-01-01 23:00:00</v>
       </c>
       <c r="E5" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","","IGNORED")</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","","IGNORED")</f>
         <v>IGNORED</v>
       </c>
       <c r="F5" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",G$3)</f>
-        <v>800</v>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",G$3)</f>
+        <v>111</v>
       </c>
       <c r="G5" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",$E$3)</f>
-        <v>1000000000000</v>
-      </c>
-      <c r="H5" s="11" cm="1">
-        <f t="array" ref="H5">IF(OutPut1011[[#This Row],[time]]="","",IFERROR(SUBSTITUTE(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X5))),",","."),0))</f>
-        <v>0</v>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",$E$3)</f>
+        <v>2000000000000</v>
+      </c>
+      <c r="H5" s="11">
+        <f>IF(OutPut101112[[#This Row],[time]]="","",SUMIF(ChargeLinks[OutputCombination],C$1,ChargeLinks[Quantity_quantified]))</f>
+        <v>2</v>
       </c>
       <c r="I5" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","","kWh")</f>
-        <v>kWh</v>
-      </c>
-      <c r="J5" s="11" t="str" cm="1">
-        <f t="array" ref="J5">IF(OutPut1011[[#This Row],[time]]="","",IFERROR(IF(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X5)))&gt;0,"['missing', 'measured']","'missing'"),"['missing]"))</f>
-        <v>['missing]</v>
-      </c>
+        <f>IF(OutPut101112[[#This Row],[time]]="","","pcs")</f>
+        <v>pcs</v>
+      </c>
+      <c r="J5" s="11"/>
       <c r="K5" s="11" t="str">
         <f>IF('Config and arguments'!AC3="","",_xlfn.CONCAT('Config and arguments'!AC3," 23:00:00"))</f>
         <v>2023-01-31 23:00:00</v>
       </c>
       <c r="L5" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","","P1D")</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","","P1D")</f>
         <v>P1D</v>
       </c>
       <c r="M5" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",$F$3)</f>
-        <v>consumption</v>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",$F$3)</f>
+        <v>production</v>
       </c>
       <c r="N5" s="12" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",IF($H$3="","",$H$3))</f>
-        <v>flex</v>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",IF($H$3="","",$H$3))</f>
+        <v/>
       </c>
       <c r="O5" s="12" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]]),",",".")))</f>
-        <v/>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",SUBSTITUTE(ROUND(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_code],OutPut101112[[#This Row],[charge_code]])/COUNTIF(OutPut101112[resolution],"P1D"),6),",","."))</f>
+        <v>0.302867</v>
       </c>
       <c r="P5" s="12" t="str">
-        <f>IFERROR(SUBSTITUTE(SUBSTITUTE(OutPut1011[[#This Row],[price]],".",",")*SUBSTITUTE(OutPut1011[[#This Row],[quantity]],".",","),",","."),"")</f>
-        <v/>
+        <f>IFERROR(SUBSTITUTE(SUBSTITUTE(OutPut101112[[#This Row],[price]],".",",")*SUBSTITUTE(OutPut101112[[#This Row],[quantity]],".",","),",","."),"")</f>
+        <v>0.605734</v>
       </c>
       <c r="Q5" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE))</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE))</f>
         <v>false</v>
       </c>
       <c r="R5" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",$C$3)</f>
-        <v>fee-1</v>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",$C$3)</f>
+        <v>subscription-1</v>
       </c>
       <c r="S5" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","","fee")</f>
-        <v>fee</v>
+        <f>IF(OutPut101112[[#This Row],[time]]="","","subscription")</f>
+        <v>subscription</v>
       </c>
       <c r="T5" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",$D$3)</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",$D$3)</f>
         <v>0000000000800</v>
       </c>
       <c r="U5" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","","amount_per_charge")</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","","amount_per_charge")</f>
         <v>amount_per_charge</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="X5" s="6" t="s">
         <v>164</v>
       </c>
       <c r="AD5" s="6" t="str">
-        <v>Day3</v>
+        <v>subscription-2--0000000000800--3000000000000--consumption--800--non_profiled</v>
       </c>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$2)</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",'Config and arguments'!C$2)</f>
         <v>0b15a420-9fc8-409a-a169-fbd49479d718</v>
       </c>
       <c r="C6" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$5)</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",'Config and arguments'!C$5)</f>
         <v>wholesale_fixing</v>
       </c>
       <c r="D6" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$6)</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",'Config and arguments'!C$6)</f>
         <v>2024-01-01 23:00:00</v>
       </c>
       <c r="E6" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","","IGNORED")</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","","IGNORED")</f>
         <v>IGNORED</v>
       </c>
       <c r="F6" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",G$3)</f>
-        <v>800</v>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",G$3)</f>
+        <v>111</v>
       </c>
       <c r="G6" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",$E$3)</f>
-        <v>1000000000000</v>
-      </c>
-      <c r="H6" s="11" cm="1">
-        <f t="array" ref="H6">IF(OutPut1011[[#This Row],[time]]="","",IFERROR(SUBSTITUTE(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X6))),",","."),0))</f>
-        <v>0</v>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",$E$3)</f>
+        <v>2000000000000</v>
+      </c>
+      <c r="H6" s="11">
+        <f>IF(OutPut101112[[#This Row],[time]]="","",SUMIF(ChargeLinks[OutputCombination],C$1,ChargeLinks[Quantity_quantified]))</f>
+        <v>2</v>
       </c>
       <c r="I6" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","","kWh")</f>
-        <v>kWh</v>
-      </c>
-      <c r="J6" s="11" t="str" cm="1">
-        <f t="array" ref="J6">IF(OutPut1011[[#This Row],[time]]="","",IFERROR(IF(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X6)))&gt;0,"['missing', 'measured']","'missing'"),"['missing]"))</f>
-        <v>['missing]</v>
-      </c>
+        <f>IF(OutPut101112[[#This Row],[time]]="","","pcs")</f>
+        <v>pcs</v>
+      </c>
+      <c r="J6" s="11"/>
       <c r="K6" s="11" t="str">
         <f>IF('Config and arguments'!AC4="","",_xlfn.CONCAT('Config and arguments'!AC4," 23:00:00"))</f>
         <v>2023-02-01 23:00:00</v>
       </c>
       <c r="L6" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","","P1D")</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","","P1D")</f>
         <v>P1D</v>
       </c>
       <c r="M6" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",$F$3)</f>
-        <v>consumption</v>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",$F$3)</f>
+        <v>production</v>
       </c>
       <c r="N6" s="12" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",IF($H$3="","",$H$3))</f>
-        <v>flex</v>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",IF($H$3="","",$H$3))</f>
+        <v/>
       </c>
       <c r="O6" s="12" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]]),",",".")))</f>
-        <v>20</v>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",SUBSTITUTE(ROUND(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_code],OutPut101112[[#This Row],[charge_code]])/COUNTIF(OutPut101112[resolution],"P1D"),6),",","."))</f>
+        <v>0.302867</v>
       </c>
       <c r="P6" s="12" t="str">
-        <f>IFERROR(SUBSTITUTE(SUBSTITUTE(OutPut1011[[#This Row],[price]],".",",")*SUBSTITUTE(OutPut1011[[#This Row],[quantity]],".",","),",","."),"")</f>
-        <v>0</v>
+        <f>IFERROR(SUBSTITUTE(SUBSTITUTE(OutPut101112[[#This Row],[price]],".",",")*SUBSTITUTE(OutPut101112[[#This Row],[quantity]],".",","),",","."),"")</f>
+        <v>0.605734</v>
       </c>
       <c r="Q6" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE))</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE))</f>
         <v>false</v>
       </c>
       <c r="R6" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",$C$3)</f>
-        <v>fee-1</v>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",$C$3)</f>
+        <v>subscription-1</v>
       </c>
       <c r="S6" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","","fee")</f>
-        <v>fee</v>
+        <f>IF(OutPut101112[[#This Row],[time]]="","","subscription")</f>
+        <v>subscription</v>
       </c>
       <c r="T6" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",$D$3)</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",$D$3)</f>
         <v>0000000000800</v>
       </c>
       <c r="U6" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","","amount_per_charge")</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","","amount_per_charge")</f>
         <v>amount_per_charge</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="X6" s="6" t="s">
         <v>165</v>
       </c>
       <c r="AD6" s="6" t="str">
-        <v/>
+        <v>subscription-2--0000000000800--2000000000000--production--800</v>
       </c>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$2)</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",'Config and arguments'!C$2)</f>
         <v>0b15a420-9fc8-409a-a169-fbd49479d718</v>
       </c>
       <c r="C7" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$5)</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",'Config and arguments'!C$5)</f>
         <v>wholesale_fixing</v>
       </c>
       <c r="D7" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$6)</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",'Config and arguments'!C$6)</f>
         <v>2024-01-01 23:00:00</v>
       </c>
       <c r="E7" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","","IGNORED")</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","","IGNORED")</f>
         <v>IGNORED</v>
       </c>
       <c r="F7" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",G$3)</f>
-        <v>800</v>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",G$3)</f>
+        <v>111</v>
       </c>
       <c r="G7" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",$E$3)</f>
-        <v>1000000000000</v>
-      </c>
-      <c r="H7" s="11" cm="1">
-        <f t="array" ref="H7">IF(OutPut1011[[#This Row],[time]]="","",IFERROR(SUBSTITUTE(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X7))),",","."),0))</f>
-        <v>0</v>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",$E$3)</f>
+        <v>2000000000000</v>
+      </c>
+      <c r="H7" s="11">
+        <f>IF(OutPut101112[[#This Row],[time]]="","",SUMIF(ChargeLinks[OutputCombination],C$1,ChargeLinks[Quantity_quantified]))</f>
+        <v>2</v>
       </c>
       <c r="I7" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","","kWh")</f>
-        <v>kWh</v>
-      </c>
-      <c r="J7" s="11" t="str" cm="1">
-        <f t="array" ref="J7">IF(OutPut1011[[#This Row],[time]]="","",IFERROR(IF(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X7)))&gt;0,"['missing', 'measured']","'missing'"),"['missing]"))</f>
-        <v>['missing]</v>
-      </c>
+        <f>IF(OutPut101112[[#This Row],[time]]="","","pcs")</f>
+        <v>pcs</v>
+      </c>
+      <c r="J7" s="11"/>
       <c r="K7" s="11" t="str">
         <f>IF('Config and arguments'!AC5="","",_xlfn.CONCAT('Config and arguments'!AC5," 23:00:00"))</f>
         <v>2023-02-02 23:00:00</v>
       </c>
       <c r="L7" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","","P1D")</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","","P1D")</f>
         <v>P1D</v>
       </c>
       <c r="M7" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",$F$3)</f>
-        <v>consumption</v>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",$F$3)</f>
+        <v>production</v>
       </c>
       <c r="N7" s="12" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",IF($H$3="","",$H$3))</f>
-        <v>flex</v>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",IF($H$3="","",$H$3))</f>
+        <v/>
       </c>
       <c r="O7" s="12" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]]),",",".")))</f>
-        <v>30</v>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",SUBSTITUTE(ROUND(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_code],OutPut101112[[#This Row],[charge_code]])/COUNTIF(OutPut101112[resolution],"P1D"),6),",","."))</f>
+        <v>0.302867</v>
       </c>
       <c r="P7" s="12" t="str">
-        <f>IFERROR(SUBSTITUTE(SUBSTITUTE(OutPut1011[[#This Row],[price]],".",",")*SUBSTITUTE(OutPut1011[[#This Row],[quantity]],".",","),",","."),"")</f>
-        <v>0</v>
+        <f>IFERROR(SUBSTITUTE(SUBSTITUTE(OutPut101112[[#This Row],[price]],".",",")*SUBSTITUTE(OutPut101112[[#This Row],[quantity]],".",","),",","."),"")</f>
+        <v>0.605734</v>
       </c>
       <c r="Q7" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE))</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE))</f>
         <v>false</v>
       </c>
       <c r="R7" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",$C$3)</f>
-        <v>fee-1</v>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",$C$3)</f>
+        <v>subscription-1</v>
       </c>
       <c r="S7" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","","fee")</f>
-        <v>fee</v>
+        <f>IF(OutPut101112[[#This Row],[time]]="","","subscription")</f>
+        <v>subscription</v>
       </c>
       <c r="T7" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",$D$3)</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",$D$3)</f>
         <v>0000000000800</v>
       </c>
       <c r="U7" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","","amount_per_charge")</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","","amount_per_charge")</f>
         <v>amount_per_charge</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="X7" s="6" t="s">
         <v>166</v>
+      </c>
+      <c r="AD7" s="6" t="str">
+        <v>subscription-3--0000000000800--2000000000000--own_production--800</v>
       </c>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B8" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$2)</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",'Config and arguments'!C$2)</f>
         <v/>
       </c>
       <c r="C8" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$5)</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",'Config and arguments'!C$5)</f>
         <v/>
       </c>
       <c r="D8" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",'Config and arguments'!C$6)</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",'Config and arguments'!C$6)</f>
         <v/>
       </c>
       <c r="E8" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","","IGNORED")</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","","IGNORED")</f>
         <v/>
       </c>
       <c r="F8" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",G$3)</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",G$3)</f>
         <v/>
       </c>
       <c r="G8" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",$E$3)</f>
-        <v/>
-      </c>
-      <c r="H8" s="11" t="str" cm="1">
-        <f t="array" ref="H8">IF(OutPut1011[[#This Row],[time]]="","",IFERROR(SUBSTITUTE(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X8))),",","."),0))</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",$E$3)</f>
+        <v/>
+      </c>
+      <c r="H8" s="11" t="str">
+        <f>IF(OutPut101112[[#This Row],[time]]="","",SUMIF(ChargeLinks[OutputCombination],C$1,ChargeLinks[Quantity_quantified]))</f>
         <v/>
       </c>
       <c r="I8" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","","kWh")</f>
-        <v/>
-      </c>
-      <c r="J8" s="11" t="str" cm="1">
-        <f t="array" ref="J8">IF(OutPut1011[[#This Row],[time]]="","",IFERROR(IF(SUM(_xlfn._xlws.FILTER(TimeSeriesPoints[quantity_quantified],ISNUMBER(MATCH(TimeSeriesPoints[metering_point_id],INDEX(_xlfn._xlws.FILTER(ChargeLinks[],ChargeLinks[OutputCombination]=C$1),,4),0))*(TimeSeriesPoints[whichday]=X8)))&gt;0,"['missing', 'measured']","'missing'"),"['missing]"))</f>
-        <v/>
-      </c>
+        <f>IF(OutPut101112[[#This Row],[time]]="","","pcs")</f>
+        <v/>
+      </c>
+      <c r="J8" s="11"/>
       <c r="K8" s="11" t="str">
         <f>IF('Config and arguments'!AC6="","",_xlfn.CONCAT('Config and arguments'!AC6," 23:00:00"))</f>
         <v/>
       </c>
       <c r="L8" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","","P1D")</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","","P1D")</f>
         <v/>
       </c>
       <c r="M8" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",$F$3)</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",$F$3)</f>
         <v/>
       </c>
       <c r="N8" s="12" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",IF($H$3="","",$H$3))</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",IF($H$3="","",$H$3))</f>
         <v/>
       </c>
       <c r="O8" s="12" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",IF(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_time_shortened],OutPut1011[[#This Row],[time]],ChargePricePoints[charge_code],OutPut1011[[#This Row],[charge_code]]),",",".")))</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",SUBSTITUTE(ROUND(SUMIFS(ChargePricePoints[charge_price_quantified],ChargePricePoints[charge_code],OutPut101112[[#This Row],[charge_code]])/COUNTIF(OutPut101112[resolution],"P1D"),6),",","."))</f>
         <v/>
       </c>
       <c r="P8" s="12" t="str">
-        <f>IFERROR(SUBSTITUTE(SUBSTITUTE(OutPut1011[[#This Row],[price]],".",",")*SUBSTITUTE(OutPut1011[[#This Row],[quantity]],".",","),",","."),"")</f>
+        <f>IFERROR(SUBSTITUTE(SUBSTITUTE(OutPut101112[[#This Row],[price]],".",",")*SUBSTITUTE(OutPut101112[[#This Row],[quantity]],".",","),",","."),"")</f>
         <v/>
       </c>
       <c r="Q8" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE))</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE))</f>
         <v/>
       </c>
       <c r="R8" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",$C$3)</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",$C$3)</f>
         <v/>
       </c>
       <c r="S8" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","","fee")</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","","subscription")</f>
         <v/>
       </c>
       <c r="T8" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","",$D$3)</f>
+        <f>IF(OutPut101112[[#This Row],[time]]="","",$D$3)</f>
         <v/>
       </c>
       <c r="U8" s="11" t="str">
-        <f>IF(OutPut1011[[#This Row],[time]]="","","amount_per_charge")</f>
-        <v/>
-      </c>
-      <c r="X8" s="3" t="s">
+        <f>IF(OutPut101112[[#This Row],[time]]="","","amount_per_charge")</f>
+        <v/>
+      </c>
+      <c r="X8" s="6" t="s">
         <v>167</v>
+      </c>
+      <c r="AD8" s="6" t="str">
+        <v>subscription-3--0000000000800--4000000000000--production--800</v>
       </c>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.35">
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
+      <c r="AD9" s="6" t="str">
+        <v>subscription-1--0000000000800--2000000000000--production--111</v>
+      </c>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.35">
       <c r="N10" s="5"/>
@@ -17681,7 +19962,7 @@
       <c r="P58" s="5"/>
       <c r="V58" s="9"/>
       <c r="W58" s="9"/>
-      <c r="X58" s="9"/>
+      <c r="X58" s="25"/>
       <c r="Y58" s="9"/>
     </row>
     <row r="59" spans="14:25" x14ac:dyDescent="0.35">
@@ -17690,7 +19971,7 @@
       <c r="P59" s="5"/>
       <c r="V59" s="9"/>
       <c r="W59" s="9"/>
-      <c r="X59" s="9"/>
+      <c r="X59" s="25"/>
       <c r="Y59" s="9"/>
     </row>
     <row r="60" spans="14:25" x14ac:dyDescent="0.35">
@@ -17699,7 +19980,7 @@
       <c r="P60" s="5"/>
       <c r="V60" s="9"/>
       <c r="W60" s="9"/>
-      <c r="X60" s="9"/>
+      <c r="X60" s="25"/>
       <c r="Y60" s="9"/>
     </row>
     <row r="61" spans="14:25" x14ac:dyDescent="0.35">
@@ -17708,7 +19989,7 @@
       <c r="P61" s="5"/>
       <c r="V61" s="9"/>
       <c r="W61" s="9"/>
-      <c r="X61" s="9"/>
+      <c r="X61" s="25"/>
       <c r="Y61" s="9"/>
     </row>
     <row r="62" spans="14:25" x14ac:dyDescent="0.35">
@@ -17717,7 +19998,7 @@
       <c r="P62" s="5"/>
       <c r="V62" s="9"/>
       <c r="W62" s="9"/>
-      <c r="X62" s="9"/>
+      <c r="X62" s="25"/>
       <c r="Y62" s="9"/>
     </row>
     <row r="63" spans="14:25" x14ac:dyDescent="0.35">
@@ -17726,7 +20007,7 @@
       <c r="P63" s="5"/>
       <c r="V63" s="9"/>
       <c r="W63" s="9"/>
-      <c r="X63" s="9"/>
+      <c r="X63" s="25"/>
       <c r="Y63" s="9"/>
     </row>
     <row r="64" spans="14:25" x14ac:dyDescent="0.35">
@@ -17735,7 +20016,7 @@
       <c r="P64" s="5"/>
       <c r="V64" s="9"/>
       <c r="W64" s="9"/>
-      <c r="X64" s="9"/>
+      <c r="X64" s="25"/>
       <c r="Y64" s="9"/>
     </row>
     <row r="65" spans="14:25" x14ac:dyDescent="0.35">
@@ -17744,7 +20025,7 @@
       <c r="P65" s="5"/>
       <c r="V65" s="9"/>
       <c r="W65" s="9"/>
-      <c r="X65" s="9"/>
+      <c r="X65" s="25"/>
       <c r="Y65" s="9"/>
     </row>
     <row r="66" spans="14:25" x14ac:dyDescent="0.35">
@@ -17753,7 +20034,7 @@
       <c r="P66" s="5"/>
       <c r="V66" s="9"/>
       <c r="W66" s="9"/>
-      <c r="X66" s="9"/>
+      <c r="X66" s="25"/>
       <c r="Y66" s="9"/>
     </row>
     <row r="67" spans="14:25" x14ac:dyDescent="0.35">
@@ -17762,7 +20043,7 @@
       <c r="P67" s="5"/>
       <c r="V67" s="9"/>
       <c r="W67" s="9"/>
-      <c r="X67" s="9"/>
+      <c r="X67" s="25"/>
       <c r="Y67" s="9"/>
     </row>
     <row r="68" spans="14:25" x14ac:dyDescent="0.35">
@@ -17935,7 +20216,7 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{291C9C82-946C-4F70-B4B8-F453C4BF5243}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{65E1318F-29FA-43E2-BAC2-B79F63DE091D}">
       <formula1>$AD$4:$AD$40</formula1>
     </dataValidation>
   </dataValidations>
@@ -17947,12 +20228,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A590646-6E43-4F6B-BCFA-A9C526C6DA6E}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17963,15 +20244,15 @@
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="17.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7265625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="19.54296875" customWidth="1"/>
-    <col min="15" max="15" width="87" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.7265625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="19.54296875" customWidth="1"/>
+    <col min="16" max="16" width="87" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -17996,84 +20277,75 @@
       <c r="H1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>172</v>
-      </c>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="H2" s="6" t="str">
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
-        <v>P1M</v>
+        <v/>
       </c>
       <c r="I2" s="6" t="str">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v/>
+      </c>
+      <c r="J2" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>1000000000000</v>
-      </c>
-      <c r="J2" s="6" t="str">
+        <v/>
+      </c>
+      <c r="K2" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
-      </c>
-      <c r="K2" s="6" t="str">
+        <v/>
+      </c>
+      <c r="L2" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>flex</v>
-      </c>
-      <c r="L2" s="6" t="str">
+        <v/>
+      </c>
+      <c r="M2" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z3:AB98,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB3:AB98,0),1),"")</f>
-        <v>Day1</v>
-      </c>
-      <c r="M2" s="6" t="str">
+        <v/>
+      </c>
+      <c r="N2" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z3:AB98,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB3:AB98,0),1),"")</f>
-        <v>Day2</v>
-      </c>
-      <c r="N2" s="6" t="str">
+        <v/>
+      </c>
+      <c r="O2" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
-        <v>800</v>
-      </c>
-      <c r="O2" s="6" t="str">
+        <v/>
+      </c>
+      <c r="P2" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>fee-1--0000000000800--1000000000000--consumption--800--flex</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>94</v>
       </c>
@@ -18090,47 +20362,51 @@
         <v>57</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H3" s="6" t="str">
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1M</v>
       </c>
-      <c r="I3" s="6" t="str">
+      <c r="I3" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v>1000000000000</v>
       </c>
-      <c r="J3" s="6" t="str">
+      <c r="K3" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>consumption</v>
       </c>
-      <c r="K3" s="6" t="str">
+      <c r="L3" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v>flex</v>
       </c>
-      <c r="L3" s="6" t="str">
+      <c r="M3" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z4:AB99,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB4:AB99,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N3" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z4:AB99,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB4:AB99,0),1),"")</f>
         <v>Day2</v>
       </c>
-      <c r="M3" s="6" t="str">
-        <f>IFERROR(INDEX('Config and arguments'!Z4:AB99,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB4:AB99,0),1),"")</f>
-        <v>Day3</v>
-      </c>
-      <c r="N3" s="6" t="str">
+      <c r="O3" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="O3" s="6" t="str">
+      <c r="P3" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>fee-1--0000000000800--1000000000000--consumption--800--flex</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
@@ -18139,51 +20415,55 @@
         <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>176</v>
+        <v>57</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="H4" s="6" t="str">
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1M</v>
       </c>
-      <c r="I4" s="6" t="str">
+      <c r="I4" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v>1000000000000</v>
       </c>
-      <c r="J4" s="6" t="str">
+      <c r="K4" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption_from_grid</v>
-      </c>
-      <c r="K4" s="6" t="str">
+        <v>consumption</v>
+      </c>
+      <c r="L4" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="L4" s="6" t="str">
+        <v>flex</v>
+      </c>
+      <c r="M4" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z5:AB100,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB5:AB100,0),1),"")</f>
+        <v>Day2</v>
+      </c>
+      <c r="N4" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z5:AB100,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB5:AB100,0),1),"")</f>
         <v>Day3</v>
       </c>
-      <c r="M4" s="6" t="str">
-        <f>IFERROR(INDEX('Config and arguments'!Z5:AB100,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB5:AB100,0),1),"")</f>
-        <v/>
-      </c>
-      <c r="N4" s="6" t="str">
+      <c r="O4" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="O4" s="6" t="str">
+      <c r="P4" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>fee-2--0000000000800--1000000000000--consumption_from_grid--800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+        <v>fee-1--0000000000800--1000000000000--consumption--800--flex</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>95</v>
       </c>
@@ -18194,13 +20474,13 @@
         <v>106</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>126</v>
@@ -18209,36 +20489,40 @@
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1M</v>
       </c>
-      <c r="I5" s="6" t="str">
+      <c r="I5" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J5" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>3000000000000</v>
-      </c>
-      <c r="J5" s="6" t="str">
+        <v>1000000000000</v>
+      </c>
+      <c r="K5" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
-      </c>
-      <c r="K5" s="6" t="str">
+        <v>consumption_from_grid</v>
+      </c>
+      <c r="L5" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>non_profiled</v>
-      </c>
-      <c r="L5" s="6" t="str">
+        <v/>
+      </c>
+      <c r="M5" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z6:AB101,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB6:AB101,0),1),"")</f>
         <v>Day3</v>
       </c>
-      <c r="M5" s="6" t="str">
+      <c r="N5" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z6:AB101,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB6:AB101,0),1),"")</f>
         <v/>
       </c>
-      <c r="N5" s="6" t="str">
+      <c r="O5" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="O5" s="6" t="str">
+      <c r="P5" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>fee-2--0000000000800--3000000000000--consumption--800--non_profiled</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <v>fee-2--0000000000800--1000000000000--consumption_from_grid--800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
@@ -18249,13 +20533,13 @@
         <v>106</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>126</v>
@@ -18264,38 +20548,42 @@
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1M</v>
       </c>
-      <c r="I6" s="6" t="str">
+      <c r="I6" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v>3000000000000</v>
       </c>
-      <c r="J6" s="6" t="str">
+      <c r="K6" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>consumption</v>
       </c>
-      <c r="K6" s="6" t="str">
+      <c r="L6" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v>non_profiled</v>
       </c>
-      <c r="L6" s="6" t="str">
+      <c r="M6" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z7:AB102,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB7:AB102,0),1),"")</f>
         <v>Day3</v>
       </c>
-      <c r="M6" s="6" t="str">
+      <c r="N6" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z7:AB102,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB7:AB102,0),1),"")</f>
         <v/>
       </c>
-      <c r="N6" s="6" t="str">
+      <c r="O6" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="O6" s="6" t="str">
+      <c r="P6" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>fee-2--0000000000800--3000000000000--consumption--800--non_profiled</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
@@ -18304,7 +20592,7 @@
         <v>106</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>57</v>
@@ -18313,42 +20601,46 @@
         <v>172</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="H7" s="6" t="str">
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1M</v>
       </c>
-      <c r="I7" s="6" t="str">
+      <c r="I7" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>2000000000000</v>
-      </c>
-      <c r="J7" s="6" t="str">
+        <v>3000000000000</v>
+      </c>
+      <c r="K7" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>production</v>
-      </c>
-      <c r="K7" s="6" t="str">
+        <v>consumption</v>
+      </c>
+      <c r="L7" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="L7" s="6" t="str">
+        <v>non_profiled</v>
+      </c>
+      <c r="M7" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z8:AB103,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB8:AB103,0),1),"")</f>
-        <v>Day2</v>
-      </c>
-      <c r="M7" s="6" t="str">
+        <v>Day3</v>
+      </c>
+      <c r="N7" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z8:AB103,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB8:AB103,0),1),"")</f>
-        <v>Day3</v>
-      </c>
-      <c r="N7" s="6" t="str">
+        <v/>
+      </c>
+      <c r="O7" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="O7" s="6" t="str">
+      <c r="P7" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>fee-3--0000000000800--2000000000000--production--800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+        <v>fee-2--0000000000800--3000000000000--consumption--800--non_profiled</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>96</v>
       </c>
@@ -18365,45 +20657,49 @@
         <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="H8" s="6" t="str">
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1M</v>
       </c>
-      <c r="I8" s="6" t="str">
+      <c r="I8" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v>2000000000000</v>
       </c>
-      <c r="J8" s="6" t="str">
+      <c r="K8" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>production</v>
       </c>
-      <c r="K8" s="6" t="str">
+      <c r="L8" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="L8" s="6" t="str">
+      <c r="M8" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z9:AB104,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB9:AB104,0),1),"")</f>
+        <v>Day2</v>
+      </c>
+      <c r="N8" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z9:AB104,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB9:AB104,0),1),"")</f>
         <v>Day3</v>
       </c>
-      <c r="M8" s="6" t="str">
-        <f>IFERROR(INDEX('Config and arguments'!Z9:AB104,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB9:AB104,0),1),"")</f>
-        <v/>
-      </c>
-      <c r="N8" s="6" t="str">
+      <c r="O8" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="O8" s="6" t="str">
+      <c r="P8" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>fee-3--0000000000800--2000000000000--production--800</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>96</v>
       </c>
@@ -18420,99 +20716,111 @@
         <v>57</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="H9" s="6" t="str">
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1M</v>
       </c>
-      <c r="I9" s="6" t="str">
+      <c r="I9" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v>2000000000000</v>
       </c>
-      <c r="J9" s="6" t="str">
+      <c r="K9" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>production</v>
       </c>
-      <c r="K9" s="6" t="str">
+      <c r="L9" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="L9" s="6" t="str">
+      <c r="M9" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z10:AB105,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB10:AB105,0),1),"")</f>
-        <v/>
-      </c>
-      <c r="M9" s="6" t="str">
+        <v>Day3</v>
+      </c>
+      <c r="N9" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z10:AB105,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB10:AB105,0),1),"")</f>
         <v/>
       </c>
-      <c r="N9" s="6" t="str">
+      <c r="O9" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="O9" s="6" t="str">
+      <c r="P9" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>fee-3--0000000000800--2000000000000--production--800</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>176</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>174</v>
+        <v>126</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="H10" s="6" t="str">
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1M</v>
       </c>
-      <c r="I10" s="6" t="str">
+      <c r="I10" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>1000000000000</v>
-      </c>
-      <c r="J10" s="6" t="str">
+        <v>2000000000000</v>
+      </c>
+      <c r="K10" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
-      </c>
-      <c r="K10" s="6" t="str">
+        <v>production</v>
+      </c>
+      <c r="L10" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>flex</v>
-      </c>
-      <c r="L10" s="6" t="str">
+        <v/>
+      </c>
+      <c r="M10" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z11:AB106,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB11:AB106,0),1),"")</f>
         <v/>
       </c>
-      <c r="M10" s="6" t="str">
+      <c r="N10" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z11:AB106,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB11:AB106,0),1),"")</f>
         <v/>
       </c>
-      <c r="N10" s="6" t="str">
+      <c r="O10" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="O10" s="6" t="str">
+      <c r="P10" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>subscription-1--0000000000800--1000000000000--consumption--800--flex</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+        <v>fee-3--0000000000800--2000000000000--production--800</v>
+      </c>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
@@ -18521,51 +20829,52 @@
         <v>106</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G11" s="2" t="s">
         <v>173</v>
       </c>
       <c r="H11" s="6" t="str">
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1M</v>
       </c>
-      <c r="I11" s="6" t="str">
+      <c r="I11" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J11" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>3000000000000</v>
-      </c>
-      <c r="J11" s="6" t="str">
+        <v>1000000000000</v>
+      </c>
+      <c r="K11" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>consumption</v>
       </c>
-      <c r="K11" s="6" t="str">
+      <c r="L11" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>non_profiled</v>
-      </c>
-      <c r="L11" s="6" t="str">
+        <v>flex</v>
+      </c>
+      <c r="M11" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z12:AB107,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB12:AB107,0),1),"")</f>
         <v/>
       </c>
-      <c r="M11" s="6" t="str">
+      <c r="N11" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z12:AB107,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB12:AB107,0),1),"")</f>
-        <v>Day3</v>
-      </c>
-      <c r="N11" s="6" t="str">
+        <v/>
+      </c>
+      <c r="O11" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="O11" s="6" t="str">
+      <c r="P11" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>subscription-2--0000000000800--3000000000000--consumption--800--non_profiled</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+        <v>subscription-1--0000000000800--1000000000000--consumption--800--flex</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>98</v>
       </c>
@@ -18576,48 +20885,52 @@
         <v>106</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H12" s="6" t="str">
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1M</v>
       </c>
-      <c r="I12" s="6" t="str">
+      <c r="I12" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J12" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v>3000000000000</v>
       </c>
-      <c r="J12" s="6" t="str">
+      <c r="K12" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>consumption</v>
       </c>
-      <c r="K12" s="6" t="str">
+      <c r="L12" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v>non_profiled</v>
       </c>
-      <c r="L12" s="6" t="str">
+      <c r="M12" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z13:AB108,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB13:AB108,0),1),"")</f>
         <v/>
       </c>
-      <c r="M12" s="6" t="str">
+      <c r="N12" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z13:AB108,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB13:AB108,0),1),"")</f>
         <v/>
       </c>
-      <c r="N12" s="6" t="str">
+      <c r="O12" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="O12" s="6" t="str">
+      <c r="P12" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>subscription-2--0000000000800--3000000000000--consumption--800--non_profiled</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>98</v>
       </c>
@@ -18628,50 +20941,54 @@
         <v>106</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H13" s="6" t="str">
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1M</v>
       </c>
-      <c r="I13" s="6" t="str">
+      <c r="I13" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>2000000000000</v>
-      </c>
-      <c r="J13" s="6" t="str">
+        <v>3000000000000</v>
+      </c>
+      <c r="K13" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>production</v>
-      </c>
-      <c r="K13" s="6" t="str">
+        <v>consumption</v>
+      </c>
+      <c r="L13" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="L13" s="6" t="str">
+        <v>non_profiled</v>
+      </c>
+      <c r="M13" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z14:AB109,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB14:AB109,0),1),"")</f>
         <v/>
       </c>
-      <c r="M13" s="6" t="str">
+      <c r="N13" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z14:AB109,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB14:AB109,0),1),"")</f>
         <v/>
       </c>
-      <c r="N13" s="6" t="str">
+      <c r="O13" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="O13" s="6" t="str">
+      <c r="P13" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>subscription-2--0000000000800--2000000000000--production--800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+        <v>subscription-2--0000000000800--3000000000000--consumption--800--non_profiled</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>15</v>
@@ -18680,7 +20997,7 @@
         <v>106</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>57</v>
@@ -18692,36 +21009,40 @@
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1M</v>
       </c>
-      <c r="I14" s="6" t="str">
+      <c r="I14" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v>2000000000000</v>
       </c>
-      <c r="J14" s="6" t="str">
+      <c r="K14" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>own_production</v>
-      </c>
-      <c r="K14" s="6" t="str">
+        <v>production</v>
+      </c>
+      <c r="L14" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="L14" s="6" t="str">
+      <c r="M14" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z15:AB110,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB15:AB110,0),1),"")</f>
-        <v>Day3</v>
-      </c>
-      <c r="M14" s="6" t="str">
+        <v/>
+      </c>
+      <c r="N14" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z15:AB110,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB15:AB110,0),1),"")</f>
         <v/>
       </c>
-      <c r="N14" s="6" t="str">
+      <c r="O14" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="O14" s="6" t="str">
+      <c r="P14" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>subscription-3--0000000000800--2000000000000--own_production--800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+        <v>subscription-2--0000000000800--2000000000000--production--800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>99</v>
       </c>
@@ -18732,100 +21053,108 @@
         <v>106</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H15" s="6" t="str">
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1M</v>
       </c>
-      <c r="I15" s="6" t="str">
+      <c r="I15" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="6" t="str">
+        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
+        <v>2000000000000</v>
+      </c>
+      <c r="K15" s="6" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
+        <v>own_production</v>
+      </c>
+      <c r="L15" s="6" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M15" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z16:AB111,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB16:AB111,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N15" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z16:AB111,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB16:AB111,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="O15" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
+        <v>800</v>
+      </c>
+      <c r="P15" s="6" t="str">
+        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
+        <v>subscription-3--0000000000800--2000000000000--own_production--800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" s="6" t="str">
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
+        <v>P1M</v>
+      </c>
+      <c r="I16" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v>4000000000000</v>
       </c>
-      <c r="J15" s="6" t="str">
+      <c r="K16" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>production</v>
       </c>
-      <c r="K15" s="6" t="str">
+      <c r="L16" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="L15" s="6" t="str">
-        <f>IFERROR(INDEX('Config and arguments'!Z16:AB111,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB16:AB111,0),1),"")</f>
-        <v/>
-      </c>
-      <c r="M15" s="6" t="str">
-        <f>IFERROR(INDEX('Config and arguments'!Z16:AB111,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB16:AB111,0),1),"")</f>
-        <v/>
-      </c>
-      <c r="N15" s="6" t="str">
+      <c r="M16" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z17:AB112,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB17:AB112,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N16" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z17:AB112,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB17:AB112,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="O16" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="O15" s="6" t="str">
+      <c r="P16" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>subscription-3--0000000000800--4000000000000--production--800</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H16" s="6" t="str">
-        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
-        <v>PT1H</v>
-      </c>
-      <c r="I16" s="6" t="str">
-        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>3000000000000</v>
-      </c>
-      <c r="J16" s="6" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
-      </c>
-      <c r="K16" s="6" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>non_profiled</v>
-      </c>
-      <c r="L16" s="6" t="str">
-        <f>IFERROR(INDEX('Config and arguments'!Z17:AB112,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB17:AB112,0),1),"")</f>
-        <v/>
-      </c>
-      <c r="M16" s="6" t="str">
-        <f>IFERROR(INDEX('Config and arguments'!Z17:AB112,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB17:AB112,0),1),"")</f>
-        <v/>
-      </c>
-      <c r="N16" s="6" t="str">
-        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
-        <v>800</v>
-      </c>
-      <c r="O16" s="6" t="str">
-        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-hourly-1--0000000000800--3000000000000--consumption--800--non_profiled</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>100</v>
       </c>
@@ -18836,48 +21165,52 @@
         <v>106</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H17" s="6" t="str">
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>PT1H</v>
       </c>
-      <c r="I17" s="6" t="str">
+      <c r="I17" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v>3000000000000</v>
       </c>
-      <c r="J17" s="6" t="str">
+      <c r="K17" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>consumption</v>
       </c>
-      <c r="K17" s="6" t="str">
+      <c r="L17" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v>non_profiled</v>
       </c>
-      <c r="L17" s="6" t="str">
+      <c r="M17" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z18:AB113,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB18:AB113,0),1),"")</f>
         <v/>
       </c>
-      <c r="M17" s="6" t="str">
+      <c r="N17" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z18:AB113,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB18:AB113,0),1),"")</f>
         <v/>
       </c>
-      <c r="N17" s="6" t="str">
+      <c r="O17" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="O17" s="6" t="str">
+      <c r="P17" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>tariff-hourly-1--0000000000800--3000000000000--consumption--800--non_profiled</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>100</v>
       </c>
@@ -18888,48 +21221,52 @@
         <v>106</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H18" s="6" t="str">
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>PT1H</v>
       </c>
-      <c r="I18" s="6" t="str">
+      <c r="I18" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J18" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>1000000000000</v>
-      </c>
-      <c r="J18" s="6" t="str">
+        <v>3000000000000</v>
+      </c>
+      <c r="K18" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>consumption</v>
       </c>
-      <c r="K18" s="6" t="str">
+      <c r="L18" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>flex</v>
-      </c>
-      <c r="L18" s="6" t="str">
+        <v>non_profiled</v>
+      </c>
+      <c r="M18" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z19:AB114,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB19:AB114,0),1),"")</f>
         <v/>
       </c>
-      <c r="M18" s="6" t="str">
+      <c r="N18" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z19:AB114,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB19:AB114,0),1),"")</f>
         <v/>
       </c>
-      <c r="N18" s="6" t="str">
+      <c r="O18" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="O18" s="6" t="str">
+      <c r="P18" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-hourly-1--0000000000800--1000000000000--consumption--800--flex</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+        <v>tariff-hourly-1--0000000000800--3000000000000--consumption--800--non_profiled</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>100</v>
       </c>
@@ -18940,50 +21277,54 @@
         <v>106</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H19" s="6" t="str">
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>PT1H</v>
       </c>
-      <c r="I19" s="6" t="str">
+      <c r="I19" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v>1000000000000</v>
       </c>
-      <c r="J19" s="6" t="str">
+      <c r="K19" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>consumption</v>
       </c>
-      <c r="K19" s="6" t="str">
+      <c r="L19" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v>flex</v>
       </c>
-      <c r="L19" s="6" t="str">
+      <c r="M19" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z20:AB115,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB20:AB115,0),1),"")</f>
         <v/>
       </c>
-      <c r="M19" s="6" t="str">
+      <c r="N19" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z20:AB115,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB20:AB115,0),1),"")</f>
         <v/>
       </c>
-      <c r="N19" s="6" t="str">
+      <c r="O19" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="O19" s="6" t="str">
+      <c r="P19" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>tariff-hourly-1--0000000000800--1000000000000--consumption--800--flex</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>2</v>
@@ -18992,48 +21333,52 @@
         <v>106</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H20" s="6" t="str">
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>PT1H</v>
       </c>
-      <c r="I20" s="6" t="str">
+      <c r="I20" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v>1000000000000</v>
       </c>
-      <c r="J20" s="6" t="str">
+      <c r="K20" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption_from_grid</v>
-      </c>
-      <c r="K20" s="6" t="str">
+        <v>consumption</v>
+      </c>
+      <c r="L20" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="L20" s="6" t="str">
+        <v>flex</v>
+      </c>
+      <c r="M20" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z21:AB116,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB21:AB116,0),1),"")</f>
         <v/>
       </c>
-      <c r="M20" s="6" t="str">
+      <c r="N20" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z21:AB116,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB21:AB116,0),1),"")</f>
         <v/>
       </c>
-      <c r="N20" s="6" t="str">
+      <c r="O20" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="O20" s="6" t="str">
+      <c r="P20" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-hourly-2--0000000000800--1000000000000--consumption_from_grid--800</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+        <v>tariff-hourly-1--0000000000800--1000000000000--consumption--800--flex</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>101</v>
       </c>
@@ -19044,48 +21389,52 @@
         <v>106</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H21" s="6" t="str">
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>PT1H</v>
       </c>
-      <c r="I21" s="6" t="str">
+      <c r="I21" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>4000000000000</v>
-      </c>
-      <c r="J21" s="6" t="str">
+        <v>1000000000000</v>
+      </c>
+      <c r="K21" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>production</v>
-      </c>
-      <c r="K21" s="6" t="str">
+        <v>consumption_from_grid</v>
+      </c>
+      <c r="L21" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="L21" s="6" t="str">
+      <c r="M21" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z22:AB117,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB22:AB117,0),1),"")</f>
         <v/>
       </c>
-      <c r="M21" s="6" t="str">
+      <c r="N21" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z22:AB117,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB22:AB117,0),1),"")</f>
         <v/>
       </c>
-      <c r="N21" s="6" t="str">
+      <c r="O21" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="O21" s="6" t="str">
+      <c r="P21" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-hourly-2--0000000000800--4000000000000--production--800</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+        <v>tariff-hourly-2--0000000000800--1000000000000--consumption_from_grid--800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>101</v>
       </c>
@@ -19096,50 +21445,54 @@
         <v>106</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H22" s="6" t="str">
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>PT1H</v>
       </c>
-      <c r="I22" s="6" t="str">
+      <c r="I22" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>2000000000000</v>
-      </c>
-      <c r="J22" s="6" t="str">
+        <v>4000000000000</v>
+      </c>
+      <c r="K22" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>own_production</v>
-      </c>
-      <c r="K22" s="6" t="str">
+        <v>production</v>
+      </c>
+      <c r="L22" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="L22" s="6" t="str">
+      <c r="M22" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z23:AB118,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB23:AB118,0),1),"")</f>
         <v/>
       </c>
-      <c r="M22" s="6" t="str">
+      <c r="N22" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z23:AB118,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB23:AB118,0),1),"")</f>
         <v/>
       </c>
-      <c r="N22" s="6" t="str">
+      <c r="O22" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="O22" s="6" t="str">
+      <c r="P22" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-hourly-2--0000000000800--2000000000000--own_production--800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+        <v>tariff-hourly-2--0000000000800--4000000000000--production--800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>2</v>
@@ -19148,48 +21501,52 @@
         <v>106</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H23" s="6" t="str">
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>PT1H</v>
       </c>
-      <c r="I23" s="6" t="str">
+      <c r="I23" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v>2000000000000</v>
       </c>
-      <c r="J23" s="6" t="str">
+      <c r="K23" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>production</v>
-      </c>
-      <c r="K23" s="6" t="str">
+        <v>own_production</v>
+      </c>
+      <c r="L23" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="L23" s="6" t="str">
+      <c r="M23" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z24:AB119,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB24:AB119,0),1),"")</f>
         <v/>
       </c>
-      <c r="M23" s="6" t="str">
+      <c r="N23" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z24:AB119,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB24:AB119,0),1),"")</f>
         <v/>
       </c>
-      <c r="N23" s="6" t="str">
+      <c r="O23" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="O23" s="6" t="str">
+      <c r="P23" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-hourly-3--0000000000800--2000000000000--production--800</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+        <v>tariff-hourly-2--0000000000800--2000000000000--own_production--800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>102</v>
       </c>
@@ -19200,152 +21557,164 @@
         <v>106</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H24" s="6" t="str">
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>PT1H</v>
       </c>
-      <c r="I24" s="6" t="str">
+      <c r="I24" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J24" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v>2000000000000</v>
       </c>
-      <c r="J24" s="6" t="str">
+      <c r="K24" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>production</v>
       </c>
-      <c r="K24" s="6" t="str">
+      <c r="L24" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="L24" s="6" t="str">
+      <c r="M24" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z25:AB120,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB25:AB120,0),1),"")</f>
         <v/>
       </c>
-      <c r="M24" s="6" t="str">
+      <c r="N24" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z25:AB120,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB25:AB120,0),1),"")</f>
         <v/>
       </c>
-      <c r="N24" s="6" t="str">
+      <c r="O24" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="O24" s="6" t="str">
+      <c r="P24" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>tariff-hourly-3--0000000000800--2000000000000--production--800</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H25" s="6" t="str">
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>PT1H</v>
       </c>
-      <c r="I25" s="6" t="str">
+      <c r="I25" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J25" s="6" t="str">
+        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
+        <v>2000000000000</v>
+      </c>
+      <c r="K25" s="6" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
+        <v>production</v>
+      </c>
+      <c r="L25" s="6" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M25" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z26:AB121,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB26:AB121,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N25" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z26:AB121,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB26:AB121,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="O25" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
+        <v>800</v>
+      </c>
+      <c r="P25" s="6" t="str">
+        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
+        <v>tariff-hourly-3--0000000000800--2000000000000--production--800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H26" s="6" t="str">
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
+        <v>PT1H</v>
+      </c>
+      <c r="I26" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J26" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v>1000000000000</v>
       </c>
-      <c r="J25" s="6" t="str">
+      <c r="K26" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>consumption</v>
       </c>
-      <c r="K25" s="6" t="str">
+      <c r="L26" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v>flex</v>
       </c>
-      <c r="L25" s="6" t="str">
-        <f>IFERROR(INDEX('Config and arguments'!Z26:AB121,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB26:AB121,0),1),"")</f>
-        <v/>
-      </c>
-      <c r="M25" s="6" t="str">
-        <f>IFERROR(INDEX('Config and arguments'!Z26:AB121,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB26:AB121,0),1),"")</f>
-        <v/>
-      </c>
-      <c r="N25" s="6" t="str">
+      <c r="M26" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z27:AB122,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB27:AB122,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N26" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z27:AB122,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB27:AB122,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="O26" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="O25" s="6" t="str">
+      <c r="P26" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>tariff-hourly-4-co_is_tax--6660000000666--1000000000000--consumption--800--flex</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H26" s="6" t="str">
-        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
-        <v>P1D</v>
-      </c>
-      <c r="I26" s="6" t="str">
-        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>3000000000000</v>
-      </c>
-      <c r="J26" s="6" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
-      </c>
-      <c r="K26" s="6" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>non_profiled</v>
-      </c>
-      <c r="L26" s="6" t="str">
-        <f>IFERROR(INDEX('Config and arguments'!Z27:AB122,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB27:AB122,0),1),"")</f>
-        <v/>
-      </c>
-      <c r="M26" s="6" t="str">
-        <f>IFERROR(INDEX('Config and arguments'!Z27:AB122,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB27:AB122,0),1),"")</f>
-        <v/>
-      </c>
-      <c r="N26" s="6" t="str">
-        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
-        <v>800</v>
-      </c>
-      <c r="O26" s="6" t="str">
-        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-daily-1--0000000000800--3000000000000--consumption--800--non_profiled</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>103</v>
       </c>
@@ -19356,102 +21725,110 @@
         <v>106</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H27" s="6" t="str">
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1D</v>
       </c>
-      <c r="I27" s="6" t="str">
+      <c r="I27" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v>3000000000000</v>
       </c>
-      <c r="J27" s="6" t="str">
+      <c r="K27" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>consumption</v>
       </c>
-      <c r="K27" s="6" t="str">
+      <c r="L27" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v>non_profiled</v>
       </c>
-      <c r="L27" s="6" t="str">
+      <c r="M27" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z28:AB123,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB28:AB123,0),1),"")</f>
         <v/>
       </c>
-      <c r="M27" s="6" t="str">
+      <c r="N27" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z28:AB123,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB28:AB123,0),1),"")</f>
         <v/>
       </c>
-      <c r="N27" s="6" t="str">
+      <c r="O27" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="O27" s="6" t="str">
+      <c r="P27" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>tariff-daily-1--0000000000800--3000000000000--consumption--800--non_profiled</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H28" s="6" t="str">
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1D</v>
       </c>
-      <c r="I28" s="6" t="str">
+      <c r="I28" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J28" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>1000000000000</v>
-      </c>
-      <c r="J28" s="6" t="str">
+        <v>3000000000000</v>
+      </c>
+      <c r="K28" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption_from_grid</v>
-      </c>
-      <c r="K28" s="6" t="str">
+        <v>consumption</v>
+      </c>
+      <c r="L28" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="L28" s="6" t="str">
+        <v>non_profiled</v>
+      </c>
+      <c r="M28" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z29:AB124,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB29:AB124,0),1),"")</f>
         <v/>
       </c>
-      <c r="M28" s="6" t="str">
+      <c r="N28" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z29:AB124,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB29:AB124,0),1),"")</f>
         <v/>
       </c>
-      <c r="N28" s="6" t="str">
+      <c r="O28" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="O28" s="6" t="str">
+      <c r="P28" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-daily-3-co_is_tax--6660000000666--1000000000000--consumption_from_grid--800</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+        <v>tariff-daily-1--0000000000800--3000000000000--consumption--800--non_profiled</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>2</v>
@@ -19460,100 +21837,108 @@
         <v>82</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H29" s="6" t="str">
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1D</v>
       </c>
-      <c r="I29" s="6" t="str">
+      <c r="I29" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J29" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>2000000000000</v>
-      </c>
-      <c r="J29" s="6" t="str">
+        <v>1000000000000</v>
+      </c>
+      <c r="K29" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>production</v>
-      </c>
-      <c r="K29" s="6" t="str">
+        <v>consumption_from_grid</v>
+      </c>
+      <c r="L29" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="L29" s="6" t="str">
+      <c r="M29" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z30:AB125,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB30:AB125,0),1),"")</f>
         <v/>
       </c>
-      <c r="M29" s="6" t="str">
+      <c r="N29" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z30:AB125,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB30:AB125,0),1),"")</f>
         <v/>
       </c>
-      <c r="N29" s="6" t="str">
+      <c r="O29" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="O29" s="6" t="str">
+      <c r="P29" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-daily-4-co_is_not_tax--6660000000666--2000000000000--production--800</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+        <v>tariff-daily-3-co_is_tax--6660000000666--1000000000000--consumption_from_grid--800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H30" s="6" t="str">
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1D</v>
       </c>
-      <c r="I30" s="6" t="str">
+      <c r="I30" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J30" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>4000000000000</v>
-      </c>
-      <c r="J30" s="6" t="str">
+        <v>2000000000000</v>
+      </c>
+      <c r="K30" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>production</v>
       </c>
-      <c r="K30" s="6" t="str">
+      <c r="L30" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="L30" s="6" t="str">
+      <c r="M30" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z31:AB126,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB31:AB126,0),1),"")</f>
         <v/>
       </c>
-      <c r="M30" s="6" t="str">
+      <c r="N30" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z31:AB126,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB31:AB126,0),1),"")</f>
         <v/>
       </c>
-      <c r="N30" s="6" t="str">
+      <c r="O30" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="O30" s="6" t="str">
+      <c r="P30" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-daily-2--0000000000800--4000000000000--production--800</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+        <v>tariff-daily-4-co_is_not_tax--6660000000666--2000000000000--production--800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>104</v>
       </c>
@@ -19564,50 +21949,54 @@
         <v>106</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H31" s="6" t="str">
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1D</v>
       </c>
-      <c r="I31" s="6" t="str">
+      <c r="I31" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J31" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>2000000000000</v>
-      </c>
-      <c r="J31" s="6" t="str">
+        <v>4000000000000</v>
+      </c>
+      <c r="K31" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>own_production</v>
-      </c>
-      <c r="K31" s="6" t="str">
+        <v>production</v>
+      </c>
+      <c r="L31" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="L31" s="6" t="str">
+      <c r="M31" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z32:AB127,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB32:AB127,0),1),"")</f>
         <v/>
       </c>
-      <c r="M31" s="6" t="str">
+      <c r="N31" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z32:AB127,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB32:AB127,0),1),"")</f>
         <v/>
       </c>
-      <c r="N31" s="6" t="str">
+      <c r="O31" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>800</v>
       </c>
-      <c r="O31" s="6" t="str">
+      <c r="P31" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-daily-2--0000000000800--2000000000000--own_production--800</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+        <v>tariff-daily-2--0000000000800--4000000000000--production--800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>2</v>
@@ -19616,139 +22005,164 @@
         <v>106</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H32" s="6" t="str">
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1D</v>
       </c>
-      <c r="I32" s="6" t="str">
+      <c r="I32" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J32" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v>2000000000000</v>
       </c>
-      <c r="J32" s="6" t="str">
+      <c r="K32" s="6" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
+        <v>own_production</v>
+      </c>
+      <c r="L32" s="6" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M32" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z33:AB128,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB33:AB128,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N32" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z33:AB128,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB33:AB128,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="O32" s="6" t="str">
+        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
+        <v>800</v>
+      </c>
+      <c r="P32" s="6" t="str">
+        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
+        <v>tariff-daily-2--0000000000800--2000000000000--own_production--800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H33" s="6" t="str">
+        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
+        <v>P1D</v>
+      </c>
+      <c r="I33" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J33" s="6" t="str">
+        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
+        <v>2000000000000</v>
+      </c>
+      <c r="K33" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>production</v>
       </c>
-      <c r="K32" s="6" t="str">
+      <c r="L33" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="L32" s="6" t="str">
-        <f>IFERROR(INDEX('Config and arguments'!Z33:AB128,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB33:AB128,0),1),"")</f>
-        <v/>
-      </c>
-      <c r="M32" s="6" t="str">
-        <f>IFERROR(INDEX('Config and arguments'!Z33:AB128,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB33:AB128,0),1),"")</f>
-        <v/>
-      </c>
-      <c r="N32" s="6" t="str">
+      <c r="M33" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z34:AB129,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB34:AB129,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N33" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z34:AB129,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB34:AB129,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="O33" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>111</v>
       </c>
-      <c r="O32" s="6" t="str">
+      <c r="P33" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>tariff-daily-1--0000000000800--2000000000000--production--111</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H33" s="6" t="str">
+      <c r="F34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H34" s="6" t="str">
         <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
         <v>P1M</v>
       </c>
-      <c r="I33" s="6" t="str">
+      <c r="I34" s="6">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v>2</v>
+      </c>
+      <c r="J34" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v>2000000000000</v>
       </c>
-      <c r="J33" s="6" t="str">
+      <c r="K34" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v>production</v>
       </c>
-      <c r="K33" s="6" t="str">
+      <c r="L34" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="L33" s="6" t="str">
-        <f>IFERROR(INDEX('Config and arguments'!Z34:AB129,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB34:AB129,0),1),"")</f>
-        <v/>
-      </c>
-      <c r="M33" s="6" t="str">
-        <f>IFERROR(INDEX('Config and arguments'!Z34:AB129,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB34:AB129,0),1),"")</f>
-        <v/>
-      </c>
-      <c r="N33" s="6" t="str">
+      <c r="M34" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z35:AB130,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB35:AB130,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="N34" s="6" t="str">
+        <f>IFERROR(INDEX('Config and arguments'!Z35:AB130,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB35:AB130,0),1),"")</f>
+        <v/>
+      </c>
+      <c r="O34" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v>111</v>
       </c>
-      <c r="O33" s="6" t="str">
+      <c r="P34" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v>subscription-1--0000000000800--2000000000000--production--111</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="H34" s="6" t="str">
-        <f>IFERROR(INDEX(ChargePriceInformationPeriods[],MATCH(ChargeLinks[[#This Row],[charge_code]],ChargePriceInformationPeriods[charge_code],0),4),"")</f>
-        <v/>
-      </c>
-      <c r="I34" s="6" t="str">
-        <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v/>
-      </c>
-      <c r="J34" s="6" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K34" s="6" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="L34" s="6" t="str">
-        <f>IFERROR(INDEX('Config and arguments'!Z35:AB130,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB35:AB130,0),1),"")</f>
-        <v/>
-      </c>
-      <c r="M34" s="6" t="str">
-        <f>IFERROR(INDEX('Config and arguments'!Z35:AB130,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB35:AB130,0),1),"")</f>
-        <v/>
-      </c>
-      <c r="N34" s="6" t="str">
-        <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
-        <v/>
-      </c>
-      <c r="O34" s="6" t="str">
-        <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -19759,689 +22173,40 @@
         <v/>
       </c>
       <c r="I35" s="6" t="str">
+        <f>IF(ChargeLinks[[#This Row],[quantity]]="","",VALUE(ChargeLinks[[#This Row],[quantity]]))</f>
+        <v/>
+      </c>
+      <c r="J35" s="6" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
         <v/>
       </c>
-      <c r="J35" s="6" t="str">
+      <c r="K35" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="K35" s="6" t="str">
+      <c r="L35" s="6" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="L35" s="6" t="str">
+      <c r="M35" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z36:AB131,MATCH(ChargeLinks[[#This Row],[from_date]],'Config and arguments'!AB36:AB131,0),1),"")</f>
         <v/>
       </c>
-      <c r="M35" s="6" t="str">
+      <c r="N35" s="6" t="str">
         <f>IFERROR(INDEX('Config and arguments'!Z36:AB131,MATCH(ChargeLinks[[#This Row],[to_date]],'Config and arguments'!AB36:AB131,0),1),"")</f>
         <v/>
       </c>
-      <c r="N35" s="6" t="str">
+      <c r="O35" s="6" t="str">
         <f>IFERROR(INDEX(MeteringPointPeriods[],MATCH(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[metering_point_id],0),5),"")</f>
         <v/>
       </c>
-      <c r="O35" s="6" t="str">
+      <c r="P35" s="6" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[ga]],ChargeLinks[[#This Row],[settlement_method]])</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390955F0-E63E-40F1-976B-0ECD4E3D9CAB}">
-  <dimension ref="A1:H25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" customWidth="1"/>
-    <col min="7" max="7" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="7">
-        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
-        <v>20</v>
-      </c>
-      <c r="G2" s="8" t="str">
-        <f t="shared" ref="G2:G25" si="0">LEFT(E2,19)</f>
-        <v>2023-02-01 23:00:00</v>
-      </c>
-      <c r="H2" s="6" t="str">
-        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
-        <v>2023-02-01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="7">
-        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
-        <v>30</v>
-      </c>
-      <c r="G3" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-02-02 23:00:00</v>
-      </c>
-      <c r="H3" s="6" t="str">
-        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
-        <v>2023-02-02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="7">
-        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
-        <v>30</v>
-      </c>
-      <c r="G4" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-02-02 23:00:00</v>
-      </c>
-      <c r="H4" s="6" t="str">
-        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
-        <v>2023-02-02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="7">
-        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
-        <v>20</v>
-      </c>
-      <c r="G5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-02-02 23:00:00</v>
-      </c>
-      <c r="H5" s="6" t="str">
-        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
-        <v>2023-02-02</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="7">
-        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
-        <v>0.90860200000000002</v>
-      </c>
-      <c r="G6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-01-31 23:00:00</v>
-      </c>
-      <c r="H6" s="6" t="str">
-        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
-        <v>2023-01-31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="7">
-        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
-        <v>3</v>
-      </c>
-      <c r="G7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-01-31 23:00:00</v>
-      </c>
-      <c r="H7" s="6" t="str">
-        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
-        <v>2023-01-31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="7">
-        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
-        <v>3</v>
-      </c>
-      <c r="G8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-01-31 23:00:00</v>
-      </c>
-      <c r="H8" s="6" t="str">
-        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
-        <v>2023-01-31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="7">
-        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
-        <v>10</v>
-      </c>
-      <c r="G9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-02-01 02:00:00</v>
-      </c>
-      <c r="H9" s="6" t="str">
-        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
-        <v>2023-02-01</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="7">
-        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
-        <v>10</v>
-      </c>
-      <c r="G10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-02-03 02:00:00</v>
-      </c>
-      <c r="H10" s="6" t="str">
-        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
-        <v>2023-02-03</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="7">
-        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
-        <v>10</v>
-      </c>
-      <c r="G11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-02-03 02:00:00</v>
-      </c>
-      <c r="H11" s="6" t="str">
-        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
-        <v>2023-02-03</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="7">
-        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
-        <v>7.6543210000000004</v>
-      </c>
-      <c r="G12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-02-01 02:00:00</v>
-      </c>
-      <c r="H12" s="6" t="str">
-        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
-        <v>2023-02-01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="7">
-        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
-        <v>666.66666599999996</v>
-      </c>
-      <c r="G13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-02-01 02:00:00</v>
-      </c>
-      <c r="H13" s="6" t="str">
-        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
-        <v>2023-02-01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="7">
-        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
-        <v>1E-3</v>
-      </c>
-      <c r="G14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-01-31 23:00:00</v>
-      </c>
-      <c r="H14" s="6" t="str">
-        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
-        <v>2023-01-31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="7">
-        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-01-31 23:00:00</v>
-      </c>
-      <c r="H15" s="6" t="str">
-        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
-        <v>2023-01-31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="7">
-        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
-        <v>666.66666599999996</v>
-      </c>
-      <c r="G16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-02-02 23:00:00</v>
-      </c>
-      <c r="H16" s="6" t="str">
-        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
-        <v>2023-02-02</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="7">
-        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
-        <v>10</v>
-      </c>
-      <c r="G17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-01-31 23:00:00</v>
-      </c>
-      <c r="H17" s="6" t="str">
-        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
-        <v>2023-01-31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="7" t="str">
-        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
-        <v/>
-      </c>
-      <c r="G18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H18" s="6" t="str">
-        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="7" t="str">
-        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
-        <v/>
-      </c>
-      <c r="G19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H19" s="6" t="str">
-        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="7" t="str">
-        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
-        <v/>
-      </c>
-      <c r="G20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H20" s="6" t="str">
-        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="7" t="str">
-        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
-        <v/>
-      </c>
-      <c r="G21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H21" s="6" t="str">
-        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="7" t="str">
-        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
-        <v/>
-      </c>
-      <c r="G22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H22" s="6" t="str">
-        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="7" t="str">
-        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
-        <v/>
-      </c>
-      <c r="G23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H23" s="6" t="str">
-        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="7" t="str">
-        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
-        <v/>
-      </c>
-      <c r="G24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H24" s="6" t="str">
-        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="7" t="str">
-        <f>IFERROR(VALUE(SUBSTITUTE(ChargePricePoints[[#This Row],[charge_price]],".",",")),"")</f>
-        <v/>
-      </c>
-      <c r="G25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H25" s="6" t="str">
-        <f>LEFT(ChargePricePoints[[#This Row],[charge_time]],10)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
